--- a/data/hotels_by_city/Houston/Houston_shard_71.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_71.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="424">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1212489-Reviews-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-Houston-Medical-Center.h2227000.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1196 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r575271166-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1212489</t>
+  </si>
+  <si>
+    <t>575271166</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Average hotel in a bad neighborhood</t>
+  </si>
+  <si>
+    <t>Stayed at the Candlewood Suites when my Mom was being treated at MD Anderson.  The staff were all very nice and the room was mostly fine, except for the inability to keep the room consistently at the correct temperature.  The only problem we had was the sketchy characters that hung around near the hotel in the evenings.  I was afraid my car would be stolen or we would get mugged coming in from the hospital in the evenings.  Even the hotel clerk when we arrived told us to park in the front near the building and not to go around back.  I would not stay at this location again simply because of not feeling safe; otherwise, the hotel itself was ok and the staff were all great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alexis G, General Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Stayed at the Candlewood Suites when my Mom was being treated at MD Anderson.  The staff were all very nice and the room was mostly fine, except for the inability to keep the room consistently at the correct temperature.  The only problem we had was the sketchy characters that hung around near the hotel in the evenings.  I was afraid my car would be stolen or we would get mugged coming in from the hospital in the evenings.  Even the hotel clerk when we arrived told us to park in the front near the building and not to go around back.  I would not stay at this location again simply because of not feeling safe; otherwise, the hotel itself was ok and the staff were all great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r572269902-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572269902</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Pleasant</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel to attend a summit in Houston. I was very pleased. I hate hotels because of the possible "cooties" but I was comfortable here. The rooms at this Candlewood Suites was clean, it smelled fresh, there was a handwritten note and a piece of chocolate from staff left in the room. The air was a little too warm on arrival and a little rust came out with the water at my bath time but it was fine after a few seconds. I would stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Alexis G, General Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel to attend a summit in Houston. I was very pleased. I hate hotels because of the possible "cooties" but I was comfortable here. The rooms at this Candlewood Suites was clean, it smelled fresh, there was a handwritten note and a piece of chocolate from staff left in the room. The air was a little too warm on arrival and a little rust came out with the water at my bath time but it was fine after a few seconds. I would stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r558713600-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558713600</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>Nice place to stay for MD Anderson</t>
+  </si>
+  <si>
+    <t>We got a good room rate on Expedia, and enjoyed the hotel on a weeknight at a reasonable price !  It's only a few miles from MDAnderson, and they do have a shuttle. It was quiet on the side away from the highway, it was clean and comfy with free parking and free laundry.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Alexis G, General Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2018</t>
+  </si>
+  <si>
+    <t>We got a good room rate on Expedia, and enjoyed the hotel on a weeknight at a reasonable price !  It's only a few miles from MDAnderson, and they do have a shuttle. It was quiet on the side away from the highway, it was clean and comfy with free parking and free laundry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r500273070-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500273070</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Medical stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, fairly newly renovated property.  We have stayed numerous times. Booked through Hotwire. Property is a little bit out of the way. They do not clean the room if you are staying more than a day, but it has not been a problem for us. You can trade in your dirty towels if needed. </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r490962026-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490962026</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Disappointing stay</t>
+  </si>
+  <si>
+    <t>I stood in others Candlewood Hotels before and this one was so disappointing. The hotel seems old, the overall cleanliness is not good and the room never seemed to be cleaned, just the towels were switched during the weekly housekeeping. The sheets and comforter had stains on that, so disgusting. The staff was not nice at all. I asked for a late check out for 3 different attendants and they said I had to talk to the manager, but the manager was never there. They let me stay just 1 hour more or I'd had to pay a whole day! They say that if you are a member in their rewards program you can have a late check out, but they never even asked me if I was a member. They also charged me more for ammounts I had already paid and after they realized they reversed to my credit card but that didn't prevent me of paying taxes in my card. The laundry room was terrible, only half of the machines worked and it was so dirty and in poor conservation, many of my clothes were damaged. I asked if the machines would be fixed and they said in 2 days, but they never were. The only day I could use the swimming pool the electronic lock was broken and they interdicted the pool because of that and took 2 days to fix it. I will look for other...I stood in others Candlewood Hotels before and this one was so disappointing. The hotel seems old, the overall cleanliness is not good and the room never seemed to be cleaned, just the towels were switched during the weekly housekeeping. The sheets and comforter had stains on that, so disgusting. The staff was not nice at all. I asked for a late check out for 3 different attendants and they said I had to talk to the manager, but the manager was never there. They let me stay just 1 hour more or I'd had to pay a whole day! They say that if you are a member in their rewards program you can have a late check out, but they never even asked me if I was a member. They also charged me more for ammounts I had already paid and after they realized they reversed to my credit card but that didn't prevent me of paying taxes in my card. The laundry room was terrible, only half of the machines worked and it was so dirty and in poor conservation, many of my clothes were damaged. I asked if the machines would be fixed and they said in 2 days, but they never were. The only day I could use the swimming pool the electronic lock was broken and they interdicted the pool because of that and took 2 days to fix it. I will look for other options for my long stays from now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>I stood in others Candlewood Hotels before and this one was so disappointing. The hotel seems old, the overall cleanliness is not good and the room never seemed to be cleaned, just the towels were switched during the weekly housekeeping. The sheets and comforter had stains on that, so disgusting. The staff was not nice at all. I asked for a late check out for 3 different attendants and they said I had to talk to the manager, but the manager was never there. They let me stay just 1 hour more or I'd had to pay a whole day! They say that if you are a member in their rewards program you can have a late check out, but they never even asked me if I was a member. They also charged me more for ammounts I had already paid and after they realized they reversed to my credit card but that didn't prevent me of paying taxes in my card. The laundry room was terrible, only half of the machines worked and it was so dirty and in poor conservation, many of my clothes were damaged. I asked if the machines would be fixed and they said in 2 days, but they never were. The only day I could use the swimming pool the electronic lock was broken and they interdicted the pool because of that and took 2 days to fix it. I will look for other...I stood in others Candlewood Hotels before and this one was so disappointing. The hotel seems old, the overall cleanliness is not good and the room never seemed to be cleaned, just the towels were switched during the weekly housekeeping. The sheets and comforter had stains on that, so disgusting. The staff was not nice at all. I asked for a late check out for 3 different attendants and they said I had to talk to the manager, but the manager was never there. They let me stay just 1 hour more or I'd had to pay a whole day! They say that if you are a member in their rewards program you can have a late check out, but they never even asked me if I was a member. They also charged me more for ammounts I had already paid and after they realized they reversed to my credit card but that didn't prevent me of paying taxes in my card. The laundry room was terrible, only half of the machines worked and it was so dirty and in poor conservation, many of my clothes were damaged. I asked if the machines would be fixed and they said in 2 days, but they never were. The only day I could use the swimming pool the electronic lock was broken and they interdicted the pool because of that and took 2 days to fix it. I will look for other options for my long stays from now on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r479504824-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479504824</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Clean but the furnishings and flooring are gross.  Staff nice though</t>
+  </si>
+  <si>
+    <t>The room was comfortable and a good size.  I stayed there two night alone and felt safe. Bed was ok but the couch and chair were very worn.  Carpet was yuchy.If you are used to nicer hotels you may not like this one. I covered the sofa with the extra sheets they have in the closet.  We were in town to go to MD Anderson.  Used the shuttle once. I used the gym which was good and my husband used the hot tub - he said it was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>The room was comfortable and a good size.  I stayed there two night alone and felt safe. Bed was ok but the couch and chair were very worn.  Carpet was yuchy.If you are used to nicer hotels you may not like this one. I covered the sofa with the extra sheets they have in the closet.  We were in town to go to MD Anderson.  Used the shuttle once. I used the gym which was good and my husband used the hot tub - he said it was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r440319704-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440319704</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital visit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So this IHG was located close to where we needed to be. Easy to find, but very difficult to get into. You can't enter from going South on Main. From 610 service road you have to cut through Taco Bell. The hotel staff was very friendly. The hotel and room was very clean and well stocked. The AC system worked well. Beds very comfortable.  With the exception of access into hotel from the roadway, two thumbs up. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r425383252-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425383252</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>COAZY PLACE</t>
+  </si>
+  <si>
+    <t>I only stayed in for one night. My medical trip was cut short. The place was clean with all the essentials I needed. The staff were extremely friendly and hospitable, I couldn't have asked for more. The place was a walking distance, around a mile to the Memorial Hermann Clinic Center.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r419325292-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419325292</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL, but someone NEEDS to FIX THE VAN.</t>
+  </si>
+  <si>
+    <t>Like I said above, a GREAT HOTEL. My wife and I spend a week there while visiting someone being treated in the MD Anderson Cancer Center Hospital of Houston. The hotel has FREE clothes washing facilities for tenants, is walking distance to Whataburger, Golden Corral, Taco Bell, and even a Denny's restaurant.  
+The suites have stove-top cooking, microwave and a full-sized refrigerator and even though a little small in size are comfortable for short or long stays. EVERYTHING needed for cooking is in the room, AND if it's not IN the room, is probably available from the hotel storage area.  I mean toaster, silverware, dishes, etc.
+While no breakfast is served as part of the stay, YOU can cook whatever you want for yourself right in the room!!  IF you're not into cooking breakfast, make a short trip to Denny's or other nearby locations. 
+Even though the building is a little hard to get to, it's got a well-lit parking lot and staff that actually seem to enjoy helping in any way they can.  
+I've rated this facility with a 4 vs 5 because of a problem with the van used (FREE) to shuttle tenants to the numerous MD Anderson treatment hospitals.  The van drivers are VERY attentive and bend over backward to get and return tenants as safely and quickly as possible.  
+The one (and I think only) van is built to supply air conditioning to the entire compartment....Like I said above, a GREAT HOTEL. My wife and I spend a week there while visiting someone being treated in the MD Anderson Cancer Center Hospital of Houston. The hotel has FREE clothes washing facilities for tenants, is walking distance to Whataburger, Golden Corral, Taco Bell, and even a Denny's restaurant.  The suites have stove-top cooking, microwave and a full-sized refrigerator and even though a little small in size are comfortable for short or long stays. EVERYTHING needed for cooking is in the room, AND if it's not IN the room, is probably available from the hotel storage area.  I mean toaster, silverware, dishes, etc.While no breakfast is served as part of the stay, YOU can cook whatever you want for yourself right in the room!!  IF you're not into cooking breakfast, make a short trip to Denny's or other nearby locations. Even though the building is a little hard to get to, it's got a well-lit parking lot and staff that actually seem to enjoy helping in any way they can.  I've rated this facility with a 4 vs 5 because of a problem with the van used (FREE) to shuttle tenants to the numerous MD Anderson treatment hospitals.  The van drivers are VERY attentive and bend over backward to get and return tenants as safely and quickly as possible.  The one (and I think only) van is built to supply air conditioning to the entire compartment.   In the HEAT and HUMIDITY of Houston, air conditioning is a MUST.  But, even though it's been identified, management - not the drivers - have failed to get the air conditioning working.  AGAIN, I'll state that this is a GREAT HOTEL.  But, to get a 5-star rating, the van air conditioning  problem NEEDS to be resolved.  While these tenants are fighting cancer themselves or are in the area to support their loved ones, riding FREE - while greatly appreciated -  is still tough on many when you are sweating for 20 or more minutes going to returning from the various hospitals in the area..DON'T hesitate staying at this hotel.  It IS a GREAT HOTEL.  Hopefully, the van will be repaired before you arrive!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Like I said above, a GREAT HOTEL. My wife and I spend a week there while visiting someone being treated in the MD Anderson Cancer Center Hospital of Houston. The hotel has FREE clothes washing facilities for tenants, is walking distance to Whataburger, Golden Corral, Taco Bell, and even a Denny's restaurant.  
+The suites have stove-top cooking, microwave and a full-sized refrigerator and even though a little small in size are comfortable for short or long stays. EVERYTHING needed for cooking is in the room, AND if it's not IN the room, is probably available from the hotel storage area.  I mean toaster, silverware, dishes, etc.
+While no breakfast is served as part of the stay, YOU can cook whatever you want for yourself right in the room!!  IF you're not into cooking breakfast, make a short trip to Denny's or other nearby locations. 
+Even though the building is a little hard to get to, it's got a well-lit parking lot and staff that actually seem to enjoy helping in any way they can.  
+I've rated this facility with a 4 vs 5 because of a problem with the van used (FREE) to shuttle tenants to the numerous MD Anderson treatment hospitals.  The van drivers are VERY attentive and bend over backward to get and return tenants as safely and quickly as possible.  
+The one (and I think only) van is built to supply air conditioning to the entire compartment....Like I said above, a GREAT HOTEL. My wife and I spend a week there while visiting someone being treated in the MD Anderson Cancer Center Hospital of Houston. The hotel has FREE clothes washing facilities for tenants, is walking distance to Whataburger, Golden Corral, Taco Bell, and even a Denny's restaurant.  The suites have stove-top cooking, microwave and a full-sized refrigerator and even though a little small in size are comfortable for short or long stays. EVERYTHING needed for cooking is in the room, AND if it's not IN the room, is probably available from the hotel storage area.  I mean toaster, silverware, dishes, etc.While no breakfast is served as part of the stay, YOU can cook whatever you want for yourself right in the room!!  IF you're not into cooking breakfast, make a short trip to Denny's or other nearby locations. Even though the building is a little hard to get to, it's got a well-lit parking lot and staff that actually seem to enjoy helping in any way they can.  I've rated this facility with a 4 vs 5 because of a problem with the van used (FREE) to shuttle tenants to the numerous MD Anderson treatment hospitals.  The van drivers are VERY attentive and bend over backward to get and return tenants as safely and quickly as possible.  The one (and I think only) van is built to supply air conditioning to the entire compartment.   In the HEAT and HUMIDITY of Houston, air conditioning is a MUST.  But, even though it's been identified, management - not the drivers - have failed to get the air conditioning working.  AGAIN, I'll state that this is a GREAT HOTEL.  But, to get a 5-star rating, the van air conditioning  problem NEEDS to be resolved.  While these tenants are fighting cancer themselves or are in the area to support their loved ones, riding FREE - while greatly appreciated -  is still tough on many when you are sweating for 20 or more minutes going to returning from the various hospitals in the area..DON'T hesitate staying at this hotel.  It IS a GREAT HOTEL.  Hopefully, the van will be repaired before you arrive!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r397739060-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>397739060</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Quality, pet friendly hotel!</t>
+  </si>
+  <si>
+    <t>We were in town for the Houston World Series of Dog Shows and stayed here,  so glad we did!  Very nice junior suite with full size fridge, microwave &amp; stove top which was great so we could buy groceries and not have to leave the room.  Very clean, super  friendly staff. Very convenient to the NRG stadium and any shopping you need less than a mile away. I'd definitely stay her again.  The only reason I didn't give it 5 stars is because it's in a bad area &amp; a car parked next to us got their window smashed and car ransacked but that's not the hotels fault - it's just a scary part of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>We were in town for the Houston World Series of Dog Shows and stayed here,  so glad we did!  Very nice junior suite with full size fridge, microwave &amp; stove top which was great so we could buy groceries and not have to leave the room.  Very clean, super  friendly staff. Very convenient to the NRG stadium and any shopping you need less than a mile away. I'd definitely stay her again.  The only reason I didn't give it 5 stars is because it's in a bad area &amp; a car parked next to us got their window smashed and car ransacked but that's not the hotels fault - it's just a scary part of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r386639550-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386639550</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Great for business travel</t>
+  </si>
+  <si>
+    <t>Each room is a mini suite with microwave, full size fridge, stove and utensils which is convenient for the person who is either on business or here for its close access to the medical center. The hotel is situated on the same lot with a whataburger and a golden corral. Rooms were clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Each room is a mini suite with microwave, full size fridge, stove and utensils which is convenient for the person who is either on business or here for its close access to the medical center. The hotel is situated on the same lot with a whataburger and a golden corral. Rooms were clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r383294071-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383294071</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Quiet hotel, clean, comfortable with friendly staff</t>
+  </si>
+  <si>
+    <t>We needed a place to stay while visiting MD Anderson Cancer Center for 3 nights.  This hotel is off heavily travelled South Main Street that is a little goofy to find but not too bad.  Near lots of restaurants, gas stations, convenience stores, football stadium and a few miles from the Medical Center.  Room was clean with a queen bed so if you need a king make sure you ask ahead of time, in room mini kitchen with microwave, refrigerator, stove and coffee maker.  Air conditioner a little noisy.  Staff very friendly and helpful.  Free coffee in lobby all the time which is nice and USA Today newspapers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>We needed a place to stay while visiting MD Anderson Cancer Center for 3 nights.  This hotel is off heavily travelled South Main Street that is a little goofy to find but not too bad.  Near lots of restaurants, gas stations, convenience stores, football stadium and a few miles from the Medical Center.  Room was clean with a queen bed so if you need a king make sure you ask ahead of time, in room mini kitchen with microwave, refrigerator, stove and coffee maker.  Air conditioner a little noisy.  Staff very friendly and helpful.  Free coffee in lobby all the time which is nice and USA Today newspapers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r361880782-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361880782</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time in houston </t>
+  </si>
+  <si>
+    <t>My uncle and aunt and I came to Houston for the first time and did not know where to go or to stay. Lucky we found this place and we all enjoyed our stay at this hotel. If you are coming to Houston this is a good hotel to stay at...this is where you would want to stay. It's clean and the staff is very nice. BUT I must say you may get lost looking for the hotel because it is in the back of a few building one been a all you can eat restaurant. Other than that this is a nice hotel MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2016</t>
+  </si>
+  <si>
+    <t>My uncle and aunt and I came to Houston for the first time and did not know where to go or to stay. Lucky we found this place and we all enjoyed our stay at this hotel. If you are coming to Houston this is a good hotel to stay at...this is where you would want to stay. It's clean and the staff is very nice. BUT I must say you may get lost looking for the hotel because it is in the back of a few building one been a all you can eat restaurant. Other than that this is a nice hotel More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r357887478-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357887478</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Consistent</t>
+  </si>
+  <si>
+    <t>The rooms are always clean.  The same man has checked us in for several years now.  They have a nice breakfast that they keep well stocked.  The beds are comfortable and the towels are nice and fluffy.  We stay here when we are in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>The rooms are always clean.  The same man has checked us in for several years now.  They have a nice breakfast that they keep well stocked.  The beds are comfortable and the towels are nice and fluffy.  We stay here when we are in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r340928504-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340928504</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>When you need to stay in South Houston</t>
+  </si>
+  <si>
+    <t>Second time I have stayed at Candlewood. Great location for doing business in South Houston, located on or near major highways. Rooms are clean, spacious, and have kitchenette. Property is bordered by 3 restaurants, so if you have no special place to eat you can get something at one of theses. Pool, exercise Room - check. My one tip - I tried to book through IHG Hotels website and was told no rooms. A second call said they had rooms but at a higher price. I called the hotel direct, got a room, and a very reasonable rate. So much for being an IHG Rewards member in good standing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Second time I have stayed at Candlewood. Great location for doing business in South Houston, located on or near major highways. Rooms are clean, spacious, and have kitchenette. Property is bordered by 3 restaurants, so if you have no special place to eat you can get something at one of theses. Pool, exercise Room - check. My one tip - I tried to book through IHG Hotels website and was told no rooms. A second call said they had rooms but at a higher price. I called the hotel direct, got a room, and a very reasonable rate. So much for being an IHG Rewards member in good standing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r333339509-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333339509</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>Smells like smoke/not cleaned</t>
+  </si>
+  <si>
+    <t>This review is written on behalf of my staff who stayed at this hotel. The room selected for him was on the previous smoking floor. We were both unaware of this and he complained to front desk of the smoke smell. He was advised it was likely coming from outside and so he bought fabreeze. He went through 3 bottles and complained again and although the staff member said they did not smell it, they moved him informing him that the floor he was on was on the previous smoking floor. The room they moved him to had a broken recliner chair, had stains on the carpet and sofa. The GM promised to have his chair situation fixed, but left for the day without a phone call or update.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Andy S, Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded December 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2015</t>
+  </si>
+  <si>
+    <t>This review is written on behalf of my staff who stayed at this hotel. The room selected for him was on the previous smoking floor. We were both unaware of this and he complained to front desk of the smoke smell. He was advised it was likely coming from outside and so he bought fabreeze. He went through 3 bottles and complained again and although the staff member said they did not smell it, they moved him informing him that the floor he was on was on the previous smoking floor. The room they moved him to had a broken recliner chair, had stains on the carpet and sofa. The GM promised to have his chair situation fixed, but left for the day without a phone call or update.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r329283854-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329283854</t>
+  </si>
+  <si>
+    <t>11/26/2015</t>
+  </si>
+  <si>
+    <t>Great Day Before Booking Trip</t>
+  </si>
+  <si>
+    <t>My sister and I decided to plan a last minute trip to houston. We found this hotel for a pretty fair price. The room was very nice. We stayed in a queen suite. It had a large bathroom, open floor plan for the living room, a full kitchen, and a whole separate room for the bedroom. For a one day, day before, trip this hotel was pretty great. The staff was a little slow but still very friendly.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r326367466-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326367466</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, Centrally located - AWESOME STAFF</t>
+  </si>
+  <si>
+    <t>We have stayed at other "extended stay" chains and this one by far offered the cleanest rooms, most amenities, and friendliest helpful staff.  The weight room was clean, had updated functioning machines, the pool was clean and warm.  The laundry machines were VERY clean and were FREE (BONUS!).  They also had a computer and printer available for us to print our boarding passes!  Anytime we needed anything the staff was SUPER friendly and they even granted us an extended checkout time with NO hassle or charge!  Will be coming back again!</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r284575646-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284575646</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Consistently clean and comfortable</t>
+  </si>
+  <si>
+    <t>We stay at this hotel every 3 months due to medical checkups nearby. It is noticeable that the hotel strives to provide a home-like atmosphere for its guests. Movies, books, games, small appliances, and an outdoor grill are available to guests. Laundry facilities consist of washers and dryers at no cost to the user. What a nice gesture! Shuttle service is provided to the medical center and to nearby shopping centers. I'm touched when the desk clerk extends well-wishes on our upcoming doctor's visit. And one other thing, we've noticed the cleanliness of each of the different rooms we've had. So if you need a clean room in a safe area near the medical center or the NRG arena, I highly recommend the Candlewood Suites in Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We stay at this hotel every 3 months due to medical checkups nearby. It is noticeable that the hotel strives to provide a home-like atmosphere for its guests. Movies, books, games, small appliances, and an outdoor grill are available to guests. Laundry facilities consist of washers and dryers at no cost to the user. What a nice gesture! Shuttle service is provided to the medical center and to nearby shopping centers. I'm touched when the desk clerk extends well-wishes on our upcoming doctor's visit. And one other thing, we've noticed the cleanliness of each of the different rooms we've had. So if you need a clean room in a safe area near the medical center or the NRG arena, I highly recommend the Candlewood Suites in Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r283209572-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283209572</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>We were placed at the Candlewood Suites at the Medical Center after the Memorial Day flood.VERY NICE, people, rooms, laundry,everything. I highly recommend this Hotel.  There are several fast food places within walking distance, and a Golden Corral.  Less than 1 mile away is a Papasitos and a Papadeauxs.Nice area</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r275413237-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275413237</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Perfect reasonably-priced stay for Medical Center visit</t>
+  </si>
+  <si>
+    <t>Our nurse was concerned about the location, but we found the hotel secure and during evenings, saw a Candlewood security van close by.  On vacation we might stay at a slightly higher-rated Holiday Inn hotel (this one has some carpet wear, etc) but when you are going back and forth to the Med Ctr and need a decent, reasonably priced hotel room for extended visits, this one fits the bill nicely.  We've stayed here three times over the past three weeks and the bed is very comfortable, the room is clean, the desk is friendly, and every single room we've had has been identical excepting perhaps the view.  We've had 401, 413 and 201 - all comfortable queen bed non-smoking suites.  I'm sure next time we're in town, we'll stay here again.  Not fancy, but fits the bill very nicely.  If you are an MDA patient, don't forget to visit the MDA site for their corporate code to get an MDA patient discount.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Our nurse was concerned about the location, but we found the hotel secure and during evenings, saw a Candlewood security van close by.  On vacation we might stay at a slightly higher-rated Holiday Inn hotel (this one has some carpet wear, etc) but when you are going back and forth to the Med Ctr and need a decent, reasonably priced hotel room for extended visits, this one fits the bill nicely.  We've stayed here three times over the past three weeks and the bed is very comfortable, the room is clean, the desk is friendly, and every single room we've had has been identical excepting perhaps the view.  We've had 401, 413 and 201 - all comfortable queen bed non-smoking suites.  I'm sure next time we're in town, we'll stay here again.  Not fancy, but fits the bill very nicely.  If you are an MDA patient, don't forget to visit the MDA site for their corporate code to get an MDA patient discount.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r268416325-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268416325</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Quiet and Relaxing</t>
+  </si>
+  <si>
+    <t>Need a quiet place to do some work, this was the perfect place! Claudia was able to place me in an end room and was the perfect room for some peace and quiet, and got my work done as well.A nice and affortable place that is better than a hotel room.  I am sure I will be staying here more often.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r243746218-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243746218</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Certified Surgical Technologist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operations Manager Ebone and Front Desk Operator Liseth are both exceptional employees. They represent this organization with great  professionalism, they go above in beyond without hesitation and without being asked. They are always smiling and are ginuene when  greeting people. They are the epitome of amazing great customer service. Because of these two employees, Candlewood Suites will be my first choice to stay on my travel assignments. </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r240433623-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240433623</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>"The price is right! "</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel while my wife was getting treatments at MD Anderson.  First, the shuttle service the hotel provides to each hospital is great for their guests. The cook tops,  refrigerator and dishwasher in each room were a great convenience when staying for several days or longer. I forgot to mention the dishes and silverware that were provided.  The free laundry facilities are the crowning touch. The room was always immaculate when I checked in (I have stayed here several times). The staff has always been terrific which includes the great shuttle drivers.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r222473436-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222473436</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Great Pet Friendly Hotel near attractions</t>
+  </si>
+  <si>
+    <t>Was a great stay and very pet Friendly. Staff was very helpful. Will recommend and stay again. Area had dining places withing walking distance.Although intrenet was subpar, so if traveling work be prepared for long times to do work from Hotel.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r221427763-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221427763</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>At the end of July (2014) I was in Houston on a business trip for 4 days. First I stayed at a hotel in Spring but had to move closer to downtown for easy access to my work site. As someone who likes to cook, it did not take me long to make Candlewood my first choice as the suites are equipped with kitchens.(Even though this location was proliferated with restaurants) The staff was very helpful as check-in was swift and effortless,I do like the fact that the hotel is not quite visible from the highway but it is well lit with great appearance. I did enjoy my stay and wished I had stayed there initially from the start. Whenever I am in Houston, Manager Kim Andrew please expect to see me. "I will be back!!!"MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>At the end of July (2014) I was in Houston on a business trip for 4 days. First I stayed at a hotel in Spring but had to move closer to downtown for easy access to my work site. As someone who likes to cook, it did not take me long to make Candlewood my first choice as the suites are equipped with kitchens.(Even though this location was proliferated with restaurants) The staff was very helpful as check-in was swift and effortless,I do like the fact that the hotel is not quite visible from the highway but it is well lit with great appearance. I did enjoy my stay and wished I had stayed there initially from the start. Whenever I am in Houston, Manager Kim Andrew please expect to see me. "I will be back!!!"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r221363121-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221363121</t>
+  </si>
+  <si>
+    <t>POOR CUSTOMER SERVICE</t>
+  </si>
+  <si>
+    <t>Arrived at the hotel on Monday, August 11, 2014 at approximately 7:30 pm in a rain storm.  Needless to say..I was drenched.  Waited at the front desk for at least 20 minutes and no one, no one was at the front desk...no where to be found.  
+Finally a young lady showed up.  She apparently was only one person working the desk.  She said she was helping another customer......hello....all while leaving the front desk unmanned.  WOW!!! 
+There was another gentlemen waiting at the front desk as well.  ....then she had to answer the incoming phone calls.  It shouldn't take 30 minutes to get checked into a hotel...this is crazy.  
+I am an IHG rewards customer and was not offered my amentity--2 bottles of water. 
+There should be at least 2 people working this front desk. 
+I requested a room facing the back of the hotel, since it would be quieter.  She confirmed that it was a room facing the BACK...I ask her again to be sure.  Well room 310 obviously faces the FRONT of the hotel.  Don't they have charts to know WHERE THE ROOMS ARE LOCATED????
+Checked out about 9:00 am the following morning...now there were 3 ladies at the front desk chatting.....I clearly walked in front of the desk to get to the exit door...but not one said good morning.  
+Why why why do I stay at this hotel??  I guess was hopeful that the customer service had change....it...Arrived at the hotel on Monday, August 11, 2014 at approximately 7:30 pm in a rain storm.  Needless to say..I was drenched.  Waited at the front desk for at least 20 minutes and no one, no one was at the front desk...no where to be found.  Finally a young lady showed up.  She apparently was only one person working the desk.  She said she was helping another customer......hello....all while leaving the front desk unmanned.  WOW!!! There was another gentlemen waiting at the front desk as well.  ....then she had to answer the incoming phone calls.  It shouldn't take 30 minutes to get checked into a hotel...this is crazy.  I am an IHG rewards customer and was not offered my amentity--2 bottles of water. There should be at least 2 people working this front desk. I requested a room facing the back of the hotel, since it would be quieter.  She confirmed that it was a room facing the BACK...I ask her again to be sure.  Well room 310 obviously faces the FRONT of the hotel.  Don't they have charts to know WHERE THE ROOMS ARE LOCATED????Checked out about 9:00 am the following morning...now there were 3 ladies at the front desk chatting.....I clearly walked in front of the desk to get to the exit door...but not one said good morning.  Why why why do I stay at this hotel??  I guess was hopeful that the customer service had change....it has not. I work in the area and live far out so I thought I'd get a hotel room close by and stay the night....MISTAKE...back to the Hilton.Come hell or high water...I will never stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded August 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2014</t>
+  </si>
+  <si>
+    <t>Arrived at the hotel on Monday, August 11, 2014 at approximately 7:30 pm in a rain storm.  Needless to say..I was drenched.  Waited at the front desk for at least 20 minutes and no one, no one was at the front desk...no where to be found.  
+Finally a young lady showed up.  She apparently was only one person working the desk.  She said she was helping another customer......hello....all while leaving the front desk unmanned.  WOW!!! 
+There was another gentlemen waiting at the front desk as well.  ....then she had to answer the incoming phone calls.  It shouldn't take 30 minutes to get checked into a hotel...this is crazy.  
+I am an IHG rewards customer and was not offered my amentity--2 bottles of water. 
+There should be at least 2 people working this front desk. 
+I requested a room facing the back of the hotel, since it would be quieter.  She confirmed that it was a room facing the BACK...I ask her again to be sure.  Well room 310 obviously faces the FRONT of the hotel.  Don't they have charts to know WHERE THE ROOMS ARE LOCATED????
+Checked out about 9:00 am the following morning...now there were 3 ladies at the front desk chatting.....I clearly walked in front of the desk to get to the exit door...but not one said good morning.  
+Why why why do I stay at this hotel??  I guess was hopeful that the customer service had change....it...Arrived at the hotel on Monday, August 11, 2014 at approximately 7:30 pm in a rain storm.  Needless to say..I was drenched.  Waited at the front desk for at least 20 minutes and no one, no one was at the front desk...no where to be found.  Finally a young lady showed up.  She apparently was only one person working the desk.  She said she was helping another customer......hello....all while leaving the front desk unmanned.  WOW!!! There was another gentlemen waiting at the front desk as well.  ....then she had to answer the incoming phone calls.  It shouldn't take 30 minutes to get checked into a hotel...this is crazy.  I am an IHG rewards customer and was not offered my amentity--2 bottles of water. There should be at least 2 people working this front desk. I requested a room facing the back of the hotel, since it would be quieter.  She confirmed that it was a room facing the BACK...I ask her again to be sure.  Well room 310 obviously faces the FRONT of the hotel.  Don't they have charts to know WHERE THE ROOMS ARE LOCATED????Checked out about 9:00 am the following morning...now there were 3 ladies at the front desk chatting.....I clearly walked in front of the desk to get to the exit door...but not one said good morning.  Why why why do I stay at this hotel??  I guess was hopeful that the customer service had change....it has not. I work in the area and live far out so I thought I'd get a hotel room close by and stay the night....MISTAKE...back to the Hilton.Come hell or high water...I will never stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r209574846-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209574846</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Trade Show at Reliant Center</t>
+  </si>
+  <si>
+    <t>Location is perfect for anything that you have to do in the Reliant Park/Convention Center area. Its not directly on the main road so its quiet at night. Several food options within walking distance.Price was very reasonable, staff was great. Stayed 3 nights / 4 days.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r207812189-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207812189</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Close &amp; clean</t>
+  </si>
+  <si>
+    <t>This is my 5th year to stay during RodeoHouston and I was pleased again. After 26 nights, the staff knows you, accepts packages for you and even calls you to let you know boxes were delivered. Excellent customer service!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r205550668-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205550668</t>
+  </si>
+  <si>
+    <t>05/14/2014</t>
+  </si>
+  <si>
+    <t>Quick Stay</t>
+  </si>
+  <si>
+    <t>We flew in to Houston on Monday for a business trip and most hotels had no availability. But we found two rooms at this hotel. The rooms were very clean, great towels, nice firm bed and plenty of pillows.But what really made this place was the staff. They could not have been more accomodating and friendly. They helped us figure out where to go to dinner and even offered to drive us to Fiesta to pick up some items. When we checked out, they said next time they'll take us to Pappacitas for margaritas. Really nice people. Everyone should be more than comfortable to stay here. Only con I have is that there was only decaf coffee for the coffee makers in the room. Coffee drinkers don't want decaf in the morning!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>sharee h, Front Desk Team at Candlewood Suites Houston Medical Center, responded to this reviewResponded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2014</t>
+  </si>
+  <si>
+    <t>We flew in to Houston on Monday for a business trip and most hotels had no availability. But we found two rooms at this hotel. The rooms were very clean, great towels, nice firm bed and plenty of pillows.But what really made this place was the staff. They could not have been more accomodating and friendly. They helped us figure out where to go to dinner and even offered to drive us to Fiesta to pick up some items. When we checked out, they said next time they'll take us to Pappacitas for margaritas. Really nice people. Everyone should be more than comfortable to stay here. Only con I have is that there was only decaf coffee for the coffee makers in the room. Coffee drinkers don't want decaf in the morning!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r202382771-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202382771</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>Just wanted to say thank you</t>
+  </si>
+  <si>
+    <t>i just want to say thank you to the staff of the candle wood my mom is really sick and we have been in and out of the hospital for a couple weeks now, and sherry has been a life saver. I think she has went beyond the call of duty, when it comes to my mom. Thanks candle woodMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>i just want to say thank you to the staff of the candle wood my mom is really sick and we have been in and out of the hospital for a couple weeks now, and sherry has been a life saver. I think she has went beyond the call of duty, when it comes to my mom. Thanks candle woodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r201080184-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201080184</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Not worth the price</t>
+  </si>
+  <si>
+    <t>My boyfriend and I booked a queen bedroom suite at this hotel from April 9th through the 13th for our stay in Houston. We paid over $500 for the 4 night stay and we arrived it was terrible. We got up to our room and it had a very musty mildew kind of smell to the room. The chair that was in the room looked as though a wild cat got a hold of it, as it had rips and tears all over the chair. The TV was a very cheap looking tv and you could just tell not a lot of thought or care went into these rooms. We went to the front desk to see about upgrading our room and we were told that sure they would upgrade us and we would have to pay the difference. Well clearly that was not going to happen being that we already felt like we payed to much for the room anyway. It was VERY VERY disappointing because all the other candlewood suites we have stayed in have always been very nice. Unfortunately from this bad experience we will no longer book any hotel rooms with Candlewood suites in the future. Please don't let the pictures fool you like they did us!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend and I booked a queen bedroom suite at this hotel from April 9th through the 13th for our stay in Houston. We paid over $500 for the 4 night stay and we arrived it was terrible. We got up to our room and it had a very musty mildew kind of smell to the room. The chair that was in the room looked as though a wild cat got a hold of it, as it had rips and tears all over the chair. The TV was a very cheap looking tv and you could just tell not a lot of thought or care went into these rooms. We went to the front desk to see about upgrading our room and we were told that sure they would upgrade us and we would have to pay the difference. Well clearly that was not going to happen being that we already felt like we payed to much for the room anyway. It was VERY VERY disappointing because all the other candlewood suites we have stayed in have always been very nice. Unfortunately from this bad experience we will no longer book any hotel rooms with Candlewood suites in the future. Please don't let the pictures fool you like they did us!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r198983888-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198983888</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>Don't stay in room 105</t>
+  </si>
+  <si>
+    <t>This place stinks, no literally it smells of lysol and cleaning solvent. It hits you as you walk in the door. It is not a clean smell, but a strong scent that is rather off-putting and it burnt my throat. So if that wasn't bad enough, I was put in room 105 which is literally by the reception desk and both the front and rear entrances. To say that I heard every conversation at the front desk would be the understatement of the year. I may as well have slept under the front desk because it wasn't all that different being in my room. Oh and the doors all slam hard, like earth shattering hard, so much so it feels like the room is shaking when the neighbor comes and goes.  Needless to say I did not sleep well for the one night I was there.
+Also a couple of strange things were missing from the hotel room, specifically the bathroom. There was not a towel hook on the back of the door or anywhere else. And there was not a single trash can in the bathroom, so I ended up throwing my wrappers on the counter. It just seemed odd that these simple things were lacking. 
+Now to give you some perspective I am a business traveler and am used to a different level of service. But I do travel with my family and would never subject them to...This place stinks, no literally it smells of lysol and cleaning solvent. It hits you as you walk in the door. It is not a clean smell, but a strong scent that is rather off-putting and it burnt my throat. So if that wasn't bad enough, I was put in room 105 which is literally by the reception desk and both the front and rear entrances. To say that I heard every conversation at the front desk would be the understatement of the year. I may as well have slept under the front desk because it wasn't all that different being in my room. Oh and the doors all slam hard, like earth shattering hard, so much so it feels like the room is shaking when the neighbor comes and goes.  Needless to say I did not sleep well for the one night I was there.Also a couple of strange things were missing from the hotel room, specifically the bathroom. There was not a towel hook on the back of the door or anywhere else. And there was not a single trash can in the bathroom, so I ended up throwing my wrappers on the counter. It just seemed odd that these simple things were lacking. Now to give you some perspective I am a business traveler and am used to a different level of service. But I do travel with my family and would never subject them to this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded April 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2014</t>
+  </si>
+  <si>
+    <t>This place stinks, no literally it smells of lysol and cleaning solvent. It hits you as you walk in the door. It is not a clean smell, but a strong scent that is rather off-putting and it burnt my throat. So if that wasn't bad enough, I was put in room 105 which is literally by the reception desk and both the front and rear entrances. To say that I heard every conversation at the front desk would be the understatement of the year. I may as well have slept under the front desk because it wasn't all that different being in my room. Oh and the doors all slam hard, like earth shattering hard, so much so it feels like the room is shaking when the neighbor comes and goes.  Needless to say I did not sleep well for the one night I was there.
+Also a couple of strange things were missing from the hotel room, specifically the bathroom. There was not a towel hook on the back of the door or anywhere else. And there was not a single trash can in the bathroom, so I ended up throwing my wrappers on the counter. It just seemed odd that these simple things were lacking. 
+Now to give you some perspective I am a business traveler and am used to a different level of service. But I do travel with my family and would never subject them to...This place stinks, no literally it smells of lysol and cleaning solvent. It hits you as you walk in the door. It is not a clean smell, but a strong scent that is rather off-putting and it burnt my throat. So if that wasn't bad enough, I was put in room 105 which is literally by the reception desk and both the front and rear entrances. To say that I heard every conversation at the front desk would be the understatement of the year. I may as well have slept under the front desk because it wasn't all that different being in my room. Oh and the doors all slam hard, like earth shattering hard, so much so it feels like the room is shaking when the neighbor comes and goes.  Needless to say I did not sleep well for the one night I was there.Also a couple of strange things were missing from the hotel room, specifically the bathroom. There was not a towel hook on the back of the door or anywhere else. And there was not a single trash can in the bathroom, so I ended up throwing my wrappers on the counter. It just seemed odd that these simple things were lacking. Now to give you some perspective I am a business traveler and am used to a different level of service. But I do travel with my family and would never subject them to this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r186532875-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186532875</t>
+  </si>
+  <si>
+    <t>12/02/2013</t>
+  </si>
+  <si>
+    <t>Total comfort and peace while at MD Anderson....</t>
+  </si>
+  <si>
+    <t>I recently had appointments at MD Anderson during the week of November 18 through 22.  At sort of the last minute, I chose this property.  What a great choice it was!  When I have to return in March, or at any point in the future, I will definitely be a return guest here.
+Check in was easy-peasy.  Our room was on the 4th floor.  Spacious, comfortable and oh-so-quiet.  It was really like a little one-bedroom condo, with pretty much all the comforts of home, especially for the price point.  The kitchen is well-stocked with everything you would need and a large pantry area to store grocery items.  Pots, pans, dishes, dishwasher (detergent even provided), full-sized refrigerator, microvave, 2-burner stove.  No oven, but who needs an oven?  
+There is a very large desk area which divides the kitchen from the living room with chairs on each side.  This was very handy for spreading out all of my medical paperwork and getting organized, as well as a nice area for meals.  The living area has a recliner, sofa bed, coffee table, TV, DVD player, and windows that actually open.
+The separate bedroom area is so nice so that one person can nap and rest while other family members remain in the other areas.  There is a little desk area in the bedroom and a nice-sized closet (complete with laundry basket so that you can take advantage of the free!! on-site laundry area...I recently had appointments at MD Anderson during the week of November 18 through 22.  At sort of the last minute, I chose this property.  What a great choice it was!  When I have to return in March, or at any point in the future, I will definitely be a return guest here.Check in was easy-peasy.  Our room was on the 4th floor.  Spacious, comfortable and oh-so-quiet.  It was really like a little one-bedroom condo, with pretty much all the comforts of home, especially for the price point.  The kitchen is well-stocked with everything you would need and a large pantry area to store grocery items.  Pots, pans, dishes, dishwasher (detergent even provided), full-sized refrigerator, microvave, 2-burner stove.  No oven, but who needs an oven?  There is a very large desk area which divides the kitchen from the living room with chairs on each side.  This was very handy for spreading out all of my medical paperwork and getting organized, as well as a nice area for meals.  The living area has a recliner, sofa bed, coffee table, TV, DVD player, and windows that actually open.The separate bedroom area is so nice so that one person can nap and rest while other family members remain in the other areas.  There is a little desk area in the bedroom and a nice-sized closet (complete with laundry basket so that you can take advantage of the free!! on-site laundry area on the first floor).The bathroom is spacious.  The linens are very nice.  There are few toiletries provided, so bring your own special soaps, etc.There is another large closet just inside the front door and a nice full-length mirror on the foyer wall.The staff was pleasant, friendly and really helpful with any questions.  The free shuttle to MD Anderson runs on the hour.  What a great convenience to eliminate just one more stressor of such a trip.  They will even drop off/pick up from grocery stores/pharmacies along the route.  You just have to call them to let them know to pick you back up again.The most pleasant thing for me, though, was the quietness of the property.  All week, I heard no noise whatsoever.  What a great relief to be able to come "home" from a long day at the medical facility and chill out.  If you open the windows, you will hear some noise from 610 freeway, but the windows must be super insulated, because once you shut them -- nothing but quiet.  The fitness room is very nice, and, of course, the laundry room is an amazing amenity.  There is even an outdoor grilling area, and they have tools you can borrow from the front desk.  There is a Taco Bell, Whataburger, and Golden Corral, all within the parking lot area.One thing about getting there:  when you exit 610 and turn onto South Main Street, be sure and get in the left turning lane like you are going to go back around and get back on 610.  Then you either turn into the Taco Bell or Golden Corral parking lot to enter the Candlewood Suites parking lot.  If you don't do this and go down South Main thinking you can make a left turn into the hotel, you are doing to have to go miles down and finally exit and return up on South Main.  The reason is that there are concrete barriers in between the lanes of South Main and there are no openings to turn...at least we didn't see any...and had to go down a ways before we figured this out.  This was one of my best lodging experiences ever, despite the reason for the visit.  Highly recommended!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I recently had appointments at MD Anderson during the week of November 18 through 22.  At sort of the last minute, I chose this property.  What a great choice it was!  When I have to return in March, or at any point in the future, I will definitely be a return guest here.
+Check in was easy-peasy.  Our room was on the 4th floor.  Spacious, comfortable and oh-so-quiet.  It was really like a little one-bedroom condo, with pretty much all the comforts of home, especially for the price point.  The kitchen is well-stocked with everything you would need and a large pantry area to store grocery items.  Pots, pans, dishes, dishwasher (detergent even provided), full-sized refrigerator, microvave, 2-burner stove.  No oven, but who needs an oven?  
+There is a very large desk area which divides the kitchen from the living room with chairs on each side.  This was very handy for spreading out all of my medical paperwork and getting organized, as well as a nice area for meals.  The living area has a recliner, sofa bed, coffee table, TV, DVD player, and windows that actually open.
+The separate bedroom area is so nice so that one person can nap and rest while other family members remain in the other areas.  There is a little desk area in the bedroom and a nice-sized closet (complete with laundry basket so that you can take advantage of the free!! on-site laundry area...I recently had appointments at MD Anderson during the week of November 18 through 22.  At sort of the last minute, I chose this property.  What a great choice it was!  When I have to return in March, or at any point in the future, I will definitely be a return guest here.Check in was easy-peasy.  Our room was on the 4th floor.  Spacious, comfortable and oh-so-quiet.  It was really like a little one-bedroom condo, with pretty much all the comforts of home, especially for the price point.  The kitchen is well-stocked with everything you would need and a large pantry area to store grocery items.  Pots, pans, dishes, dishwasher (detergent even provided), full-sized refrigerator, microvave, 2-burner stove.  No oven, but who needs an oven?  There is a very large desk area which divides the kitchen from the living room with chairs on each side.  This was very handy for spreading out all of my medical paperwork and getting organized, as well as a nice area for meals.  The living area has a recliner, sofa bed, coffee table, TV, DVD player, and windows that actually open.The separate bedroom area is so nice so that one person can nap and rest while other family members remain in the other areas.  There is a little desk area in the bedroom and a nice-sized closet (complete with laundry basket so that you can take advantage of the free!! on-site laundry area on the first floor).The bathroom is spacious.  The linens are very nice.  There are few toiletries provided, so bring your own special soaps, etc.There is another large closet just inside the front door and a nice full-length mirror on the foyer wall.The staff was pleasant, friendly and really helpful with any questions.  The free shuttle to MD Anderson runs on the hour.  What a great convenience to eliminate just one more stressor of such a trip.  They will even drop off/pick up from grocery stores/pharmacies along the route.  You just have to call them to let them know to pick you back up again.The most pleasant thing for me, though, was the quietness of the property.  All week, I heard no noise whatsoever.  What a great relief to be able to come "home" from a long day at the medical facility and chill out.  If you open the windows, you will hear some noise from 610 freeway, but the windows must be super insulated, because once you shut them -- nothing but quiet.  The fitness room is very nice, and, of course, the laundry room is an amazing amenity.  There is even an outdoor grilling area, and they have tools you can borrow from the front desk.  There is a Taco Bell, Whataburger, and Golden Corral, all within the parking lot area.One thing about getting there:  when you exit 610 and turn onto South Main Street, be sure and get in the left turning lane like you are going to go back around and get back on 610.  Then you either turn into the Taco Bell or Golden Corral parking lot to enter the Candlewood Suites parking lot.  If you don't do this and go down South Main thinking you can make a left turn into the hotel, you are doing to have to go miles down and finally exit and return up on South Main.  The reason is that there are concrete barriers in between the lanes of South Main and there are no openings to turn...at least we didn't see any...and had to go down a ways before we figured this out.  This was one of my best lodging experiences ever, despite the reason for the visit.  Highly recommended!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r180526245-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180526245</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Very Good Hotel.... Highly Recommend.</t>
+  </si>
+  <si>
+    <t>I saw some of the reviews on Trip Advisor and other sites and was worried that this was a substandard property or people who rated the hotel may not have good taste.  To be truthful, I was rather panicked after reading some reviews because I had booked the hotel with an advanced non-refundable rate.  WOW....  this hotel is very clean and comfortable.  The room (201) was very nice.  I had been paying as much as $50 a night at other hotels with the medical center rate and was very happy to had found this property.  No, there is no swimming pool or jacuzzi.  No, there is no continental breakfast.  It is an extended stay type of property so there is no daily maid service either.  But what you will find is free washer and dryers, a small convenience store with reasonable prices (can of soda is 75 cents), free USA Today at the front desk and courtesy shuttle to the medical center hospitals.If you are looking for a clean, safe and courteous hotel...this is it.  Also, I felt safe with my car being parked on their lot.  There is a Whataburger, Taco Bell/Pizza Hut and Golden Coral adjacent to the property.  Very close to other restaurants and businesses too.  I will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>I saw some of the reviews on Trip Advisor and other sites and was worried that this was a substandard property or people who rated the hotel may not have good taste.  To be truthful, I was rather panicked after reading some reviews because I had booked the hotel with an advanced non-refundable rate.  WOW....  this hotel is very clean and comfortable.  The room (201) was very nice.  I had been paying as much as $50 a night at other hotels with the medical center rate and was very happy to had found this property.  No, there is no swimming pool or jacuzzi.  No, there is no continental breakfast.  It is an extended stay type of property so there is no daily maid service either.  But what you will find is free washer and dryers, a small convenience store with reasonable prices (can of soda is 75 cents), free USA Today at the front desk and courtesy shuttle to the medical center hospitals.If you are looking for a clean, safe and courteous hotel...this is it.  Also, I felt safe with my car being parked on their lot.  There is a Whataburger, Taco Bell/Pizza Hut and Golden Coral adjacent to the property.  Very close to other restaurants and businesses too.  I will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r180499998-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180499998</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, Convenient</t>
+  </si>
+  <si>
+    <t>I stayed at the Candlewood Suites Medical Center for 3 nights in early October 2013 because my sister was having surgery at MDA. I was nicely surprised, given the rather negative reviews that several people have posted. It was very clean, very quiet, and the bed was comfortable. The kitchenette had a full-sized fridge with ice-maker, coffee pot and a stovetop with 2 burners. It was well-lit and I always felt safe and it had a shuttle to MDA on weekdays. The staff were all pleasant. It's not a 4-star property but you're not paying the price for a 4-star property. Overall, it exceeded my expectations and if need be, I will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Candlewood Suites Medical Center for 3 nights in early October 2013 because my sister was having surgery at MDA. I was nicely surprised, given the rather negative reviews that several people have posted. It was very clean, very quiet, and the bed was comfortable. The kitchenette had a full-sized fridge with ice-maker, coffee pot and a stovetop with 2 burners. It was well-lit and I always felt safe and it had a shuttle to MDA on weekdays. The staff were all pleasant. It's not a 4-star property but you're not paying the price for a 4-star property. Overall, it exceeded my expectations and if need be, I will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r160156023-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160156023</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>I should have investigated more before choosing a Candlewood</t>
+  </si>
+  <si>
+    <t>This hotel is terrible. The only good thing is its location to the Reliant Center. Where to begin... I had the rudest experience of my life with a hotel agent the night before I arrived. When I arrived I noticed Candlewood only does housekeeping every 7 days (my fault for not investigating). My room was disgusting! There was hair in my bed, there was a ladies disposable razor STILL in the shower! COME ON!The couch and leather chair in the livin area were literally shredded. It looked like a dog clawed its way through the furniture; absolutely pathetic. The kitchen was dirty and the glasses in the cabinets were stuck to the shelves with a sticky residue, GROSS!I will never ever stay here again, never mind any Candlewood brand. Avoid this hotel at all costs, especially if you need an extended stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded May 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is terrible. The only good thing is its location to the Reliant Center. Where to begin... I had the rudest experience of my life with a hotel agent the night before I arrived. When I arrived I noticed Candlewood only does housekeeping every 7 days (my fault for not investigating). My room was disgusting! There was hair in my bed, there was a ladies disposable razor STILL in the shower! COME ON!The couch and leather chair in the livin area were literally shredded. It looked like a dog clawed its way through the furniture; absolutely pathetic. The kitchen was dirty and the glasses in the cabinets were stuck to the shelves with a sticky residue, GROSS!I will never ever stay here again, never mind any Candlewood brand. Avoid this hotel at all costs, especially if you need an extended stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r157001869-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157001869</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>nice hotel close to Reliant</t>
+  </si>
+  <si>
+    <t>It's a little hard to find but I have stayed there 3 times and thingshave been very good.  It's not a four Season's but it is a good bed, quiet  has small kitchenette in room.  Close eating places.  HAs a small gym and laundry area that is adequate.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded April 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2013</t>
+  </si>
+  <si>
+    <t>It's a little hard to find but I have stayed there 3 times and thingshave been very good.  It's not a four Season's but it is a good bed, quiet  has small kitchenette in room.  Close eating places.  HAs a small gym and laundry area that is adequate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r155732155-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155732155</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>Handicapp Room on the 1st Floor</t>
+  </si>
+  <si>
+    <t>We rented two rooms.  A handicapped room for my dad and a King for ourselves.  Upon check in, which is 3:00 pm but we didn't arrive until around 4:30 pm, we were handed the keys to our rooms and upon entering my dad's handicapped room, it was not cleaned, dirtly towels on the floor, so we exited and reported back to the front desk.  We then waited in our room for them to advise when my dad's room would be ready.  He was extremely tired and we waited until well after 7 and then called the front desk.  We were told it would be ready soon.  When we took my dad to his room, for some reason I checked the window.  I don't know what prompted me to do this.  The lock on the window was unscrewed and the window would not lock.  I called the front desk to send maintenance and was advised by the front desk clerk that I was speaking to that he was the only one there and we would have to wait until 11 when someone else came on board.  My husband then requested a screwdriver and fixed the window himself.  
+Also, this is not being picky, but to let you know when you rent a room from Candlewood, you need to turn on your ice machine in your freezer because they do not have an ice machine.  
+We also requested a shower chair and...We rented two rooms.  A handicapped room for my dad and a King for ourselves.  Upon check in, which is 3:00 pm but we didn't arrive until around 4:30 pm, we were handed the keys to our rooms and upon entering my dad's handicapped room, it was not cleaned, dirtly towels on the floor, so we exited and reported back to the front desk.  We then waited in our room for them to advise when my dad's room would be ready.  He was extremely tired and we waited until well after 7 and then called the front desk.  We were told it would be ready soon.  When we took my dad to his room, for some reason I checked the window.  I don't know what prompted me to do this.  The lock on the window was unscrewed and the window would not lock.  I called the front desk to send maintenance and was advised by the front desk clerk that I was speaking to that he was the only one there and we would have to wait until 11 when someone else came on board.  My husband then requested a screwdriver and fixed the window himself.  Also, this is not being picky, but to let you know when you rent a room from Candlewood, you need to turn on your ice machine in your freezer because they do not have an ice machine.  We also requested a shower chair and was told they did not have them.  The manager the next day said they did have them, but would check to see if they were all in use and if they needed to order more to keep on hand.  It was very difficult on my dad to shower without the chair and so I would not classify this as a truely handicapped room.Upon check out, I told the manager our issues from the previous day and requested a discount.  She was very nice and understanding and gave us a 10% discount.  All I can say is if you stay on the first floor to any hotel, ALWAYS check to make sure the windows lock securely, especially in a handicapped room.  All in all, I was happy with the personnel, they were friendly and responded as soon as possible.  Unfortunately, the young man who helped us upon check in was new and needed a bit more training, which I did discuss with the manager upon check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2013</t>
+  </si>
+  <si>
+    <t>We rented two rooms.  A handicapped room for my dad and a King for ourselves.  Upon check in, which is 3:00 pm but we didn't arrive until around 4:30 pm, we were handed the keys to our rooms and upon entering my dad's handicapped room, it was not cleaned, dirtly towels on the floor, so we exited and reported back to the front desk.  We then waited in our room for them to advise when my dad's room would be ready.  He was extremely tired and we waited until well after 7 and then called the front desk.  We were told it would be ready soon.  When we took my dad to his room, for some reason I checked the window.  I don't know what prompted me to do this.  The lock on the window was unscrewed and the window would not lock.  I called the front desk to send maintenance and was advised by the front desk clerk that I was speaking to that he was the only one there and we would have to wait until 11 when someone else came on board.  My husband then requested a screwdriver and fixed the window himself.  
+Also, this is not being picky, but to let you know when you rent a room from Candlewood, you need to turn on your ice machine in your freezer because they do not have an ice machine.  
+We also requested a shower chair and...We rented two rooms.  A handicapped room for my dad and a King for ourselves.  Upon check in, which is 3:00 pm but we didn't arrive until around 4:30 pm, we were handed the keys to our rooms and upon entering my dad's handicapped room, it was not cleaned, dirtly towels on the floor, so we exited and reported back to the front desk.  We then waited in our room for them to advise when my dad's room would be ready.  He was extremely tired and we waited until well after 7 and then called the front desk.  We were told it would be ready soon.  When we took my dad to his room, for some reason I checked the window.  I don't know what prompted me to do this.  The lock on the window was unscrewed and the window would not lock.  I called the front desk to send maintenance and was advised by the front desk clerk that I was speaking to that he was the only one there and we would have to wait until 11 when someone else came on board.  My husband then requested a screwdriver and fixed the window himself.  Also, this is not being picky, but to let you know when you rent a room from Candlewood, you need to turn on your ice machine in your freezer because they do not have an ice machine.  We also requested a shower chair and was told they did not have them.  The manager the next day said they did have them, but would check to see if they were all in use and if they needed to order more to keep on hand.  It was very difficult on my dad to shower without the chair and so I would not classify this as a truely handicapped room.Upon check out, I told the manager our issues from the previous day and requested a discount.  She was very nice and understanding and gave us a 10% discount.  All I can say is if you stay on the first floor to any hotel, ALWAYS check to make sure the windows lock securely, especially in a handicapped room.  All in all, I was happy with the personnel, they were friendly and responded as soon as possible.  Unfortunately, the young man who helped us upon check in was new and needed a bit more training, which I did discuss with the manager upon check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r133706142-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133706142</t>
+  </si>
+  <si>
+    <t>07/07/2012</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>I recently stayed here for 10 days as my wife and I were in between homes.  The grounds were clean.  Felt safe at all times.  The kitchen was adequate.  Laundry facility was clean and had an ample number of machines.  The staff was nice.  We had 2 dogs in the room, and this was surprisingly not a hassle.  Nice area to walk the dogs.  They have one outdoor grill which I used and it functioned perfectly.  I would mention that the pictures of the pool are old.  They have taken out the pool to make room for more suites.  This was quite disappointing as was the relatively small fitness center.  Also, I will say the Residence Inn is a couple miles closer to the medical center if that matters to you.  I know Candlewood has a shuttle, but I never used it.  However, for the price, this place was great.  Again, clean and safe with a staff that was courteous while also being unobtrusive.  I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I recently stayed here for 10 days as my wife and I were in between homes.  The grounds were clean.  Felt safe at all times.  The kitchen was adequate.  Laundry facility was clean and had an ample number of machines.  The staff was nice.  We had 2 dogs in the room, and this was surprisingly not a hassle.  Nice area to walk the dogs.  They have one outdoor grill which I used and it functioned perfectly.  I would mention that the pictures of the pool are old.  They have taken out the pool to make room for more suites.  This was quite disappointing as was the relatively small fitness center.  Also, I will say the Residence Inn is a couple miles closer to the medical center if that matters to you.  I know Candlewood has a shuttle, but I never used it.  However, for the price, this place was great.  Again, clean and safe with a staff that was courteous while also being unobtrusive.  I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r128289048-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128289048</t>
+  </si>
+  <si>
+    <t>04/21/2012</t>
+  </si>
+  <si>
+    <t>Probably would not stay again</t>
+  </si>
+  <si>
+    <t>The hotel was not really all that bad.  It seemed clean which is the most important thing to me but during the night I saw a roach in the bathroom.  The bed was very uncomfortable also.  I would not stay here again unless there was no other option.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Misty D, Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded May 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2012</t>
+  </si>
+  <si>
+    <t>The hotel was not really all that bad.  It seemed clean which is the most important thing to me but during the night I saw a roach in the bathroom.  The bed was very uncomfortable also.  I would not stay here again unless there was no other option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r127706581-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127706581</t>
+  </si>
+  <si>
+    <t>04/11/2012</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>This hotel is lovely! I was here for cancer treatment and they have taken care of me so well! The staff was always so responsive to my needs and very friendly. The rooms are clean and the hotel is well maintained. I felt very comfortable here and I can tell the staff works very hard to keep everyone happy. I urge you try this hotel out if you are coming to MD Anderson bc they are very caring loving people and will take good care of you. The medical rate is very good compared to the other clean hotels in the area...you can find cheaper rates in the area at lower scaled hotels. I enjoyed the kitchen and wednesday night get-togethers the staff arranges. Overall, it's a wonderful place and I will be staying here for future check upsMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>This hotel is lovely! I was here for cancer treatment and they have taken care of me so well! The staff was always so responsive to my needs and very friendly. The rooms are clean and the hotel is well maintained. I felt very comfortable here and I can tell the staff works very hard to keep everyone happy. I urge you try this hotel out if you are coming to MD Anderson bc they are very caring loving people and will take good care of you. The medical rate is very good compared to the other clean hotels in the area...you can find cheaper rates in the area at lower scaled hotels. I enjoyed the kitchen and wednesday night get-togethers the staff arranges. Overall, it's a wonderful place and I will be staying here for future check upsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r124584699-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124584699</t>
+  </si>
+  <si>
+    <t>02/14/2012</t>
+  </si>
+  <si>
+    <t>Nice, Nice, Nice</t>
+  </si>
+  <si>
+    <t>I stayed in Candlewood Suites Houston Medical Center for 2 nights on February 10 and 11, 2012.  Location is good for the medical center and the motel provides shuttle to the hospitals.  Clean and big parking lot.  Motel landscape nice.  Check-in and check-out was efficient.  The rooms are big and have a full kitchen. Would stay again.  Do not eat in the nearby Golden Corral.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r123573607-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123573607</t>
+  </si>
+  <si>
+    <t>01/24/2012</t>
+  </si>
+  <si>
+    <t>Great Service and Accommodations but needs a better shuttle</t>
+  </si>
+  <si>
+    <t>I came to Houston for a family medical issue since this is where the specialist in my Aunt's field was located. Not sure of the hotels in the area, I booked reservations with the Candlewood Suites, because I had an ok experience with them before. This time was way different in a good way.  After arriving before check in time, the hotel stored my luggage which gave me the freedom to visit my aunt before her pending surgery. Being rushed,I asked about the hotel shuttle service and was told that the trip was going to be about 15 minutes from leaving and the hospital where my brother was located was last on the stop. The general manager, overhearing my conversation offered to drive my wife and I to the hospital so I would not be delayed!!! That personal service was displayed with all employees we had contact with last week. The hotel accomodations were very pleasant, their food was excellent, and their services were superb. Thank you for accommodating us during this difficult time.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I came to Houston for a family medical issue since this is where the specialist in my Aunt's field was located. Not sure of the hotels in the area, I booked reservations with the Candlewood Suites, because I had an ok experience with them before. This time was way different in a good way.  After arriving before check in time, the hotel stored my luggage which gave me the freedom to visit my aunt before her pending surgery. Being rushed,I asked about the hotel shuttle service and was told that the trip was going to be about 15 minutes from leaving and the hospital where my brother was located was last on the stop. The general manager, overhearing my conversation offered to drive my wife and I to the hospital so I would not be delayed!!! That personal service was displayed with all employees we had contact with last week. The hotel accomodations were very pleasant, their food was excellent, and their services were superb. Thank you for accommodating us during this difficult time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r121702455-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121702455</t>
+  </si>
+  <si>
+    <t>12/13/2011</t>
+  </si>
+  <si>
+    <t>FILTH, BUGS, HORRIBLE MANAGEMENT</t>
+  </si>
+  <si>
+    <t>This was the worst hotel I have experienced in a long time.  I was there for business and decided to stay at this property since the reviews were pretty good.  The first room had bed bugs in it and the manager apologized and checked me into another room.  The 2nd room had dirty bed sheets, leaking toilet, and stained carpeting.  The "manager" was with me and she claimed that this was the wrong room as it was out of order?????  Then we went to a third room which had holes in the wall and holes in the stained comforter, along with bed bugs stains.  At this point I just had it and decided to take my business elsewhere.  
+I asked to speak to the manager and the young lady that was the "manager" stated she was the full time manager and she also owned the hotel along with her parents.  I didn't ask for who owned the hotel, I just wanted to voice my concerns to the appropriate personnel.  This manager obviously had no hotel management or any other management experience and was not well versed with customer service.  With my background in business acquisitons and mergers, let me say this hotel should be condemned for not complying with health codes or the franchise regulations.  How can this hotel stay open for business when they don't comply with cleanliness or hotel standards.
+This hotel property is not maintained and is...This was the worst hotel I have experienced in a long time.  I was there for business and decided to stay at this property since the reviews were pretty good.  The first room had bed bugs in it and the manager apologized and checked me into another room.  The 2nd room had dirty bed sheets, leaking toilet, and stained carpeting.  The "manager" was with me and she claimed that this was the wrong room as it was out of order?????  Then we went to a third room which had holes in the wall and holes in the stained comforter, along with bed bugs stains.  At this point I just had it and decided to take my business elsewhere.  I asked to speak to the manager and the young lady that was the "manager" stated she was the full time manager and she also owned the hotel along with her parents.  I didn't ask for who owned the hotel, I just wanted to voice my concerns to the appropriate personnel.  This manager obviously had no hotel management or any other management experience and was not well versed with customer service.  With my background in business acquisitons and mergers, let me say this hotel should be condemned for not complying with health codes or the franchise regulations.  How can this hotel stay open for business when they don't comply with cleanliness or hotel standards.This hotel property is not maintained and is run down even though they claim it was built in 2009.    They need to employ a real manager with experience not a novice.  Horrible, don't bother staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>This was the worst hotel I have experienced in a long time.  I was there for business and decided to stay at this property since the reviews were pretty good.  The first room had bed bugs in it and the manager apologized and checked me into another room.  The 2nd room had dirty bed sheets, leaking toilet, and stained carpeting.  The "manager" was with me and she claimed that this was the wrong room as it was out of order?????  Then we went to a third room which had holes in the wall and holes in the stained comforter, along with bed bugs stains.  At this point I just had it and decided to take my business elsewhere.  
+I asked to speak to the manager and the young lady that was the "manager" stated she was the full time manager and she also owned the hotel along with her parents.  I didn't ask for who owned the hotel, I just wanted to voice my concerns to the appropriate personnel.  This manager obviously had no hotel management or any other management experience and was not well versed with customer service.  With my background in business acquisitons and mergers, let me say this hotel should be condemned for not complying with health codes or the franchise regulations.  How can this hotel stay open for business when they don't comply with cleanliness or hotel standards.
+This hotel property is not maintained and is...This was the worst hotel I have experienced in a long time.  I was there for business and decided to stay at this property since the reviews were pretty good.  The first room had bed bugs in it and the manager apologized and checked me into another room.  The 2nd room had dirty bed sheets, leaking toilet, and stained carpeting.  The "manager" was with me and she claimed that this was the wrong room as it was out of order?????  Then we went to a third room which had holes in the wall and holes in the stained comforter, along with bed bugs stains.  At this point I just had it and decided to take my business elsewhere.  I asked to speak to the manager and the young lady that was the "manager" stated she was the full time manager and she also owned the hotel along with her parents.  I didn't ask for who owned the hotel, I just wanted to voice my concerns to the appropriate personnel.  This manager obviously had no hotel management or any other management experience and was not well versed with customer service.  With my background in business acquisitons and mergers, let me say this hotel should be condemned for not complying with health codes or the franchise regulations.  How can this hotel stay open for business when they don't comply with cleanliness or hotel standards.This hotel property is not maintained and is run down even though they claim it was built in 2009.    They need to employ a real manager with experience not a novice.  Horrible, don't bother staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r114918116-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114918116</t>
+  </si>
+  <si>
+    <t>06/30/2011</t>
+  </si>
+  <si>
+    <t>excellent!</t>
+  </si>
+  <si>
+    <t>Excellent customer service!  Wonderful staff!  I recommend this hotel to everyone!</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r114837694-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114837694</t>
+  </si>
+  <si>
+    <t>06/28/2011</t>
+  </si>
+  <si>
+    <t>They say pets are welcome, but don't believe it</t>
+  </si>
+  <si>
+    <t>We were forced to stay at this motel after our insurance company booked us here. Our house had been partially destroyed by a car that went off the road and two of our dogs were killed. This location is close to our house, so we went there with two of our remaining dogs. The hotel put us in a room directly across from the elevators so every time the doors opened our dogs barked. Every time people rumbled up and down the hall dragging their luggage and shouting on their cell phones the dogs barked. Suddenly, every time we left the room some member of the motel management was waiting for us, glaring at us, and making us feel most unwelcome. We received an anonymous note attached to our door telling us and our dogs to get the hell out. We asked to be moved to another room farther from the elevators and where there might be less traffic in the hallway but the motel management said they were full. We ended up putting our dogs in day care while we were at work, but not before we called our insurance company and asked to be moved to another hotel. We would have been completely understanding if Candlewood management had spoken to us about options instead of being rude and inhospitable. This was a terribly traumatic experience for us all -- humans and dogs -- and the poor treatment we...We were forced to stay at this motel after our insurance company booked us here. Our house had been partially destroyed by a car that went off the road and two of our dogs were killed. This location is close to our house, so we went there with two of our remaining dogs. The hotel put us in a room directly across from the elevators so every time the doors opened our dogs barked. Every time people rumbled up and down the hall dragging their luggage and shouting on their cell phones the dogs barked. Suddenly, every time we left the room some member of the motel management was waiting for us, glaring at us, and making us feel most unwelcome. We received an anonymous note attached to our door telling us and our dogs to get the hell out. We asked to be moved to another room farther from the elevators and where there might be less traffic in the hallway but the motel management said they were full. We ended up putting our dogs in day care while we were at work, but not before we called our insurance company and asked to be moved to another hotel. We would have been completely understanding if Candlewood management had spoken to us about options instead of being rude and inhospitable. This was a terribly traumatic experience for us all -- humans and dogs -- and the poor treatment we received at this motel added to our misery.- - - - -It was a nice room, however, with plenty of amenities for those staying long-term. Additional amusement can be found by looking through the motel's folder in your room and noting all the misspellings and grammatical mistakes in the locally produced media. The spa was broken every day, however, and the gym was always full of guests lounging on the exercise equipment watching TV. Judging by their sizes, the concept of using any of the equipment for exercise was probably completely beyond them.Be aware that the area around the Astrodome/Reliant Stadium is not a good one, and be prepared for lots of hobos and homeless people hanging around in the parking lot. I had to sit outside for an hour once while I waited for the non-English speaking housekeeper to clean my room (at 2:00 in the afternoon!), and I was accosted by more than one homeless person begging for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>We were forced to stay at this motel after our insurance company booked us here. Our house had been partially destroyed by a car that went off the road and two of our dogs were killed. This location is close to our house, so we went there with two of our remaining dogs. The hotel put us in a room directly across from the elevators so every time the doors opened our dogs barked. Every time people rumbled up and down the hall dragging their luggage and shouting on their cell phones the dogs barked. Suddenly, every time we left the room some member of the motel management was waiting for us, glaring at us, and making us feel most unwelcome. We received an anonymous note attached to our door telling us and our dogs to get the hell out. We asked to be moved to another room farther from the elevators and where there might be less traffic in the hallway but the motel management said they were full. We ended up putting our dogs in day care while we were at work, but not before we called our insurance company and asked to be moved to another hotel. We would have been completely understanding if Candlewood management had spoken to us about options instead of being rude and inhospitable. This was a terribly traumatic experience for us all -- humans and dogs -- and the poor treatment we...We were forced to stay at this motel after our insurance company booked us here. Our house had been partially destroyed by a car that went off the road and two of our dogs were killed. This location is close to our house, so we went there with two of our remaining dogs. The hotel put us in a room directly across from the elevators so every time the doors opened our dogs barked. Every time people rumbled up and down the hall dragging their luggage and shouting on their cell phones the dogs barked. Suddenly, every time we left the room some member of the motel management was waiting for us, glaring at us, and making us feel most unwelcome. We received an anonymous note attached to our door telling us and our dogs to get the hell out. We asked to be moved to another room farther from the elevators and where there might be less traffic in the hallway but the motel management said they were full. We ended up putting our dogs in day care while we were at work, but not before we called our insurance company and asked to be moved to another hotel. We would have been completely understanding if Candlewood management had spoken to us about options instead of being rude and inhospitable. This was a terribly traumatic experience for us all -- humans and dogs -- and the poor treatment we received at this motel added to our misery.- - - - -It was a nice room, however, with plenty of amenities for those staying long-term. Additional amusement can be found by looking through the motel's folder in your room and noting all the misspellings and grammatical mistakes in the locally produced media. The spa was broken every day, however, and the gym was always full of guests lounging on the exercise equipment watching TV. Judging by their sizes, the concept of using any of the equipment for exercise was probably completely beyond them.Be aware that the area around the Astrodome/Reliant Stadium is not a good one, and be prepared for lots of hobos and homeless people hanging around in the parking lot. I had to sit outside for an hour once while I waited for the non-English speaking housekeeper to clean my room (at 2:00 in the afternoon!), and I was accosted by more than one homeless person begging for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r103391031-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>103391031</t>
+  </si>
+  <si>
+    <t>04/09/2011</t>
+  </si>
+  <si>
+    <t>Very Disappointed, NEVER AGAIN!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this Candlewood hotel near Reliant Stadium for 5 nights for the Final Four.  We have stayed at many Candlewood properties in the past and this was definitely not up to par!  Some might not notice, but the first thing I saw when I walked into the room was a comforter on the bed that was so wrinkled that it looked like it had been in a dryer for about a week.  It looked horrible and NEVER got any better for the entire stay.  This is an extended stay hotel and we never got any service for the entire 
+5 days we were there....no extra bars of soap, shampoo, fresh towels, etc.  I asked for the suite to be vacuumed midway through our stay and was told it would cost an extra $10!  Puleeze!
+The one thing that really drove me crazy was the overhead "kitchen area" light that was always on if ANY lights were on in the suite.  You couldn't lie in bed and read without the glaring light in the kitchen being on.  We checked with the desk, thinking we were doing something wrong, but no, we weren't.  My husband had to climb up on a chair to remove the light fixture and unscrew the two lightbulbs for our entire stay.  Ridiculous.  There are also only lights on one side of the bed, so if there are two travellers, one of them...My husband and I stayed at this Candlewood hotel near Reliant Stadium for 5 nights for the Final Four.  We have stayed at many Candlewood properties in the past and this was definitely not up to par!  Some might not notice, but the first thing I saw when I walked into the room was a comforter on the bed that was so wrinkled that it looked like it had been in a dryer for about a week.  It looked horrible and NEVER got any better for the entire stay.  This is an extended stay hotel and we never got any service for the entire 5 days we were there....no extra bars of soap, shampoo, fresh towels, etc.  I asked for the suite to be vacuumed midway through our stay and was told it would cost an extra $10!  Puleeze!The one thing that really drove me crazy was the overhead "kitchen area" light that was always on if ANY lights were on in the suite.  You couldn't lie in bed and read without the glaring light in the kitchen being on.  We checked with the desk, thinking we were doing something wrong, but no, we weren't.  My husband had to climb up on a chair to remove the light fixture and unscrew the two lightbulbs for our entire stay.  Ridiculous.  There are also only lights on one side of the bed, so if there are two travellers, one of them cannot lie in bed and read because there is no light!Their shuttle only goes to the Medical Center and back on the hour.   Want to dropped off somewhere in between?  Too bad.  No can do.  There is no way you can stay at this hotel without renting a car.There is no smoking allowed in the hotel (good!) and as a result there are always several people right outside the front door smoking up a storm.  Frequently these are Candlewood employees.  UGH!  The front desk people were pleasant enough, but not one of them knew anything about the area, had maps, or had any info about the Final Four! There is no business center and there was no way to print anything off of a computer.  Lastly, I bought a couple of things from the little convenience area by the front desk, which were fairlly priced BTW, but the area reeked so strongly of curry that I could hardly stand to go in there.  This hotel has rooms for nearly $250 a night!  I would never stay here again.  EVER!days!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this Candlewood hotel near Reliant Stadium for 5 nights for the Final Four.  We have stayed at many Candlewood properties in the past and this was definitely not up to par!  Some might not notice, but the first thing I saw when I walked into the room was a comforter on the bed that was so wrinkled that it looked like it had been in a dryer for about a week.  It looked horrible and NEVER got any better for the entire stay.  This is an extended stay hotel and we never got any service for the entire 
+5 days we were there....no extra bars of soap, shampoo, fresh towels, etc.  I asked for the suite to be vacuumed midway through our stay and was told it would cost an extra $10!  Puleeze!
+The one thing that really drove me crazy was the overhead "kitchen area" light that was always on if ANY lights were on in the suite.  You couldn't lie in bed and read without the glaring light in the kitchen being on.  We checked with the desk, thinking we were doing something wrong, but no, we weren't.  My husband had to climb up on a chair to remove the light fixture and unscrew the two lightbulbs for our entire stay.  Ridiculous.  There are also only lights on one side of the bed, so if there are two travellers, one of them...My husband and I stayed at this Candlewood hotel near Reliant Stadium for 5 nights for the Final Four.  We have stayed at many Candlewood properties in the past and this was definitely not up to par!  Some might not notice, but the first thing I saw when I walked into the room was a comforter on the bed that was so wrinkled that it looked like it had been in a dryer for about a week.  It looked horrible and NEVER got any better for the entire stay.  This is an extended stay hotel and we never got any service for the entire 5 days we were there....no extra bars of soap, shampoo, fresh towels, etc.  I asked for the suite to be vacuumed midway through our stay and was told it would cost an extra $10!  Puleeze!The one thing that really drove me crazy was the overhead "kitchen area" light that was always on if ANY lights were on in the suite.  You couldn't lie in bed and read without the glaring light in the kitchen being on.  We checked with the desk, thinking we were doing something wrong, but no, we weren't.  My husband had to climb up on a chair to remove the light fixture and unscrew the two lightbulbs for our entire stay.  Ridiculous.  There are also only lights on one side of the bed, so if there are two travellers, one of them cannot lie in bed and read because there is no light!Their shuttle only goes to the Medical Center and back on the hour.   Want to dropped off somewhere in between?  Too bad.  No can do.  There is no way you can stay at this hotel without renting a car.There is no smoking allowed in the hotel (good!) and as a result there are always several people right outside the front door smoking up a storm.  Frequently these are Candlewood employees.  UGH!  The front desk people were pleasant enough, but not one of them knew anything about the area, had maps, or had any info about the Final Four! There is no business center and there was no way to print anything off of a computer.  Lastly, I bought a couple of things from the little convenience area by the front desk, which were fairlly priced BTW, but the area reeked so strongly of curry that I could hardly stand to go in there.  This hotel has rooms for nearly $250 a night!  I would never stay here again.  EVER!days!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r87710172-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>87710172</t>
+  </si>
+  <si>
+    <t>11/20/2010</t>
+  </si>
+  <si>
+    <t>there for medical stay and it felt like home</t>
+  </si>
+  <si>
+    <t>i was there for MDA cancer treatment and thought it would be a horrible stay. IT WAS AMAZING.i was relaxed and had a perfect roomtransportation to and from Medical centerhotel was cleanthe staff was greati will ONLY stay here when i return for treatmenti love the candlewood suitesoh and there is sooo much food in the area, i ate something good every night.perfect for long stays.full sized fridge. i was able to cook every now and then.this hotel is the bees knees</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r83577153-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>83577153</t>
+  </si>
+  <si>
+    <t>10/15/2010</t>
+  </si>
+  <si>
+    <t>All the comforts of home.</t>
+  </si>
+  <si>
+    <t>We stayed at the Candlewood Suites for almost a month while a family member was a patient at MD Anderson. We could not have been happier. The room and hotel facilities were very clean and the staff was more than helpful. We would definitely stay there again if we were in the area. The free laundry facilities and transportation to and from the Medical buildings and surrounding restaurants and stores are both wonderful features that really make this place the place to stay.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r80777750-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>80777750</t>
+  </si>
+  <si>
+    <t>09/23/2010</t>
+  </si>
+  <si>
+    <t>BE CAUTIOUS!!  Overcharged at checkout and it was not disclosed</t>
+  </si>
+  <si>
+    <t>My Mom was recently diagnosed with Cancer and we have the privilege to go to MD Anderson.  My parents called this hotel and they gave us the nightly rate for medical patients.  My Mom asked if it was okay if we checked out early because things constantly change with Doctors appointments.  She was told it would not be a problem.  The hotel was very nice.  We initially booked the room for 7 nights and it turns out that we just needed it for 6 nights.  We found out we would be leaving for home a day early so we went down 2 days before our check out and they again said "No Problem" just check out the morning you are leaving.  My parents go down to check out our last morning and find out they are charging us $5 extra a day since we didn't stay the whole 7 nights.  This was not disclosed at any time. They charged us an extra $30 for checking out a day early.  It is not about the money but it is the fact they had 2 opportunities to disclose this and they did not.  I just don't want other cancer patients to get the same charges that we did.  It is pretty despicable that they would treat their cancer patients this way.  The last thing they need to worry about are additional fees from the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>My Mom was recently diagnosed with Cancer and we have the privilege to go to MD Anderson.  My parents called this hotel and they gave us the nightly rate for medical patients.  My Mom asked if it was okay if we checked out early because things constantly change with Doctors appointments.  She was told it would not be a problem.  The hotel was very nice.  We initially booked the room for 7 nights and it turns out that we just needed it for 6 nights.  We found out we would be leaving for home a day early so we went down 2 days before our check out and they again said "No Problem" just check out the morning you are leaving.  My parents go down to check out our last morning and find out they are charging us $5 extra a day since we didn't stay the whole 7 nights.  This was not disclosed at any time. They charged us an extra $30 for checking out a day early.  It is not about the money but it is the fact they had 2 opportunities to disclose this and they did not.  I just don't want other cancer patients to get the same charges that we did.  It is pretty despicable that they would treat their cancer patients this way.  The last thing they need to worry about are additional fees from the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r48090009-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>48090009</t>
+  </si>
+  <si>
+    <t>10/29/2009</t>
+  </si>
+  <si>
+    <t>A Very Pleasant Surprise!</t>
+  </si>
+  <si>
+    <t>I was a little hesitant to stay at this place with only one review to go by...BUT we decided it would be convenient since I was headed to Houston to have surgery at MD Anderson.  Also after looking at the pictures online and getting a great rate, we couldn't pass it up.   We needed a place with a kitchen, refrigerator, and separate bedroom.  We found everything we needed and more at the Candlewood Suites Houston Medical Center.
+The property had just been renovated this year and everything was really nice.  We got to stay in Room 415 (top floor).  Our suite had a separate room with a comfy Queen bed and flatscreen tv, a separate living area with flatscreen tv and sofa and leather recliner, a desk/table where my husband could work and we could eat dinner, a full sized refrigerator, stove, dishwasher and sink.  All the utensils and pots were available as well.  It was very clean and perfect for our stay.  We weren't sure when the doctors would release me to go home, so this place is perfect for extended stays.
+It's around 25 minutes from Hobby Airport and around 10 minutes away from the Medical Center.  The staff was friendly and accommodating since after my surgery I couldn't talk.  Even before we arrived we received the current medical rate given to those who will be staying long term or having procedures done in the nearby Medical Centers....I was a little hesitant to stay at this place with only one review to go by...BUT we decided it would be convenient since I was headed to Houston to have surgery at MD Anderson.  Also after looking at the pictures online and getting a great rate, we couldn't pass it up.   We needed a place with a kitchen, refrigerator, and separate bedroom.  We found everything we needed and more at the Candlewood Suites Houston Medical Center.The property had just been renovated this year and everything was really nice.  We got to stay in Room 415 (top floor).  Our suite had a separate room with a comfy Queen bed and flatscreen tv, a separate living area with flatscreen tv and sofa and leather recliner, a desk/table where my husband could work and we could eat dinner, a full sized refrigerator, stove, dishwasher and sink.  All the utensils and pots were available as well.  It was very clean and perfect for our stay.  We weren't sure when the doctors would release me to go home, so this place is perfect for extended stays.It's around 25 minutes from Hobby Airport and around 10 minutes away from the Medical Center.  The staff was friendly and accommodating since after my surgery I couldn't talk.  Even before we arrived we received the current medical rate given to those who will be staying long term or having procedures done in the nearby Medical Centers.It was our home away from home.  Should I need to go back to MD Anderson I plan on staying at the Candlewood Suites again.  I probably will try to get a studio next time around since I'll be going by myself.  Otherwise, the suites are great value.  My husband and I could relax and feel comfortable.I recommend anyone heading to Houston and needs to be in that area to stay at the Candlewood.  It's a great place!!!  They have free movies you can borrow, books and have a "Cupboard" where you can purchase food.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>I was a little hesitant to stay at this place with only one review to go by...BUT we decided it would be convenient since I was headed to Houston to have surgery at MD Anderson.  Also after looking at the pictures online and getting a great rate, we couldn't pass it up.   We needed a place with a kitchen, refrigerator, and separate bedroom.  We found everything we needed and more at the Candlewood Suites Houston Medical Center.
+The property had just been renovated this year and everything was really nice.  We got to stay in Room 415 (top floor).  Our suite had a separate room with a comfy Queen bed and flatscreen tv, a separate living area with flatscreen tv and sofa and leather recliner, a desk/table where my husband could work and we could eat dinner, a full sized refrigerator, stove, dishwasher and sink.  All the utensils and pots were available as well.  It was very clean and perfect for our stay.  We weren't sure when the doctors would release me to go home, so this place is perfect for extended stays.
+It's around 25 minutes from Hobby Airport and around 10 minutes away from the Medical Center.  The staff was friendly and accommodating since after my surgery I couldn't talk.  Even before we arrived we received the current medical rate given to those who will be staying long term or having procedures done in the nearby Medical Centers....I was a little hesitant to stay at this place with only one review to go by...BUT we decided it would be convenient since I was headed to Houston to have surgery at MD Anderson.  Also after looking at the pictures online and getting a great rate, we couldn't pass it up.   We needed a place with a kitchen, refrigerator, and separate bedroom.  We found everything we needed and more at the Candlewood Suites Houston Medical Center.The property had just been renovated this year and everything was really nice.  We got to stay in Room 415 (top floor).  Our suite had a separate room with a comfy Queen bed and flatscreen tv, a separate living area with flatscreen tv and sofa and leather recliner, a desk/table where my husband could work and we could eat dinner, a full sized refrigerator, stove, dishwasher and sink.  All the utensils and pots were available as well.  It was very clean and perfect for our stay.  We weren't sure when the doctors would release me to go home, so this place is perfect for extended stays.It's around 25 minutes from Hobby Airport and around 10 minutes away from the Medical Center.  The staff was friendly and accommodating since after my surgery I couldn't talk.  Even before we arrived we received the current medical rate given to those who will be staying long term or having procedures done in the nearby Medical Centers.It was our home away from home.  Should I need to go back to MD Anderson I plan on staying at the Candlewood Suites again.  I probably will try to get a studio next time around since I'll be going by myself.  Otherwise, the suites are great value.  My husband and I could relax and feel comfortable.I recommend anyone heading to Houston and needs to be in that area to stay at the Candlewood.  It's a great place!!!  They have free movies you can borrow, books and have a "Cupboard" where you can purchase food.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1731,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1763,3433 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>185</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" t="s">
+        <v>219</v>
+      </c>
+      <c r="K24" t="s">
+        <v>220</v>
+      </c>
+      <c r="L24" t="s">
+        <v>221</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>222</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O25" t="s">
+        <v>185</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>234</v>
+      </c>
+      <c r="O26" t="s">
+        <v>96</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" t="s">
+        <v>238</v>
+      </c>
+      <c r="L27" t="s">
+        <v>239</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>240</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>237</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>234</v>
+      </c>
+      <c r="O28" t="s">
+        <v>112</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>246</v>
+      </c>
+      <c r="X28" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>261</v>
+      </c>
+      <c r="J31" t="s">
+        <v>262</v>
+      </c>
+      <c r="K31" t="s">
+        <v>263</v>
+      </c>
+      <c r="L31" t="s">
+        <v>264</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>254</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>265</v>
+      </c>
+      <c r="X31" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" t="s">
+        <v>271</v>
+      </c>
+      <c r="L32" t="s">
+        <v>272</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>273</v>
+      </c>
+      <c r="O32" t="s">
+        <v>96</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>265</v>
+      </c>
+      <c r="X32" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J33" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s">
+        <v>279</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>273</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>265</v>
+      </c>
+      <c r="X33" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" t="s">
+        <v>283</v>
+      </c>
+      <c r="K34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>286</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>287</v>
+      </c>
+      <c r="X34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>291</v>
+      </c>
+      <c r="J35" t="s">
+        <v>292</v>
+      </c>
+      <c r="K35" t="s">
+        <v>293</v>
+      </c>
+      <c r="L35" t="s">
+        <v>294</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>295</v>
+      </c>
+      <c r="O35" t="s">
+        <v>96</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s">
+        <v>301</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>302</v>
+      </c>
+      <c r="O36" t="s">
+        <v>96</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>305</v>
+      </c>
+      <c r="J37" t="s">
+        <v>299</v>
+      </c>
+      <c r="K37" t="s">
+        <v>306</v>
+      </c>
+      <c r="L37" t="s">
+        <v>307</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>302</v>
+      </c>
+      <c r="O37" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>309</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>310</v>
+      </c>
+      <c r="J38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K38" t="s">
+        <v>312</v>
+      </c>
+      <c r="L38" t="s">
+        <v>313</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>314</v>
+      </c>
+      <c r="X38" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>317</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>319</v>
+      </c>
+      <c r="K39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>322</v>
+      </c>
+      <c r="O39" t="s">
+        <v>96</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>323</v>
+      </c>
+      <c r="X39" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>327</v>
+      </c>
+      <c r="J40" t="s">
+        <v>328</v>
+      </c>
+      <c r="K40" t="s">
+        <v>329</v>
+      </c>
+      <c r="L40" t="s">
+        <v>330</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>331</v>
+      </c>
+      <c r="O40" t="s">
+        <v>96</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>332</v>
+      </c>
+      <c r="X40" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>335</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>336</v>
+      </c>
+      <c r="J41" t="s">
+        <v>337</v>
+      </c>
+      <c r="K41" t="s">
+        <v>338</v>
+      </c>
+      <c r="L41" t="s">
+        <v>339</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>340</v>
+      </c>
+      <c r="O41" t="s">
+        <v>96</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>343</v>
+      </c>
+      <c r="J42" t="s">
+        <v>344</v>
+      </c>
+      <c r="K42" t="s">
+        <v>345</v>
+      </c>
+      <c r="L42" t="s">
+        <v>346</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>347</v>
+      </c>
+      <c r="O42" t="s">
+        <v>96</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>348</v>
+      </c>
+      <c r="X42" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>351</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>352</v>
+      </c>
+      <c r="J43" t="s">
+        <v>353</v>
+      </c>
+      <c r="K43" t="s">
+        <v>354</v>
+      </c>
+      <c r="L43" t="s">
+        <v>355</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>356</v>
+      </c>
+      <c r="O43" t="s">
+        <v>112</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>358</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>359</v>
+      </c>
+      <c r="J44" t="s">
+        <v>360</v>
+      </c>
+      <c r="K44" t="s">
+        <v>361</v>
+      </c>
+      <c r="L44" t="s">
+        <v>362</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>363</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>364</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>365</v>
+      </c>
+      <c r="J45" t="s">
+        <v>366</v>
+      </c>
+      <c r="K45" t="s">
+        <v>367</v>
+      </c>
+      <c r="L45" t="s">
+        <v>368</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>369</v>
+      </c>
+      <c r="O45" t="s">
+        <v>96</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>371</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>372</v>
+      </c>
+      <c r="J46" t="s">
+        <v>373</v>
+      </c>
+      <c r="K46" t="s">
+        <v>374</v>
+      </c>
+      <c r="L46" t="s">
+        <v>375</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>376</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>378</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>379</v>
+      </c>
+      <c r="J47" t="s">
+        <v>380</v>
+      </c>
+      <c r="K47" t="s">
+        <v>381</v>
+      </c>
+      <c r="L47" t="s">
+        <v>382</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>383</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>384</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>385</v>
+      </c>
+      <c r="J48" t="s">
+        <v>386</v>
+      </c>
+      <c r="K48" t="s">
+        <v>387</v>
+      </c>
+      <c r="L48" t="s">
+        <v>388</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>389</v>
+      </c>
+      <c r="O48" t="s">
+        <v>96</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>391</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>392</v>
+      </c>
+      <c r="J49" t="s">
+        <v>393</v>
+      </c>
+      <c r="K49" t="s">
+        <v>394</v>
+      </c>
+      <c r="L49" t="s">
+        <v>395</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>396</v>
+      </c>
+      <c r="O49" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>398</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>399</v>
+      </c>
+      <c r="J50" t="s">
+        <v>400</v>
+      </c>
+      <c r="K50" t="s">
+        <v>401</v>
+      </c>
+      <c r="L50" t="s">
+        <v>402</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>403</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>404</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>405</v>
+      </c>
+      <c r="J51" t="s">
+        <v>406</v>
+      </c>
+      <c r="K51" t="s">
+        <v>407</v>
+      </c>
+      <c r="L51" t="s">
+        <v>408</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>409</v>
+      </c>
+      <c r="O51" t="s">
+        <v>96</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>410</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>411</v>
+      </c>
+      <c r="J52" t="s">
+        <v>412</v>
+      </c>
+      <c r="K52" t="s">
+        <v>413</v>
+      </c>
+      <c r="L52" t="s">
+        <v>414</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>415</v>
+      </c>
+      <c r="O52" t="s">
+        <v>96</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>417</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>418</v>
+      </c>
+      <c r="J53" t="s">
+        <v>419</v>
+      </c>
+      <c r="K53" t="s">
+        <v>420</v>
+      </c>
+      <c r="L53" t="s">
+        <v>421</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>422</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_71.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_71.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="670">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r605148338-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1212489</t>
+  </si>
+  <si>
+    <t>605148338</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>Hotel needs maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed twice in July, The place is rundown from when I stayed there in 2015. Definitely needs work, first thing you notice is the stained carpet in the hallways, cigarette butts laying around the front entrance. The people were great, always friendly &amp; informative. The company needs to work on upgrading the hotel, also noticed that the pool was down for most of July. Noticed the weekly maid service, this is the first time I've come across this. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r597741813-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597741813</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Potential - but needs some work</t>
+  </si>
+  <si>
+    <t>Struggled with the overall rating between 2 and 3 because the staff was trying, the GM (Alexis) ultimately was responsive, but the investments that they are putting into the property need to happen more quickly.  The room was clean and equipped - it is on the edge of a tough neighborhood, but the property feels perfectly safe and well lit.  Walkable to a Whataburger, an Arby's and a buffet.  As a relocating business traveler, certain things were simply too inconveniencing to be OK with for an extended stay.  Only one working dryer (and all looking heavily used and abused) and  a luggage cart that could be improved significantly by a roll of duct tape.  I think the overall 4 rating is what upset my expectations - it is really a 3 with the potential.  GM Alexis was responsive and fair in addressing my issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Struggled with the overall rating between 2 and 3 because the staff was trying, the GM (Alexis) ultimately was responsive, but the investments that they are putting into the property need to happen more quickly.  The room was clean and equipped - it is on the edge of a tough neighborhood, but the property feels perfectly safe and well lit.  Walkable to a Whataburger, an Arby's and a buffet.  As a relocating business traveler, certain things were simply too inconveniencing to be OK with for an extended stay.  Only one working dryer (and all looking heavily used and abused) and  a luggage cart that could be improved significantly by a roll of duct tape.  I think the overall 4 rating is what upset my expectations - it is really a 3 with the potential.  GM Alexis was responsive and fair in addressing my issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r594181895-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594181895</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Nice experience</t>
+  </si>
+  <si>
+    <t>It has everything we needed, really clean and quiet. No problem at all and had a pleasant stay. Had a fridge, microwave and a small kitchen with stove. Even have pots, pans and plates, coul not ask for anything else.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r575271166-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1212489</t>
-  </si>
-  <si>
     <t>575271166</t>
   </si>
   <si>
@@ -201,9 +258,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Alexis G, General Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded April 16, 2018</t>
   </si>
   <si>
@@ -231,9 +285,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Alexis G, General Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded February 8, 2018</t>
   </si>
   <si>
@@ -243,6 +294,48 @@
     <t>We got a good room rate on Expedia, and enjoyed the hotel on a weeknight at a reasonable price !  It's only a few miles from MDAnderson, and they do have a shuttle. It was quiet on the side away from the highway, it was clean and comfy with free parking and free laundry.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r558444085-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558444085</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Extended stay for a month</t>
+  </si>
+  <si>
+    <t>The only reason I did not give a 5 is the very real problem getting in and out of the motel parking lot.  I live in Houston and am used to heavy traffic, but I feel for people who are not familiar with our traffic.  On the other hand, the Candlewood does have free shuttles to the medical center and many of their guests are in town for various treatments.  Other perks: pet friendly, free washer and dryer, gym, swimming pool, 24 hr. coffee,  very comfortable bed.   Staff were very friendly.  I loved the once a week room cleaning idea because I didn't have to pick up everything every morning and my work and cosmetics could stay out untouched.  Also handy, the hotel parking area is home to Taco Bell, Whataburger, Arby's, and Golden Coral.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The only reason I did not give a 5 is the very real problem getting in and out of the motel parking lot.  I live in Houston and am used to heavy traffic, but I feel for people who are not familiar with our traffic.  On the other hand, the Candlewood does have free shuttles to the medical center and many of their guests are in town for various treatments.  Other perks: pet friendly, free washer and dryer, gym, swimming pool, 24 hr. coffee,  very comfortable bed.   Staff were very friendly.  I loved the once a week room cleaning idea because I didn't have to pick up everything every morning and my work and cosmetics could stay out untouched.  Also handy, the hotel parking area is home to Taco Bell, Whataburger, Arby's, and Golden Coral.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r514592345-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514592345</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Very nice place</t>
+  </si>
+  <si>
+    <t>It is a good location to stay if you need to go the Convention (NRG). It was a really nice place to stay. The area is in a good location it is easy to find. They will have a swimming pool with Wi Fi services.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r500273070-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -258,9 +351,6 @@
     <t xml:space="preserve">Clean, fairly newly renovated property.  We have stayed numerous times. Booked through Hotwire. Property is a little bit out of the way. They do not clean the room if you are staying more than a day, but it has not been a problem for us. You can trade in your dirty towels if needed. </t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r490962026-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -318,6 +408,45 @@
     <t>The room was comfortable and a good size.  I stayed there two night alone and felt safe. Bed was ok but the couch and chair were very worn.  Carpet was yuchy.If you are used to nicer hotels you may not like this one. I covered the sofa with the extra sheets they have in the closet.  We were in town to go to MD Anderson.  Used the shuttle once. I used the gym which was good and my husband used the hot tub - he said it was good.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r473901535-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473901535</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comfortable 3-day stay at Candlewood Suites </t>
+  </si>
+  <si>
+    <t>We stayed in a queen bed suite with kitchenette while in Houston for appointments at MD Anderson.  Ask for the medical rate to receive a slightly discounted rate.  Our room was clean and comfortable.  Using their shuttle service to and from the medical center was efficient and dependable.  We also used it to go to dinner one night within the 3-mile radius of hotel, which was very nice.  The front desk personnel as well as the shuttle drivers were accommodating and courteous.  We didn't use the indoor pool or the fitness center, however, I did notice other guests taking advantage of them.  There is no continental breakfast provided, but due to kitchenette in our room, it was convenient to have easy breakfast items available.  I would stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed in a queen bed suite with kitchenette while in Houston for appointments at MD Anderson.  Ask for the medical rate to receive a slightly discounted rate.  Our room was clean and comfortable.  Using their shuttle service to and from the medical center was efficient and dependable.  We also used it to go to dinner one night within the 3-mile radius of hotel, which was very nice.  The front desk personnel as well as the shuttle drivers were accommodating and courteous.  We didn't use the indoor pool or the fitness center, however, I did notice other guests taking advantage of them.  There is no continental breakfast provided, but due to kitchenette in our room, it was convenient to have easy breakfast items available.  I would stay here again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r447790264-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447790264</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>Thanksgiving in Houston</t>
+  </si>
+  <si>
+    <t>This was our second visit to this hotel for a family Thanksgiving.  We chose It last year (2015)  because it is very convenient to our son's home in Bellaire, we returned this year (2016) because the accommodations were so satisfactory.   The kitchen was very well appointed, just about everything you might need for a simple meal, or to just serve carry-out on something besides paper.   The first year we did have several meals in our suite, but this year we didn't really take advantage of much other than coffee and the fridge for storage.Next time we might opt for just a room.  The bed was super comfortable - I wanted to pack it in my suitcase and bring it home with me!   It was very high, however, and I am short so had some difficulty climbing into it.  The desk clerk (Karla) helped us out with a step stool. There were ample linens in the bathroom and a very nice shower!  The work area was very well appointed so my husband could set up his "office". The rooms were  spotless and very quiet. There was easy access to the highway but no highway noise.I would definitely recommend it to travelers heading to the Med Center or tourists heading for the museums and the zoo.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>This was our second visit to this hotel for a family Thanksgiving.  We chose It last year (2015)  because it is very convenient to our son's home in Bellaire, we returned this year (2016) because the accommodations were so satisfactory.   The kitchen was very well appointed, just about everything you might need for a simple meal, or to just serve carry-out on something besides paper.   The first year we did have several meals in our suite, but this year we didn't really take advantage of much other than coffee and the fridge for storage.Next time we might opt for just a room.  The bed was super comfortable - I wanted to pack it in my suitcase and bring it home with me!   It was very high, however, and I am short so had some difficulty climbing into it.  The desk clerk (Karla) helped us out with a step stool. There were ample linens in the bathroom and a very nice shower!  The work area was very well appointed so my husband could set up his "office". The rooms were  spotless and very quiet. There was easy access to the highway but no highway noise.I would definitely recommend it to travelers heading to the Med Center or tourists heading for the museums and the zoo.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r440319704-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -333,9 +462,6 @@
     <t xml:space="preserve">So this IHG was located close to where we needed to be. Easy to find, but very difficult to get into. You can't enter from going South on Main. From 610 service road you have to cut through Taco Bell. The hotel staff was very friendly. The hotel and room was very clean and well stocked. The AC system worked well. Beds very comfortable.  With the exception of access into hotel from the roadway, two thumbs up. </t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r425383252-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -352,9 +478,6 @@
   </si>
   <si>
     <t>September 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r419325292-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
@@ -385,6 +508,51 @@
 The one (and I think only) van is built to supply air conditioning to the entire compartment....Like I said above, a GREAT HOTEL. My wife and I spend a week there while visiting someone being treated in the MD Anderson Cancer Center Hospital of Houston. The hotel has FREE clothes washing facilities for tenants, is walking distance to Whataburger, Golden Corral, Taco Bell, and even a Denny's restaurant.  The suites have stove-top cooking, microwave and a full-sized refrigerator and even though a little small in size are comfortable for short or long stays. EVERYTHING needed for cooking is in the room, AND if it's not IN the room, is probably available from the hotel storage area.  I mean toaster, silverware, dishes, etc.While no breakfast is served as part of the stay, YOU can cook whatever you want for yourself right in the room!!  IF you're not into cooking breakfast, make a short trip to Denny's or other nearby locations. Even though the building is a little hard to get to, it's got a well-lit parking lot and staff that actually seem to enjoy helping in any way they can.  I've rated this facility with a 4 vs 5 because of a problem with the van used (FREE) to shuttle tenants to the numerous MD Anderson treatment hospitals.  The van drivers are VERY attentive and bend over backward to get and return tenants as safely and quickly as possible.  The one (and I think only) van is built to supply air conditioning to the entire compartment.   In the HEAT and HUMIDITY of Houston, air conditioning is a MUST.  But, even though it's been identified, management - not the drivers - have failed to get the air conditioning working.  AGAIN, I'll state that this is a GREAT HOTEL.  But, to get a 5-star rating, the van air conditioning  problem NEEDS to be resolved.  While these tenants are fighting cancer themselves or are in the area to support their loved ones, riding FREE - while greatly appreciated -  is still tough on many when you are sweating for 20 or more minutes going to returning from the various hospitals in the area..DON'T hesitate staying at this hotel.  It IS a GREAT HOTEL.  Hopefully, the van will be repaired before you arrive!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r409761801-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>409761801</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Home Away from Home</t>
+  </si>
+  <si>
+    <t>I stayed there while getting radiation at M D Anderson (they have a medical rate for patients).  I really like it there.  I will be returning soon.  I tried other extended stay hotels, even a big name chain.  I liked it at Candlewood better.  This is located a little off of Main Street, where it is very quiet.  I slept like a baby.  There's a gym, laundry an indoor pool and a Jacuzzi.  I cooked a few of my meals outside on the barbeque.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r407841631-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>407841631</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>AMAZING!!!!!</t>
+  </si>
+  <si>
+    <t>This place is perfect!!! It's so clean and modern. I'm not sure when it was built, but it looks brand new. When we come to Houston we wont stay anywhere else! It feels like home! The bed is comfortable, the pillows are huge and fluffy, there is a full size walk in closet, they have huge towels, the kitchenette is perfect. I could make an endless list of what I love about this place and it's such a good price!!! The front desk clerk even called a few minutes after we checked in to see if we needed anything. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2016</t>
+  </si>
+  <si>
+    <t>This place is perfect!!! It's so clean and modern. I'm not sure when it was built, but it looks brand new. When we come to Houston we wont stay anywhere else! It feels like home! The bed is comfortable, the pillows are huge and fluffy, there is a full size walk in closet, they have huge towels, the kitchenette is perfect. I could make an endless list of what I love about this place and it's such a good price!!! The front desk clerk even called a few minutes after we checked in to see if we needed anything. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r397739060-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -463,6 +631,60 @@
     <t>We needed a place to stay while visiting MD Anderson Cancer Center for 3 nights.  This hotel is off heavily travelled South Main Street that is a little goofy to find but not too bad.  Near lots of restaurants, gas stations, convenience stores, football stadium and a few miles from the Medical Center.  Room was clean with a queen bed so if you need a king make sure you ask ahead of time, in room mini kitchen with microwave, refrigerator, stove and coffee maker.  Air conditioner a little noisy.  Staff very friendly and helpful.  Free coffee in lobby all the time which is nice and USA Today newspapers.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r365263455-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365263455</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Will Recommend and Be Back</t>
+  </si>
+  <si>
+    <t>I looked online for a hotel in the area with an indoor pool and suite rooms and this is the only one -- being that my grandson loves to swim I BOOKED IT.  I am not familiar with Houston just needed to be close to my sons apartment. First of all ALBERT is a treasure. He is thoughtful and seems to genuinely care about people and his job.  And the customers going in and out of the building always spoke to him... That says a lot.  The room is good size, clean, the bathroom was large as well.  And don't get me started on the size of the closet--WOW !! The best feature was the DVD player in the room - and movies to borrow at the front desk.  This hotel offers so much for anyone to complain about a little dust ....  Keep up the good work. I will be back with my husband and definitely with my grandson.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2016</t>
+  </si>
+  <si>
+    <t>I looked online for a hotel in the area with an indoor pool and suite rooms and this is the only one -- being that my grandson loves to swim I BOOKED IT.  I am not familiar with Houston just needed to be close to my sons apartment. First of all ALBERT is a treasure. He is thoughtful and seems to genuinely care about people and his job.  And the customers going in and out of the building always spoke to him... That says a lot.  The room is good size, clean, the bathroom was large as well.  And don't get me started on the size of the closet--WOW !! The best feature was the DVD player in the room - and movies to borrow at the front desk.  This hotel offers so much for anyone to complain about a little dust ....  Keep up the good work. I will be back with my husband and definitely with my grandson.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r363193642-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363193642</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable </t>
+  </si>
+  <si>
+    <t>My family and myself stay here every time we make a trip to Houston. Very comfortable and good atmosphere. Especially like the separate room from the main room. You have your own tv while the kids have their own tv in the main room. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2016</t>
+  </si>
+  <si>
+    <t>My family and myself stay here every time we make a trip to Houston. Very comfortable and good atmosphere. Especially like the separate room from the main room. You have your own tv while the kids have their own tv in the main room. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r361880782-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -538,6 +760,51 @@
     <t>Second time I have stayed at Candlewood. Great location for doing business in South Houston, located on or near major highways. Rooms are clean, spacious, and have kitchenette. Property is bordered by 3 restaurants, so if you have no special place to eat you can get something at one of theses. Pool, exercise Room - check. My one tip - I tried to book through IHG Hotels website and was told no rooms. A second call said they had rooms but at a higher price. I called the hotel direct, got a room, and a very reasonable rate. So much for being an IHG Rewards member in good standing.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r340758283-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340758283</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House keepers need to be trained </t>
+  </si>
+  <si>
+    <t>Housekeeping dose not clean very well and I had roaches in my room.When brought to the hotel staff I was told that they will take care of it but it happens again and finally I asked to move room and was given a new room only offered 1000 points for the inconvenience. The New room I was given had dust and food crumbs on the top of the fridge. The night time gentleman  was great friendly and helpful and the operations manager was helpful as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Housekeeping dose not clean very well and I had roaches in my room.When brought to the hotel staff I was told that they will take care of it but it happens again and finally I asked to move room and was given a new room only offered 1000 points for the inconvenience. The New room I was given had dust and food crumbs on the top of the fridge. The night time gentleman  was great friendly and helpful and the operations manager was helpful as well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r337076554-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337076554</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel and Convenient to NRG Stadium</t>
+  </si>
+  <si>
+    <t>We booked this room because of its proximity to NRG Stadium. It was very nice (especially for the price) and within walking distance of the stadium. I believe my phone said it was 1.4 miles one way. Note: I would not recommend walking to the stadium alone. The hotel was clean, comfortable and located right next to a Whataburger (and Taco Bell), which was convenient for a late night meal. Check-in and check-out was very easy. I liked how the hotel has a place for borrowing games, blenders, etc. I also saw that use of the laundry facilities is free. Both of these things, plus the kitchen in the room, would be convenient for people staying more than one night like we did. All in all, I liked this hotel and would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>We booked this room because of its proximity to NRG Stadium. It was very nice (especially for the price) and within walking distance of the stadium. I believe my phone said it was 1.4 miles one way. Note: I would not recommend walking to the stadium alone. The hotel was clean, comfortable and located right next to a Whataburger (and Taco Bell), which was convenient for a late night meal. Check-in and check-out was very easy. I liked how the hotel has a place for borrowing games, blenders, etc. I also saw that use of the laundry facilities is free. Both of these things, plus the kitchen in the room, would be convenient for people staying more than one night like we did. All in all, I liked this hotel and would stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r333339509-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -553,9 +820,6 @@
     <t>This review is written on behalf of my staff who stayed at this hotel. The room selected for him was on the previous smoking floor. We were both unaware of this and he complained to front desk of the smoke smell. He was advised it was likely coming from outside and so he bought fabreeze. He went through 3 bottles and complained again and although the staff member said they did not smell it, they moved him informing him that the floor he was on was on the previous smoking floor. The room they moved him to had a broken recliner chair, had stains on the carpet and sofa. The GM promised to have his chair situation fixed, but left for the day without a phone call or update.MoreShow less</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
     <t>Andy S, Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded December 18, 2015</t>
   </si>
   <si>
@@ -580,9 +844,6 @@
     <t>My sister and I decided to plan a last minute trip to houston. We found this hotel for a pretty fair price. The room was very nice. We stayed in a queen suite. It had a large bathroom, open floor plan for the living room, a full kitchen, and a whole separate room for the bedroom. For a one day, day before, trip this hotel was pretty great. The staff was a little slow but still very friendly.</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -604,6 +865,72 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r296758048-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296758048</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>Needs Updating But Clean</t>
+  </si>
+  <si>
+    <t>The place look a little cluttered and in need of maintenance.  It was clean or else I would have not stayed.  We were in need of a room due to being with family in the Hospital and found this one.  The beds were a little hard but we were so tired it did not matter.  We did notice a lot of people roaming about late at night in the parking, so we prayed over our vehicle and crashed for the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded August 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2015</t>
+  </si>
+  <si>
+    <t>The place look a little cluttered and in need of maintenance.  It was clean or else I would have not stayed.  We were in need of a room due to being with family in the Hospital and found this one.  The beds were a little hard but we were so tired it did not matter.  We did notice a lot of people roaming about late at night in the parking, so we prayed over our vehicle and crashed for the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r295306129-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295306129</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Pros and Cons with this hotel</t>
+  </si>
+  <si>
+    <t>I was at the Candlewood Suites Houston Medical Center in late July 2015 with my husband and mother. There were some ups and downs with our visit. It's a nice place with good potential, but we experienced a few small glitches that they can easily work out. It could be a great place.  
+First, there was a problem with the room we received. My husband and I had booked on the phone ahead of our visit.  We were quoted the rate for a two-room suite and reserved it so that my husband would have ample space for working from Houston while we were there, but when we checked in, they told us that our type of room wasn't available. We agreed to a downgrade to a one-room suite but wondered why they would book a two-room reservation and then not have it ready for us.
+Another problem was that the card key scanner/reader for my mother's room repeatedly did not work. We got her a new card key, but that one also had much trouble. 
+There was a 1-1/2 inch long cockroach in our hallway one morning; fortunately, it was dead.
+The fitness room is fine and has two treadmills in addition to other equipment. However, one of the treadmills was having troubles, such as having the incline feature not work at all.
+The knob for the stove cooktop came off in my husband's hand one evening.
+There is NO...I was at the Candlewood Suites Houston Medical Center in late July 2015 with my husband and mother. There were some ups and downs with our visit. It's a nice place with good potential, but we experienced a few small glitches that they can easily work out. It could be a great place.  First, there was a problem with the room we received. My husband and I had booked on the phone ahead of our visit.  We were quoted the rate for a two-room suite and reserved it so that my husband would have ample space for working from Houston while we were there, but when we checked in, they told us that our type of room wasn't available. We agreed to a downgrade to a one-room suite but wondered why they would book a two-room reservation and then not have it ready for us.Another problem was that the card key scanner/reader for my mother's room repeatedly did not work. We got her a new card key, but that one also had much trouble.  There was a 1-1/2 inch long cockroach in our hallway one morning; fortunately, it was dead.The fitness room is fine and has two treadmills in addition to other equipment. However, one of the treadmills was having troubles, such as having the incline feature not work at all.The knob for the stove cooktop came off in my husband's hand one evening.There is NO recycling anywhere in the hotel, not even for plastic or aluminum. We asked at the front desk and were told that they have none at all. Disappointing and unacceptable for 2015! We had to bag up and take all of our recyclables to my niece's apartment complex in College Station at the end of our stay.We all loved the beds - firm support but a soft feel. Really comfortable!! We all slept well. Also, the rooms were wonderfully cool. The AC was great and kept us feeling good even when it was 105 degrees out.We used the complimentary shuttle to MD Anderson. No problems with that. Great, friendly, safe driver!For the sake of my mom, I had requested accessible rooms for us. She is elderly and needs a handicap-accessible room with a walk-in shower. Both of our rooms had tubs, not walk-ins. The tub had a grab bar, but the tub was very slick with no non-skid features at all. Even I had to be very careful in it. I sat in the bathroom with my mom while she showered to make sure she was okay. The grab bar was the only assistance she had. I would not call the bathrooms accessible at all. Be aware of that if you need handicap accessibility.When we checked out, our statement had a higher per day rate than we were quoted on the phone when we reserved our rooms. This was the case for both our reservation and my mother's. Fortunately I noticed it, and I pointed it out at the front desk, and the rate was corrected.SO - overall, a mixed review.  I think it could be a great place with some work and small improvements.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2015</t>
+  </si>
+  <si>
+    <t>I was at the Candlewood Suites Houston Medical Center in late July 2015 with my husband and mother. There were some ups and downs with our visit. It's a nice place with good potential, but we experienced a few small glitches that they can easily work out. It could be a great place.  
+First, there was a problem with the room we received. My husband and I had booked on the phone ahead of our visit.  We were quoted the rate for a two-room suite and reserved it so that my husband would have ample space for working from Houston while we were there, but when we checked in, they told us that our type of room wasn't available. We agreed to a downgrade to a one-room suite but wondered why they would book a two-room reservation and then not have it ready for us.
+Another problem was that the card key scanner/reader for my mother's room repeatedly did not work. We got her a new card key, but that one also had much trouble. 
+There was a 1-1/2 inch long cockroach in our hallway one morning; fortunately, it was dead.
+The fitness room is fine and has two treadmills in addition to other equipment. However, one of the treadmills was having troubles, such as having the incline feature not work at all.
+The knob for the stove cooktop came off in my husband's hand one evening.
+There is NO...I was at the Candlewood Suites Houston Medical Center in late July 2015 with my husband and mother. There were some ups and downs with our visit. It's a nice place with good potential, but we experienced a few small glitches that they can easily work out. It could be a great place.  First, there was a problem with the room we received. My husband and I had booked on the phone ahead of our visit.  We were quoted the rate for a two-room suite and reserved it so that my husband would have ample space for working from Houston while we were there, but when we checked in, they told us that our type of room wasn't available. We agreed to a downgrade to a one-room suite but wondered why they would book a two-room reservation and then not have it ready for us.Another problem was that the card key scanner/reader for my mother's room repeatedly did not work. We got her a new card key, but that one also had much trouble.  There was a 1-1/2 inch long cockroach in our hallway one morning; fortunately, it was dead.The fitness room is fine and has two treadmills in addition to other equipment. However, one of the treadmills was having troubles, such as having the incline feature not work at all.The knob for the stove cooktop came off in my husband's hand one evening.There is NO recycling anywhere in the hotel, not even for plastic or aluminum. We asked at the front desk and were told that they have none at all. Disappointing and unacceptable for 2015! We had to bag up and take all of our recyclables to my niece's apartment complex in College Station at the end of our stay.We all loved the beds - firm support but a soft feel. Really comfortable!! We all slept well. Also, the rooms were wonderfully cool. The AC was great and kept us feeling good even when it was 105 degrees out.We used the complimentary shuttle to MD Anderson. No problems with that. Great, friendly, safe driver!For the sake of my mom, I had requested accessible rooms for us. She is elderly and needs a handicap-accessible room with a walk-in shower. Both of our rooms had tubs, not walk-ins. The tub had a grab bar, but the tub was very slick with no non-skid features at all. Even I had to be very careful in it. I sat in the bathroom with my mom while she showered to make sure she was okay. The grab bar was the only assistance she had. I would not call the bathrooms accessible at all. Be aware of that if you need handicap accessibility.When we checked out, our statement had a higher per day rate than we were quoted on the phone when we reserved our rooms. This was the case for both our reservation and my mother's. Fortunately I noticed it, and I pointed it out at the front desk, and the rate was corrected.SO - overall, a mixed review.  I think it could be a great place with some work and small improvements.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r284575646-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -619,9 +946,6 @@
     <t>We stay at this hotel every 3 months due to medical checkups nearby. It is noticeable that the hotel strives to provide a home-like atmosphere for its guests. Movies, books, games, small appliances, and an outdoor grill are available to guests. Laundry facilities consist of washers and dryers at no cost to the user. What a nice gesture! Shuttle service is provided to the medical center and to nearby shopping centers. I'm touched when the desk clerk extends well-wishes on our upcoming doctor's visit. And one other thing, we've noticed the cleanliness of each of the different rooms we've had. So if you need a clean room in a safe area near the medical center or the NRG arena, I highly recommend the Candlewood Suites in Houston. MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>We stay at this hotel every 3 months due to medical checkups nearby. It is noticeable that the hotel strives to provide a home-like atmosphere for its guests. Movies, books, games, small appliances, and an outdoor grill are available to guests. Laundry facilities consist of washers and dryers at no cost to the user. What a nice gesture! Shuttle service is provided to the medical center and to nearby shopping centers. I'm touched when the desk clerk extends well-wishes on our upcoming doctor's visit. And one other thing, we've noticed the cleanliness of each of the different rooms we've had. So if you need a clean room in a safe area near the medical center or the NRG arena, I highly recommend the Candlewood Suites in Houston. More</t>
   </si>
   <si>
@@ -661,6 +985,39 @@
     <t>Our nurse was concerned about the location, but we found the hotel secure and during evenings, saw a Candlewood security van close by.  On vacation we might stay at a slightly higher-rated Holiday Inn hotel (this one has some carpet wear, etc) but when you are going back and forth to the Med Ctr and need a decent, reasonably priced hotel room for extended visits, this one fits the bill nicely.  We've stayed here three times over the past three weeks and the bed is very comfortable, the room is clean, the desk is friendly, and every single room we've had has been identical excepting perhaps the view.  We've had 401, 413 and 201 - all comfortable queen bed non-smoking suites.  I'm sure next time we're in town, we'll stay here again.  Not fancy, but fits the bill very nicely.  If you are an MDA patient, don't forget to visit the MDA site for their corporate code to get an MDA patient discount.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r275055840-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275055840</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Returned 1 Year Later</t>
+  </si>
+  <si>
+    <t>I stayed here both times I exhibited at the Houston BOMA Trade Show. Its convenient to the stadium/hall where the show is located. Easy access to food and highways. As clean and nice as last time I stayed. I would stay again, very quiet. Large rooms with everything you need for a short or long stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r270383370-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270383370</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Great location, well equipped kitchen and clean room</t>
+  </si>
+  <si>
+    <t>Ideal location for OTC.  Next to it, there are plenty of clinics.  Our GPS allocated the place easily and free parking there.  There are CVS, Walgreen within walking distance and Super Target close by.  Easy to buy anything to get your food ready.  Be careful not to do deep fry as there is no kitchen ventilator in the room.  In the kitchen, you have everything you need and they prepare salt, pepper, suger and one package of dish washer powder even.  Bed is comfy and clean.  Restroom has clean towel.  They don't do housekeeping for you after you move it.  So it is more like home away home.  You can get new towel and bed sheet in receptionist desk.  They have nice and friendly front desk.  Quite helpful.  Near front desk, there is a tiny shop for you to purchase basic stuff.  Laundry and dryer work well and that is complimentary.  Wifi is not very stable but overall fine.  Only issue is that for OTC, they almost tripple the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ideal location for OTC.  Next to it, there are plenty of clinics.  Our GPS allocated the place easily and free parking there.  There are CVS, Walgreen within walking distance and Super Target close by.  Easy to buy anything to get your food ready.  Be careful not to do deep fry as there is no kitchen ventilator in the room.  In the kitchen, you have everything you need and they prepare salt, pepper, suger and one package of dish washer powder even.  Bed is comfy and clean.  Restroom has clean towel.  They don't do housekeeping for you after you move it.  So it is more like home away home.  You can get new towel and bed sheet in receptionist desk.  They have nice and friendly front desk.  Quite helpful.  Near front desk, there is a tiny shop for you to purchase basic stuff.  Laundry and dryer work well and that is complimentary.  Wifi is not very stable but overall fine.  Only issue is that for OTC, they almost tripple the price.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r268416325-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -713,6 +1070,57 @@
   </si>
   <si>
     <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r234921528-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234921528</t>
+  </si>
+  <si>
+    <t>10/17/2014</t>
+  </si>
+  <si>
+    <t>Was fine for a 3 night stay.</t>
+  </si>
+  <si>
+    <t>Located on south loop 610 at South Main, this hotel can be a little difficult to navigate to as it sits back off the roads and shares driveways with other businesses.  I found entering the Taco Bell driveway and working my way back to the hotel was easier for me.  When exiting the hotel, I reversed the process and exited heading east on the loop 610 frontage road.  Exiting on the South Main driveway was difficult at times due to the level of traffic.
+The hotel itself was fine.  I was quickly and efficiently checked in by Ebony who was quite friendly and helpful.  I learned there is no restaurant in the hotel but they do have items in their little store for purchase.
+The room was quite adequate with a comfortable queen bed, recliner, desk/chair, flat screen Curtis Mathis TV (I didn't know they were still in business), two burner electric stove, microwave, full sized refrigerator, dishwasher with a bathroom that included a tub/shower combination.  The kitchen area is adequately stocked with cookware and dishes.  
+The room was clean and I found it to be quiet.  Mine faced the parking lot and contrary to what I read on other reviews, the blackout curtains did their job on light coming into the room.  Noted that they only clean the rooms once a week while you are checked in but fresh towels and linens are available at the front desk in...Located on south loop 610 at South Main, this hotel can be a little difficult to navigate to as it sits back off the roads and shares driveways with other businesses.  I found entering the Taco Bell driveway and working my way back to the hotel was easier for me.  When exiting the hotel, I reversed the process and exited heading east on the loop 610 frontage road.  Exiting on the South Main driveway was difficult at times due to the level of traffic.The hotel itself was fine.  I was quickly and efficiently checked in by Ebony who was quite friendly and helpful.  I learned there is no restaurant in the hotel but they do have items in their little store for purchase.The room was quite adequate with a comfortable queen bed, recliner, desk/chair, flat screen Curtis Mathis TV (I didn't know they were still in business), two burner electric stove, microwave, full sized refrigerator, dishwasher with a bathroom that included a tub/shower combination.  The kitchen area is adequately stocked with cookware and dishes.  The room was clean and I found it to be quiet.  Mine faced the parking lot and contrary to what I read on other reviews, the blackout curtains did their job on light coming into the room.  Noted that they only clean the rooms once a week while you are checked in but fresh towels and linens are available at the front desk in you need them.There is a Whataburger, Taco Bell and Golden Corral within a short walk from the hotel with many more restaurants within a mile of the hotel.  Fiesta and Kroger grocery stores are a short drive north on South Main to stock up on groceries.Based on my experience, I would consider staying at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Located on south loop 610 at South Main, this hotel can be a little difficult to navigate to as it sits back off the roads and shares driveways with other businesses.  I found entering the Taco Bell driveway and working my way back to the hotel was easier for me.  When exiting the hotel, I reversed the process and exited heading east on the loop 610 frontage road.  Exiting on the South Main driveway was difficult at times due to the level of traffic.
+The hotel itself was fine.  I was quickly and efficiently checked in by Ebony who was quite friendly and helpful.  I learned there is no restaurant in the hotel but they do have items in their little store for purchase.
+The room was quite adequate with a comfortable queen bed, recliner, desk/chair, flat screen Curtis Mathis TV (I didn't know they were still in business), two burner electric stove, microwave, full sized refrigerator, dishwasher with a bathroom that included a tub/shower combination.  The kitchen area is adequately stocked with cookware and dishes.  
+The room was clean and I found it to be quiet.  Mine faced the parking lot and contrary to what I read on other reviews, the blackout curtains did their job on light coming into the room.  Noted that they only clean the rooms once a week while you are checked in but fresh towels and linens are available at the front desk in...Located on south loop 610 at South Main, this hotel can be a little difficult to navigate to as it sits back off the roads and shares driveways with other businesses.  I found entering the Taco Bell driveway and working my way back to the hotel was easier for me.  When exiting the hotel, I reversed the process and exited heading east on the loop 610 frontage road.  Exiting on the South Main driveway was difficult at times due to the level of traffic.The hotel itself was fine.  I was quickly and efficiently checked in by Ebony who was quite friendly and helpful.  I learned there is no restaurant in the hotel but they do have items in their little store for purchase.The room was quite adequate with a comfortable queen bed, recliner, desk/chair, flat screen Curtis Mathis TV (I didn't know they were still in business), two burner electric stove, microwave, full sized refrigerator, dishwasher with a bathroom that included a tub/shower combination.  The kitchen area is adequately stocked with cookware and dishes.  The room was clean and I found it to be quiet.  Mine faced the parking lot and contrary to what I read on other reviews, the blackout curtains did their job on light coming into the room.  Noted that they only clean the rooms once a week while you are checked in but fresh towels and linens are available at the front desk in you need them.There is a Whataburger, Taco Bell and Golden Corral within a short walk from the hotel with many more restaurants within a mile of the hotel.  Fiesta and Kroger grocery stores are a short drive north on South Main to stock up on groceries.Based on my experience, I would consider staying at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r233832251-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233832251</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>Nice Room for a Short Stay</t>
+  </si>
+  <si>
+    <t>Overall the rooms are nice and well appointed, the beds are comfy, and they pack a lot into a small space in terms of amenities.  They do have some facilities, but are really not set up for long term guests, as they advertise to be.  One problem with the rooms is that many face the very well-lit parking lot and the curtains don't close at all.  We had to get a safety pin to pin ours closed in the middle, otherwise we would have gotten no sleep.  The a/c was cold but it's one of the models which are situated at floor level below the window, so the curtains kept blocking airflow.  Also, the thermostat can't be set on a/c only, so the heat comes on almost as often as the a/c when trying to maintain a median temperature.  The location was a bit hard to find as well, since it is actually located behind the Holiday Inn Suites on the back side of the medical center.  If you pass the entrance road, it's a good ways before you can turn around and loop back (maybe 5 miles out of the way).  All in all, newly renovated, nice facilities, but I would definitely not stay here for anything more than a day or two.  One other good thing, it is an easy drive to/from Intercontinental Airport, maybe 15 minutes, tops.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded October 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2014</t>
+  </si>
+  <si>
+    <t>Overall the rooms are nice and well appointed, the beds are comfy, and they pack a lot into a small space in terms of amenities.  They do have some facilities, but are really not set up for long term guests, as they advertise to be.  One problem with the rooms is that many face the very well-lit parking lot and the curtains don't close at all.  We had to get a safety pin to pin ours closed in the middle, otherwise we would have gotten no sleep.  The a/c was cold but it's one of the models which are situated at floor level below the window, so the curtains kept blocking airflow.  Also, the thermostat can't be set on a/c only, so the heat comes on almost as often as the a/c when trying to maintain a median temperature.  The location was a bit hard to find as well, since it is actually located behind the Holiday Inn Suites on the back side of the medical center.  If you pass the entrance road, it's a good ways before you can turn around and loop back (maybe 5 miles out of the way).  All in all, newly renovated, nice facilities, but I would definitely not stay here for anything more than a day or two.  One other good thing, it is an easy drive to/from Intercontinental Airport, maybe 15 minutes, tops.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r222473436-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
@@ -789,6 +1197,56 @@
 Why why why do I stay at this hotel??  I guess was hopeful that the customer service had change....it...Arrived at the hotel on Monday, August 11, 2014 at approximately 7:30 pm in a rain storm.  Needless to say..I was drenched.  Waited at the front desk for at least 20 minutes and no one, no one was at the front desk...no where to be found.  Finally a young lady showed up.  She apparently was only one person working the desk.  She said she was helping another customer......hello....all while leaving the front desk unmanned.  WOW!!! There was another gentlemen waiting at the front desk as well.  ....then she had to answer the incoming phone calls.  It shouldn't take 30 minutes to get checked into a hotel...this is crazy.  I am an IHG rewards customer and was not offered my amentity--2 bottles of water. There should be at least 2 people working this front desk. I requested a room facing the back of the hotel, since it would be quieter.  She confirmed that it was a room facing the BACK...I ask her again to be sure.  Well room 310 obviously faces the FRONT of the hotel.  Don't they have charts to know WHERE THE ROOMS ARE LOCATED????Checked out about 9:00 am the following morning...now there were 3 ladies at the front desk chatting.....I clearly walked in front of the desk to get to the exit door...but not one said good morning.  Why why why do I stay at this hotel??  I guess was hopeful that the customer service had change....it has not. I work in the area and live far out so I thought I'd get a hotel room close by and stay the night....MISTAKE...back to the Hilton.Come hell or high water...I will never stay at this hotel again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r213804151-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213804151</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>Hmmmm...</t>
+  </si>
+  <si>
+    <t>I was in Houston for business during Rodeo week when all downtown hotels were booked. As a result, my company booked me at this hotel. The manager is very nice and helpful, but indeed, one should stay at this hotel only if one needs to be close to the medical center.The hotel felt very depressing, probably because I'm used to other brands such as Hilton and Hyatt which have comfortable beds, fluffy comforters, and daily cleaning service. This hotel is a pet friendly hotel, and they allow pets in all their rooms. Every night when getting ready for bed, all I could think of was "how many dogs drooled on this dark colored comforter?"On the other hand, the complete kitchen was very convenient for a four-night stay. I was able to cook my oatmeal breakfasts and reheat my take out food for dinner. MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in Houston for business during Rodeo week when all downtown hotels were booked. As a result, my company booked me at this hotel. The manager is very nice and helpful, but indeed, one should stay at this hotel only if one needs to be close to the medical center.The hotel felt very depressing, probably because I'm used to other brands such as Hilton and Hyatt which have comfortable beds, fluffy comforters, and daily cleaning service. This hotel is a pet friendly hotel, and they allow pets in all their rooms. Every night when getting ready for bed, all I could think of was "how many dogs drooled on this dark colored comforter?"On the other hand, the complete kitchen was very convenient for a four-night stay. I was able to cook my oatmeal breakfasts and reheat my take out food for dinner. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r213342089-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213342089</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Convenient Suite Hotel for Medical Center Visit</t>
+  </si>
+  <si>
+    <t>If you are driving from the west into Houston on Alt 90, it is not possible to see the Candlewood Suites sign. It's completely covered by a tree. The driveway is right before Whattaburger. The hotel is well back from the road, hence no road sounds. However, we did hear heavy footsteps in the room above---heavy enough to make the wall lamp in our bedroom clatter. The AC is also loud.
+The desk people were very helpful, but the shuttle driver didn't know where he was going. We had an appointment at the Baylor Clinic, and he took us to some cancer center. We eventually got there, but only because my husband went and got directions from the valet at the cancer center.
+Warning! The sofa bed in our room was the most uncomfortable sofa bed I have ever slept on and the lighting was less than appealing. The only lights in the living room were two bright overhead lights plus two wall lights---all on one switch. It was not ideal.
+The kitchen was very well equipped, maybe the best of any suite hotel we've been to---and we've been to a lot of them. Also, the bathroom is off the living room, not the bedroom. (This is good.)
+We will return to this hotel when we come for my surgery. They have a medical rate, which you have to ask for, a bedroom with a door, and a convenient location....If you are driving from the west into Houston on Alt 90, it is not possible to see the Candlewood Suites sign. It's completely covered by a tree. The driveway is right before Whattaburger. The hotel is well back from the road, hence no road sounds. However, we did hear heavy footsteps in the room above---heavy enough to make the wall lamp in our bedroom clatter. The AC is also loud.The desk people were very helpful, but the shuttle driver didn't know where he was going. We had an appointment at the Baylor Clinic, and he took us to some cancer center. We eventually got there, but only because my husband went and got directions from the valet at the cancer center.Warning! The sofa bed in our room was the most uncomfortable sofa bed I have ever slept on and the lighting was less than appealing. The only lights in the living room were two bright overhead lights plus two wall lights---all on one switch. It was not ideal.The kitchen was very well equipped, maybe the best of any suite hotel we've been to---and we've been to a lot of them. Also, the bathroom is off the living room, not the bedroom. (This is good.)We will return to this hotel when we come for my surgery. They have a medical rate, which you have to ask for, a bedroom with a door, and a convenient location. I'll just bring some kind of mattress pad and a small table lamp with me.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Medical Center, responded to this reviewResponded July 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2014</t>
+  </si>
+  <si>
+    <t>If you are driving from the west into Houston on Alt 90, it is not possible to see the Candlewood Suites sign. It's completely covered by a tree. The driveway is right before Whattaburger. The hotel is well back from the road, hence no road sounds. However, we did hear heavy footsteps in the room above---heavy enough to make the wall lamp in our bedroom clatter. The AC is also loud.
+The desk people were very helpful, but the shuttle driver didn't know where he was going. We had an appointment at the Baylor Clinic, and he took us to some cancer center. We eventually got there, but only because my husband went and got directions from the valet at the cancer center.
+Warning! The sofa bed in our room was the most uncomfortable sofa bed I have ever slept on and the lighting was less than appealing. The only lights in the living room were two bright overhead lights plus two wall lights---all on one switch. It was not ideal.
+The kitchen was very well equipped, maybe the best of any suite hotel we've been to---and we've been to a lot of them. Also, the bathroom is off the living room, not the bedroom. (This is good.)
+We will return to this hotel when we come for my surgery. They have a medical rate, which you have to ask for, a bedroom with a door, and a convenient location....If you are driving from the west into Houston on Alt 90, it is not possible to see the Candlewood Suites sign. It's completely covered by a tree. The driveway is right before Whattaburger. The hotel is well back from the road, hence no road sounds. However, we did hear heavy footsteps in the room above---heavy enough to make the wall lamp in our bedroom clatter. The AC is also loud.The desk people were very helpful, but the shuttle driver didn't know where he was going. We had an appointment at the Baylor Clinic, and he took us to some cancer center. We eventually got there, but only because my husband went and got directions from the valet at the cancer center.Warning! The sofa bed in our room was the most uncomfortable sofa bed I have ever slept on and the lighting was less than appealing. The only lights in the living room were two bright overhead lights plus two wall lights---all on one switch. It was not ideal.The kitchen was very well equipped, maybe the best of any suite hotel we've been to---and we've been to a lot of them. Also, the bathroom is off the living room, not the bedroom. (This is good.)We will return to this hotel when we come for my surgery. They have a medical rate, which you have to ask for, a bedroom with a door, and a convenient location. I'll just bring some kind of mattress pad and a small table lamp with me.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r209574846-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -846,6 +1304,45 @@
     <t>We flew in to Houston on Monday for a business trip and most hotels had no availability. But we found two rooms at this hotel. The rooms were very clean, great towels, nice firm bed and plenty of pillows.But what really made this place was the staff. They could not have been more accomodating and friendly. They helped us figure out where to go to dinner and even offered to drive us to Fiesta to pick up some items. When we checked out, they said next time they'll take us to Pappacitas for margaritas. Really nice people. Everyone should be more than comfortable to stay here. Only con I have is that there was only decaf coffee for the coffee makers in the room. Coffee drinkers don't want decaf in the morning!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r204017097-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204017097</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>Our new go-to hotel for medical trips!!</t>
+  </si>
+  <si>
+    <t>We originally had a reservation in a different hotel, not a stone's throw from this hotel.  After a 12 hour car drive, and checking in and immediately out of our first hotel, we weren't sure we could find another hotel that night.  This hotel not only had rooms, at medical rates, it was AMAZING!  The room was huge, the bathroom was gorgeous and spacious and we had a full kitchenette (full fridge, dishwasher, sink with disposal, microwave, two burner stove top, dishes, coffee maker with coffee, pots and pans...)We were exhausted and just ready to be in a room when checking in, the guy at the front desk so incredibly nice and even had us laughing during check in.  We had such an amazing experience, overall.  Whether we are taking a medical trip or an extended vacation, we will look into Candlewood Suites!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>We originally had a reservation in a different hotel, not a stone's throw from this hotel.  After a 12 hour car drive, and checking in and immediately out of our first hotel, we weren't sure we could find another hotel that night.  This hotel not only had rooms, at medical rates, it was AMAZING!  The room was huge, the bathroom was gorgeous and spacious and we had a full kitchenette (full fridge, dishwasher, sink with disposal, microwave, two burner stove top, dishes, coffee maker with coffee, pots and pans...)We were exhausted and just ready to be in a room when checking in, the guy at the front desk so incredibly nice and even had us laughing during check in.  We had such an amazing experience, overall.  Whether we are taking a medical trip or an extended vacation, we will look into Candlewood Suites!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r203455700-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203455700</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Great staff Bad management!</t>
+  </si>
+  <si>
+    <t>Overall this is a good hotel.the morning. Morning añd night guy  always nice and Professional. This is the second time I've have came to this hotel this year. Horrible management she needs to go back to management school. I don't think I will be coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall this is a good hotel.the morning. Morning añd night guy  always nice and Professional. This is the second time I've have came to this hotel this year. Horrible management she needs to go back to management school. I don't think I will be coming back.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r202382771-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -859,9 +1356,6 @@
   </si>
   <si>
     <t>i just want to say thank you to the staff of the candle wood my mom is really sick and we have been in and out of the hospital for a couple weeks now, and sherry has been a life saver. I think she has went beyond the call of duty, when it comes to my mom. Thanks candle woodMoreShow less</t>
-  </si>
-  <si>
-    <t>April 2014</t>
   </si>
   <si>
     <t>i just want to say thank you to the staff of the candle wood my mom is really sick and we have been in and out of the hospital for a couple weeks now, and sherry has been a life saver. I think she has went beyond the call of duty, when it comes to my mom. Thanks candle woodMore</t>
@@ -914,6 +1408,39 @@
     <t>This place stinks, no literally it smells of lysol and cleaning solvent. It hits you as you walk in the door. It is not a clean smell, but a strong scent that is rather off-putting and it burnt my throat. So if that wasn't bad enough, I was put in room 105 which is literally by the reception desk and both the front and rear entrances. To say that I heard every conversation at the front desk would be the understatement of the year. I may as well have slept under the front desk because it wasn't all that different being in my room. Oh and the doors all slam hard, like earth shattering hard, so much so it feels like the room is shaking when the neighbor comes and goes.  Needless to say I did not sleep well for the one night I was there.
 Also a couple of strange things were missing from the hotel room, specifically the bathroom. There was not a towel hook on the back of the door or anywhere else. And there was not a single trash can in the bathroom, so I ended up throwing my wrappers on the counter. It just seemed odd that these simple things were lacking. 
 Now to give you some perspective I am a business traveler and am used to a different level of service. But I do travel with my family and would never subject them to...This place stinks, no literally it smells of lysol and cleaning solvent. It hits you as you walk in the door. It is not a clean smell, but a strong scent that is rather off-putting and it burnt my throat. So if that wasn't bad enough, I was put in room 105 which is literally by the reception desk and both the front and rear entrances. To say that I heard every conversation at the front desk would be the understatement of the year. I may as well have slept under the front desk because it wasn't all that different being in my room. Oh and the doors all slam hard, like earth shattering hard, so much so it feels like the room is shaking when the neighbor comes and goes.  Needless to say I did not sleep well for the one night I was there.Also a couple of strange things were missing from the hotel room, specifically the bathroom. There was not a towel hook on the back of the door or anywhere else. And there was not a single trash can in the bathroom, so I ended up throwing my wrappers on the counter. It just seemed odd that these simple things were lacking. Now to give you some perspective I am a business traveler and am used to a different level of service. But I do travel with my family and would never subject them to this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r196243110-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196243110</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We were immediately pleased with this hotel, from the reservation agent to the greeting we received when we entered the hotel. Everything was clean, comfortable, and close to restaurants (no breakfast offered), and the medical center where we came for treatment. We would recommend this hotel to others. Note, there is a medical rate available for those who are in treatment at the medical center.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were immediately pleased with this hotel, from the reservation agent to the greeting we received when we entered the hotel. Everything was clean, comfortable, and close to restaurants (no breakfast offered), and the medical center where we came for treatment. We would recommend this hotel to others. Note, there is a medical rate available for those who are in treatment at the medical center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r196227048-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196227048</t>
+  </si>
+  <si>
+    <t>One of the nicest places</t>
+  </si>
+  <si>
+    <t>My daughter in law stayed there for nearly 2 weeks while waiting for the final closing on their new house, before my son and grandchildren joining her. She raved about how great it was. On her last night there, I had the opportunity to stay there also, and let me tell you..she was so right. Immaculate, comfortable, and an extremely accommodating staff. It could not have been better.You will not go wrong with this wonderful hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>My daughter in law stayed there for nearly 2 weeks while waiting for the final closing on their new house, before my son and grandchildren joining her. She raved about how great it was. On her last night there, I had the opportunity to stay there also, and let me tell you..she was so right. Immaculate, comfortable, and an extremely accommodating staff. It could not have been better.You will not go wrong with this wonderful hotel!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r186532875-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
@@ -979,6 +1506,42 @@
     <t>I stayed at the Candlewood Suites Medical Center for 3 nights in early October 2013 because my sister was having surgery at MDA. I was nicely surprised, given the rather negative reviews that several people have posted. It was very clean, very quiet, and the bed was comfortable. The kitchenette had a full-sized fridge with ice-maker, coffee pot and a stovetop with 2 burners. It was well-lit and I always felt safe and it had a shuttle to MDA on weekdays. The staff were all pleasant. It's not a 4-star property but you're not paying the price for a 4-star property. Overall, it exceeded my expectations and if need be, I will return.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r180472986-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180472986</t>
+  </si>
+  <si>
+    <t>Lies Are Not Good For Business</t>
+  </si>
+  <si>
+    <t>I was there June 2013 for the first night on points. I put my cc on file for incidentals, normal. I was told a $45 hold. Next day, I needed to extend. Offered to pay cash so the card would not be charged as I had other plans for it. Clerk who came to be referred to as "the new guy" told me they needed a cc on file and that would be all. I told him that was already done. Again, let me pay cash , I was told not necessary. The next day I needed to extend again because my apartment was still not ready. Back to the desk and offered cash to be up to date. Another clerk, same thing, did not take the cash. I only put funds in this account as I warrant for known purchases. When checking my email I had a note from a vendor, my payment was declined due to insufficient funds. The money was there so what happened? Candlewood was making additional authorizations to my card without my permission. Another clerk told me he had to get his money somehow! When I told him I was trying to pay cash, that conversation went out the window. I suggested I use up the now credit from those unauthorized authorizations, agreed. When I checked out it had been 7 days and I was offered a discount. Meanwhile, when I asked about the $45...I was there June 2013 for the first night on points. I put my cc on file for incidentals, normal. I was told a $45 hold. Next day, I needed to extend. Offered to pay cash so the card would not be charged as I had other plans for it. Clerk who came to be referred to as "the new guy" told me they needed a cc on file and that would be all. I told him that was already done. Again, let me pay cash , I was told not necessary. The next day I needed to extend again because my apartment was still not ready. Back to the desk and offered cash to be up to date. Another clerk, same thing, did not take the cash. I only put funds in this account as I warrant for known purchases. When checking my email I had a note from a vendor, my payment was declined due to insufficient funds. The money was there so what happened? Candlewood was making additional authorizations to my card without my permission. Another clerk told me he had to get his money somehow! When I told him I was trying to pay cash, that conversation went out the window. I suggested I use up the now credit from those unauthorized authorizations, agreed. When I checked out it had been 7 days and I was offered a discount. Meanwhile, when I asked about the $45 one particular clerk kept telling me his system showed no $45 hold and he was confident it was correct. My response was I am confident in my bank which said you are still holding this money! Once I left, the remainder of the $45 and balance since my rate was reduced was to be returned in 7-10 business days. My bank returns immediately upon release so there was to be no waiting period After 10 days I kept checking my balance and finally called the bank. The authorization hold was for 30 days!!! This touched off the second half of a fraudulent nightmare. The clerks and General Manager lied repeatedly about sending a "fax" over to my bank to release the funds. The banks says no faxes are used for this process and there is no fax number so where was the authorization release? I called Intercontinental Guest Relations numerous times and even they were lied to by the GM of sending it. It was nearly 2 weeks before I threatened to bring in the Attorney General for Texas before I was apparently taken seriously. Finally the GM who said he sent the paperwork admitted he never sent it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I was there June 2013 for the first night on points. I put my cc on file for incidentals, normal. I was told a $45 hold. Next day, I needed to extend. Offered to pay cash so the card would not be charged as I had other plans for it. Clerk who came to be referred to as "the new guy" told me they needed a cc on file and that would be all. I told him that was already done. Again, let me pay cash , I was told not necessary. The next day I needed to extend again because my apartment was still not ready. Back to the desk and offered cash to be up to date. Another clerk, same thing, did not take the cash. I only put funds in this account as I warrant for known purchases. When checking my email I had a note from a vendor, my payment was declined due to insufficient funds. The money was there so what happened? Candlewood was making additional authorizations to my card without my permission. Another clerk told me he had to get his money somehow! When I told him I was trying to pay cash, that conversation went out the window. I suggested I use up the now credit from those unauthorized authorizations, agreed. When I checked out it had been 7 days and I was offered a discount. Meanwhile, when I asked about the $45...I was there June 2013 for the first night on points. I put my cc on file for incidentals, normal. I was told a $45 hold. Next day, I needed to extend. Offered to pay cash so the card would not be charged as I had other plans for it. Clerk who came to be referred to as "the new guy" told me they needed a cc on file and that would be all. I told him that was already done. Again, let me pay cash , I was told not necessary. The next day I needed to extend again because my apartment was still not ready. Back to the desk and offered cash to be up to date. Another clerk, same thing, did not take the cash. I only put funds in this account as I warrant for known purchases. When checking my email I had a note from a vendor, my payment was declined due to insufficient funds. The money was there so what happened? Candlewood was making additional authorizations to my card without my permission. Another clerk told me he had to get his money somehow! When I told him I was trying to pay cash, that conversation went out the window. I suggested I use up the now credit from those unauthorized authorizations, agreed. When I checked out it had been 7 days and I was offered a discount. Meanwhile, when I asked about the $45 one particular clerk kept telling me his system showed no $45 hold and he was confident it was correct. My response was I am confident in my bank which said you are still holding this money! Once I left, the remainder of the $45 and balance since my rate was reduced was to be returned in 7-10 business days. My bank returns immediately upon release so there was to be no waiting period After 10 days I kept checking my balance and finally called the bank. The authorization hold was for 30 days!!! This touched off the second half of a fraudulent nightmare. The clerks and General Manager lied repeatedly about sending a "fax" over to my bank to release the funds. The banks says no faxes are used for this process and there is no fax number so where was the authorization release? I called Intercontinental Guest Relations numerous times and even they were lied to by the GM of sending it. It was nearly 2 weeks before I threatened to bring in the Attorney General for Texas before I was apparently taken seriously. Finally the GM who said he sent the paperwork admitted he never sent it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r164268203-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164268203</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Budget friendly for Medical Center</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for a week for my husbands surgery at Methodist hospital. Service has been excellent. Shuttle vans to and from the hospital are free. There is a kitchenette with most everything you need. I brought supplies from a nearby grocery store such as coffee, creamer and snacks. You can buy these at the on site Pantry, but I found less expensive if you bring with you.My room was clean. No daily housekeeping, but you can exchange soiled linens and towels as needed. Not a big deal for me. They offer free washer/dryer facilities for personal laundry, as well as a small gym. I have stayed at several hotels in the area that offer the "extras" but for the difference in cost I will stay here again as we will be back over the next 3 months. The hotel is quiet and I feel safe being there alone. I would recommend to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for a week for my husbands surgery at Methodist hospital. Service has been excellent. Shuttle vans to and from the hospital are free. There is a kitchenette with most everything you need. I brought supplies from a nearby grocery store such as coffee, creamer and snacks. You can buy these at the on site Pantry, but I found less expensive if you bring with you.My room was clean. No daily housekeeping, but you can exchange soiled linens and towels as needed. Not a big deal for me. They offer free washer/dryer facilities for personal laundry, as well as a small gym. I have stayed at several hotels in the area that offer the "extras" but for the difference in cost I will stay here again as we will be back over the next 3 months. The hotel is quiet and I feel safe being there alone. I would recommend to others.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r160156023-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1061,6 +1624,45 @@
 We also requested a shower chair and...We rented two rooms.  A handicapped room for my dad and a King for ourselves.  Upon check in, which is 3:00 pm but we didn't arrive until around 4:30 pm, we were handed the keys to our rooms and upon entering my dad's handicapped room, it was not cleaned, dirtly towels on the floor, so we exited and reported back to the front desk.  We then waited in our room for them to advise when my dad's room would be ready.  He was extremely tired and we waited until well after 7 and then called the front desk.  We were told it would be ready soon.  When we took my dad to his room, for some reason I checked the window.  I don't know what prompted me to do this.  The lock on the window was unscrewed and the window would not lock.  I called the front desk to send maintenance and was advised by the front desk clerk that I was speaking to that he was the only one there and we would have to wait until 11 when someone else came on board.  My husband then requested a screwdriver and fixed the window himself.  Also, this is not being picky, but to let you know when you rent a room from Candlewood, you need to turn on your ice machine in your freezer because they do not have an ice machine.  We also requested a shower chair and was told they did not have them.  The manager the next day said they did have them, but would check to see if they were all in use and if they needed to order more to keep on hand.  It was very difficult on my dad to shower without the chair and so I would not classify this as a truely handicapped room.Upon check out, I told the manager our issues from the previous day and requested a discount.  She was very nice and understanding and gave us a 10% discount.  All I can say is if you stay on the first floor to any hotel, ALWAYS check to make sure the windows lock securely, especially in a handicapped room.  All in all, I was happy with the personnel, they were friendly and responded as soon as possible.  Unfortunately, the young man who helped us upon check in was new and needed a bit more training, which I did discuss with the manager upon check out.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r153191847-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153191847</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Friendly, clean and welcoming</t>
+  </si>
+  <si>
+    <t>the staff is as friendly and kind as can be. very obliging to the needs of their guests. The maintenance and maid service are always busy and friendly. Clean as a whistle well kept up. on Wed. night the management has a welcoming dinner, because most people stay for at least a week it helps guests get to know one another if they should desire. Alot of people stay here to go to M.D. Anderson and the hotel provides a free shuttle to and from the medical center.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r150942105-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150942105</t>
+  </si>
+  <si>
+    <t>01/29/2013</t>
+  </si>
+  <si>
+    <t>Hotel is typical Candlewood.  Staff lied 3 times.</t>
+  </si>
+  <si>
+    <t>You get what you pay for with Candlewood.  The room was fine.  They told me they had no king beds available.  They told me my smoking preference could not be met.  I stay at ICH hotels for the perks.  None were met.  They also told me that my free drink coupon could be used for one food item.  (this is not the case usually.  I should have redeemed it then).  I tried to redeem it, and was told by the lady at the desk that I could not.I also went online as soon as I got to my room, and found the availability of a king suite, along with my smoking preference.  (This was on the ICH website).I understand trying to make a profit, however, I don't appreciate being lied to so they have the possibility of selling at a higher rate.I spend over 200 nights a year in ICH hotels.  If you're just looking for a place to stay, it's quiet, with many fast food choices in walking distance.  Just don't look for your loyalty to the brand to be reciprocated.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>You get what you pay for with Candlewood.  The room was fine.  They told me they had no king beds available.  They told me my smoking preference could not be met.  I stay at ICH hotels for the perks.  None were met.  They also told me that my free drink coupon could be used for one food item.  (this is not the case usually.  I should have redeemed it then).  I tried to redeem it, and was told by the lady at the desk that I could not.I also went online as soon as I got to my room, and found the availability of a king suite, along with my smoking preference.  (This was on the ICH website).I understand trying to make a profit, however, I don't appreciate being lied to so they have the possibility of selling at a higher rate.I spend over 200 nights a year in ICH hotels.  If you're just looking for a place to stay, it's quiet, with many fast food choices in walking distance.  Just don't look for your loyalty to the brand to be reciprocated.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r133706142-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1730,56 @@
   </si>
   <si>
     <t>This hotel is lovely! I was here for cancer treatment and they have taken care of me so well! The staff was always so responsive to my needs and very friendly. The rooms are clean and the hotel is well maintained. I felt very comfortable here and I can tell the staff works very hard to keep everyone happy. I urge you try this hotel out if you are coming to MD Anderson bc they are very caring loving people and will take good care of you. The medical rate is very good compared to the other clean hotels in the area...you can find cheaper rates in the area at lower scaled hotels. I enjoyed the kitchen and wednesday night get-togethers the staff arranges. Overall, it's a wonderful place and I will be staying here for future check upsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r127705567-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127705567</t>
+  </si>
+  <si>
+    <t>Great staff and clean hotel</t>
+  </si>
+  <si>
+    <t>I love this hotel! The staff is amazing and the hotel is very clean. I stayed here during my cancer treatment and i couldn't have asked for a better hotel. The managers and entire staff took care of me and made me feel like I mattered. The hotel was clean and well maintained. They have a security guard at night who is very thorough and kept a good eye on the place unlike the other hotels in the area that have car break ins EVERY NIGHT!! I know the hotels can't control the crime but I definitely noticed that this hotel has minimal issues compared to the other 4 we tried out prior to staying here. No place is perfect but if you aren't one of those people who goes to hotels just looking for issues to complain about, you will like it here!MoreShow less</t>
+  </si>
+  <si>
+    <t>I love this hotel! The staff is amazing and the hotel is very clean. I stayed here during my cancer treatment and i couldn't have asked for a better hotel. The managers and entire staff took care of me and made me feel like I mattered. The hotel was clean and well maintained. They have a security guard at night who is very thorough and kept a good eye on the place unlike the other hotels in the area that have car break ins EVERY NIGHT!! I know the hotels can't control the crime but I definitely noticed that this hotel has minimal issues compared to the other 4 we tried out prior to staying here. No place is perfect but if you aren't one of those people who goes to hotels just looking for issues to complain about, you will like it here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r125236193-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125236193</t>
+  </si>
+  <si>
+    <t>02/26/2012</t>
+  </si>
+  <si>
+    <t>Used to stay there</t>
+  </si>
+  <si>
+    <t>My husband is a patient at MD Anderson and we have stayed at this hotel several times in the past.  We have always been pleased with the front desk and shuttle service and as far as we could tell, the rooms seem fairly clean.  The last time we stayed, however, which was about 6 months ago, a car that was parked directly in front of the entrance was sitting on blocks when the owner of the vehicle went to get in it the next morning.  The tires and wheels had been stripped off of the vehicle and she was told  the "security" cameras were not on, so the culprits got away with it.  And, as other reviewers have stated, this is not a very safe area - and the Golden Corral next door is terrible!
+Our other main complaint is the fact that animals are allowed to be in the rooms and we have always felt the comforters were dirty and immediately pulled them off of the bed when we arrived.
+On the good side, the kitchens are nice and well stocked and when we stayed there for a couple of weeks, we were very comfortable and since my husband was too sick to eat out much, we were able to have our meals in the room.
+The rates are also very compatible with other hotes in the area.
+Having said this, we have started staying at a nicer and...My husband is a patient at MD Anderson and we have stayed at this hotel several times in the past.  We have always been pleased with the front desk and shuttle service and as far as we could tell, the rooms seem fairly clean.  The last time we stayed, however, which was about 6 months ago, a car that was parked directly in front of the entrance was sitting on blocks when the owner of the vehicle went to get in it the next morning.  The tires and wheels had been stripped off of the vehicle and she was told  the "security" cameras were not on, so the culprits got away with it.  And, as other reviewers have stated, this is not a very safe area - and the Golden Corral next door is terrible!Our other main complaint is the fact that animals are allowed to be in the rooms and we have always felt the comforters were dirty and immediately pulled them off of the bed when we arrived.On the good side, the kitchens are nice and well stocked and when we stayed there for a couple of weeks, we were very comfortable and since my husband was too sick to eat out much, we were able to have our meals in the room.The rates are also very compatible with other hotes in the area.Having said this, we have started staying at a nicer and cleaner (and a little more expensive)  hotel closer to MD Anderson.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations IHGCare at Candlewood Suites Houston Medical Center, responded to this reviewResponded March 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2012</t>
+  </si>
+  <si>
+    <t>My husband is a patient at MD Anderson and we have stayed at this hotel several times in the past.  We have always been pleased with the front desk and shuttle service and as far as we could tell, the rooms seem fairly clean.  The last time we stayed, however, which was about 6 months ago, a car that was parked directly in front of the entrance was sitting on blocks when the owner of the vehicle went to get in it the next morning.  The tires and wheels had been stripped off of the vehicle and she was told  the "security" cameras were not on, so the culprits got away with it.  And, as other reviewers have stated, this is not a very safe area - and the Golden Corral next door is terrible!
+Our other main complaint is the fact that animals are allowed to be in the rooms and we have always felt the comforters were dirty and immediately pulled them off of the bed when we arrived.
+On the good side, the kitchens are nice and well stocked and when we stayed there for a couple of weeks, we were very comfortable and since my husband was too sick to eat out much, we were able to have our meals in the room.
+The rates are also very compatible with other hotes in the area.
+Having said this, we have started staying at a nicer and...My husband is a patient at MD Anderson and we have stayed at this hotel several times in the past.  We have always been pleased with the front desk and shuttle service and as far as we could tell, the rooms seem fairly clean.  The last time we stayed, however, which was about 6 months ago, a car that was parked directly in front of the entrance was sitting on blocks when the owner of the vehicle went to get in it the next morning.  The tires and wheels had been stripped off of the vehicle and she was told  the "security" cameras were not on, so the culprits got away with it.  And, as other reviewers have stated, this is not a very safe area - and the Golden Corral next door is terrible!Our other main complaint is the fact that animals are allowed to be in the rooms and we have always felt the comforters were dirty and immediately pulled them off of the bed when we arrived.On the good side, the kitchens are nice and well stocked and when we stayed there for a couple of weeks, we were very comfortable and since my husband was too sick to eat out much, we were able to have our meals in the room.The rates are also very compatible with other hotes in the area.Having said this, we have started staying at a nicer and cleaner (and a little more expensive)  hotel closer to MD Anderson.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r124584699-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
@@ -1194,6 +1846,42 @@
 This hotel property is not maintained and is...This was the worst hotel I have experienced in a long time.  I was there for business and decided to stay at this property since the reviews were pretty good.  The first room had bed bugs in it and the manager apologized and checked me into another room.  The 2nd room had dirty bed sheets, leaking toilet, and stained carpeting.  The "manager" was with me and she claimed that this was the wrong room as it was out of order?????  Then we went to a third room which had holes in the wall and holes in the stained comforter, along with bed bugs stains.  At this point I just had it and decided to take my business elsewhere.  I asked to speak to the manager and the young lady that was the "manager" stated she was the full time manager and she also owned the hotel along with her parents.  I didn't ask for who owned the hotel, I just wanted to voice my concerns to the appropriate personnel.  This manager obviously had no hotel management or any other management experience and was not well versed with customer service.  With my background in business acquisitons and mergers, let me say this hotel should be condemned for not complying with health codes or the franchise regulations.  How can this hotel stay open for business when they don't comply with cleanliness or hotel standards.This hotel property is not maintained and is run down even though they claim it was built in 2009.    They need to employ a real manager with experience not a novice.  Horrible, don't bother staying here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r118637159-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118637159</t>
+  </si>
+  <si>
+    <t>09/26/2011</t>
+  </si>
+  <si>
+    <t>nice stay</t>
+  </si>
+  <si>
+    <t>a little hard to find the entranc e, but good location, clean large nice room.We go to this area a lot and will go back.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r116213078-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116213078</t>
+  </si>
+  <si>
+    <t>08/03/2011</t>
+  </si>
+  <si>
+    <t>Very satisfy customer</t>
+  </si>
+  <si>
+    <t>This is my first review ever. I am writing it because I want people like my husband and I to feel a little more confident about your choice of hotel if you chose to stay here. I will start by telling you that the place is just like what you see in the pictures. Nice and clean and the bed is very comfortable. The kitchenette is more than what I was expecting. The laundry facilities are free and clean with the gym across from it so you can get a work out while you wait.  We have been here for over a month due to medical reasons and the staff could not be more caring. They have a shuttle that go to the medical center from 7:00am to 6:00pm every hour from Monday to Friday and the times we needed transportation on the week end we used yellow cab and it was around $9.00.  I have nothing to complain about, but I have to add that there are some smoking rooms on the fourth floor and some times the hallway smells like cigarettes. But don't let that influence your decision you still have first second and third floors. I can vouch by the second floor, we stayed there on our first visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is my first review ever. I am writing it because I want people like my husband and I to feel a little more confident about your choice of hotel if you chose to stay here. I will start by telling you that the place is just like what you see in the pictures. Nice and clean and the bed is very comfortable. The kitchenette is more than what I was expecting. The laundry facilities are free and clean with the gym across from it so you can get a work out while you wait.  We have been here for over a month due to medical reasons and the staff could not be more caring. They have a shuttle that go to the medical center from 7:00am to 6:00pm every hour from Monday to Friday and the times we needed transportation on the week end we used yellow cab and it was around $9.00.  I have nothing to complain about, but I have to add that there are some smoking rooms on the fourth floor and some times the hallway smells like cigarettes. But don't let that influence your decision you still have first second and third floors. I can vouch by the second floor, we stayed there on our first visit.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r114918116-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1258,6 +1946,54 @@
 The one thing that really drove me crazy was the overhead "kitchen area" light that was always on if ANY lights were on in the suite.  You couldn't lie in bed and read without the glaring light in the kitchen being on.  We checked with the desk, thinking we were doing something wrong, but no, we weren't.  My husband had to climb up on a chair to remove the light fixture and unscrew the two lightbulbs for our entire stay.  Ridiculous.  There are also only lights on one side of the bed, so if there are two travellers, one of them...My husband and I stayed at this Candlewood hotel near Reliant Stadium for 5 nights for the Final Four.  We have stayed at many Candlewood properties in the past and this was definitely not up to par!  Some might not notice, but the first thing I saw when I walked into the room was a comforter on the bed that was so wrinkled that it looked like it had been in a dryer for about a week.  It looked horrible and NEVER got any better for the entire stay.  This is an extended stay hotel and we never got any service for the entire 5 days we were there....no extra bars of soap, shampoo, fresh towels, etc.  I asked for the suite to be vacuumed midway through our stay and was told it would cost an extra $10!  Puleeze!The one thing that really drove me crazy was the overhead "kitchen area" light that was always on if ANY lights were on in the suite.  You couldn't lie in bed and read without the glaring light in the kitchen being on.  We checked with the desk, thinking we were doing something wrong, but no, we weren't.  My husband had to climb up on a chair to remove the light fixture and unscrew the two lightbulbs for our entire stay.  Ridiculous.  There are also only lights on one side of the bed, so if there are two travellers, one of them cannot lie in bed and read because there is no light!Their shuttle only goes to the Medical Center and back on the hour.   Want to dropped off somewhere in between?  Too bad.  No can do.  There is no way you can stay at this hotel without renting a car.There is no smoking allowed in the hotel (good!) and as a result there are always several people right outside the front door smoking up a storm.  Frequently these are Candlewood employees.  UGH!  The front desk people were pleasant enough, but not one of them knew anything about the area, had maps, or had any info about the Final Four! There is no business center and there was no way to print anything off of a computer.  Lastly, I bought a couple of things from the little convenience area by the front desk, which were fairlly priced BTW, but the area reeked so strongly of curry that I could hardly stand to go in there.  This hotel has rooms for nearly $250 a night!  I would never stay here again.  EVER!days!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r99013597-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>99013597</t>
+  </si>
+  <si>
+    <t>03/05/2011</t>
+  </si>
+  <si>
+    <t>Incompetent Staff, Questionable Billing</t>
+  </si>
+  <si>
+    <t>Oh my, where do I start?  What a horrible experience.  So, I guess we'll just start with the most senior staff member I had the misfortune of dealing with, Londa.  This woman wouldn't know customer service if it walked up and shook her hand. Lied to me about not being able to reverse charges at the hotel (this was confirmed by a call to IC Hotels Customer Relations), lied to me about her role at the hotel, condescending and rude.  Treated me like a child who never travels and doesn't know how to make a reservation (I stay in hotels at least 3 nights a week for work).  Dear Londa, calling a customer a liar is probably a bad idea.
+After my first call to Customer Relations I was assured that the GM of the hotel would be contacting me and my billing issue would be resolved before I ever checked out. It's 3 days later, I'm checked out, and I still haven't heard anything.
+Now, about that check out.  The woman at the counter was unable to even give me receipt (something I need to be able to do my expense report for my company).  She told me that I'd have to call when the manager was in on Monday to get it. 
+They have a pool, but it was out of service the whole time we were there.  Sleep quality was poor because of the noise.  When I...Oh my, where do I start?  What a horrible experience.  So, I guess we'll just start with the most senior staff member I had the misfortune of dealing with, Londa.  This woman wouldn't know customer service if it walked up and shook her hand. Lied to me about not being able to reverse charges at the hotel (this was confirmed by a call to IC Hotels Customer Relations), lied to me about her role at the hotel, condescending and rude.  Treated me like a child who never travels and doesn't know how to make a reservation (I stay in hotels at least 3 nights a week for work).  Dear Londa, calling a customer a liar is probably a bad idea.After my first call to Customer Relations I was assured that the GM of the hotel would be contacting me and my billing issue would be resolved before I ever checked out. It's 3 days later, I'm checked out, and I still haven't heard anything.Now, about that check out.  The woman at the counter was unable to even give me receipt (something I need to be able to do my expense report for my company).  She told me that I'd have to call when the manager was in on Monday to get it. They have a pool, but it was out of service the whole time we were there.  Sleep quality was poor because of the noise.  When I called the front desk about the noise, she told me I should go knock on their door.  One night the TV in the room next to me blaring until I finally called and asked him to turn it down at 4 in the morning.  The other nights it was the room above me apparently moving furniture or hosting WWF event. Silverware in the room looks like it was purchased in the bargain bin at a garage sale.  The rooms were pretty clean and the gentlemen working a couple of days at the front desk was really friendly.Run away. Very quickly.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>Oh my, where do I start?  What a horrible experience.  So, I guess we'll just start with the most senior staff member I had the misfortune of dealing with, Londa.  This woman wouldn't know customer service if it walked up and shook her hand. Lied to me about not being able to reverse charges at the hotel (this was confirmed by a call to IC Hotels Customer Relations), lied to me about her role at the hotel, condescending and rude.  Treated me like a child who never travels and doesn't know how to make a reservation (I stay in hotels at least 3 nights a week for work).  Dear Londa, calling a customer a liar is probably a bad idea.
+After my first call to Customer Relations I was assured that the GM of the hotel would be contacting me and my billing issue would be resolved before I ever checked out. It's 3 days later, I'm checked out, and I still haven't heard anything.
+Now, about that check out.  The woman at the counter was unable to even give me receipt (something I need to be able to do my expense report for my company).  She told me that I'd have to call when the manager was in on Monday to get it. 
+They have a pool, but it was out of service the whole time we were there.  Sleep quality was poor because of the noise.  When I...Oh my, where do I start?  What a horrible experience.  So, I guess we'll just start with the most senior staff member I had the misfortune of dealing with, Londa.  This woman wouldn't know customer service if it walked up and shook her hand. Lied to me about not being able to reverse charges at the hotel (this was confirmed by a call to IC Hotels Customer Relations), lied to me about her role at the hotel, condescending and rude.  Treated me like a child who never travels and doesn't know how to make a reservation (I stay in hotels at least 3 nights a week for work).  Dear Londa, calling a customer a liar is probably a bad idea.After my first call to Customer Relations I was assured that the GM of the hotel would be contacting me and my billing issue would be resolved before I ever checked out. It's 3 days later, I'm checked out, and I still haven't heard anything.Now, about that check out.  The woman at the counter was unable to even give me receipt (something I need to be able to do my expense report for my company).  She told me that I'd have to call when the manager was in on Monday to get it. They have a pool, but it was out of service the whole time we were there.  Sleep quality was poor because of the noise.  When I called the front desk about the noise, she told me I should go knock on their door.  One night the TV in the room next to me blaring until I finally called and asked him to turn it down at 4 in the morning.  The other nights it was the room above me apparently moving furniture or hosting WWF event. Silverware in the room looks like it was purchased in the bargain bin at a garage sale.  The rooms were pretty clean and the gentlemen working a couple of days at the front desk was really friendly.Run away. Very quickly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r96518496-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>96518496</t>
+  </si>
+  <si>
+    <t>02/13/2011</t>
+  </si>
+  <si>
+    <t>Great place to stay for MD Anderson business</t>
+  </si>
+  <si>
+    <t>Somewhat reasonable rate, nice room, comfy bed, great service.  Lakeisha checked us in promptly and with great customer service.  Manuel shuttled us back and forth to various visits to the Mays clinic and MD Anderson.  Other riders were going to the Children's hospital and other places, great service.  We tipped our drivers, and they appreciated it.  Indoor hot tub was hot, pool was too cool for me, but saw some youngsters enjoying it one afternoon.  We selected a movie from the offering downstairs.  It was scratched and wouldn't play, so we rode up to the drug store on Main to the Redbox and got two movies.  The hotel offered a selection of pillows, but when I took mine downstairs to trade it in for something else, there were none available.  So, if you want to take advantage of that, do so early.  We bring our own pillows anyway, so no big deal.  Very VERY quiet hotel.  We did not hear a thing, even though the freeway was right there.  Felt very secure with the limited access to the hotel. If you're going to stay here, check out the map online first.  Yes, you do need to go through the Taco Bell or Golden Corral parking lot if you're coming from the north.  We will stay here again.  Next time we'll use the on-site bbq grill on the patio, wonderful idea but we were not prepared.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>Somewhat reasonable rate, nice room, comfy bed, great service.  Lakeisha checked us in promptly and with great customer service.  Manuel shuttled us back and forth to various visits to the Mays clinic and MD Anderson.  Other riders were going to the Children's hospital and other places, great service.  We tipped our drivers, and they appreciated it.  Indoor hot tub was hot, pool was too cool for me, but saw some youngsters enjoying it one afternoon.  We selected a movie from the offering downstairs.  It was scratched and wouldn't play, so we rode up to the drug store on Main to the Redbox and got two movies.  The hotel offered a selection of pillows, but when I took mine downstairs to trade it in for something else, there were none available.  So, if you want to take advantage of that, do so early.  We bring our own pillows anyway, so no big deal.  Very VERY quiet hotel.  We did not hear a thing, even though the freeway was right there.  Felt very secure with the limited access to the hotel. If you're going to stay here, check out the map online first.  Yes, you do need to go through the Taco Bell or Golden Corral parking lot if you're coming from the north.  We will stay here again.  Next time we'll use the on-site bbq grill on the patio, wonderful idea but we were not prepared.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r87710172-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1313,6 +2049,52 @@
   </si>
   <si>
     <t>My Mom was recently diagnosed with Cancer and we have the privilege to go to MD Anderson.  My parents called this hotel and they gave us the nightly rate for medical patients.  My Mom asked if it was okay if we checked out early because things constantly change with Doctors appointments.  She was told it would not be a problem.  The hotel was very nice.  We initially booked the room for 7 nights and it turns out that we just needed it for 6 nights.  We found out we would be leaving for home a day early so we went down 2 days before our check out and they again said "No Problem" just check out the morning you are leaving.  My parents go down to check out our last morning and find out they are charging us $5 extra a day since we didn't stay the whole 7 nights.  This was not disclosed at any time. They charged us an extra $30 for checking out a day early.  It is not about the money but it is the fact they had 2 opportunities to disclose this and they did not.  I just don't want other cancer patients to get the same charges that we did.  It is pretty despicable that they would treat their cancer patients this way.  The last thing they need to worry about are additional fees from the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r75076536-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>75076536</t>
+  </si>
+  <si>
+    <t>08/13/2010</t>
+  </si>
+  <si>
+    <t>New, Clean and everything we could want in a suites hotel...   :)</t>
+  </si>
+  <si>
+    <t>We just returned from a week at the Candlewood Suites.    We had not stayed at this chain before and did not know what to expect.  We were very pleased with our stay, and it was a real bargain at $99 a night.   We had a large 1 BR suite.  There was plenty of room for a family of three.  Our daughter stayed on the pull out coach.  She was cozy, but the AC is right near the coach so we had to bundle her up at night.  The bedroom did not have a separate AC unit, but there is a fan in the wall, to help move the air into the bedroom.  Despite this the BR always was a few degrees warmer.  
+There is a full kitchen, with all the utensils and appliances you need.   I’ve stayed at other suites and they are always lacking in this area.  The room was supper clean and everything seemed very new.  The rooms were quite and large.  The lights in the bedroom were a bit weird, as the switch on the wall turned all lights off in the room, and the small lamp by the bed could not be turned off without getting out of bed.
+The common areas were also very clean.  The staff was very helpful when ever we needed anything.  They only have once a week housekeeping so if you want fresh towels, or need TP you ask the folks...We just returned from a week at the Candlewood Suites.    We had not stayed at this chain before and did not know what to expect.  We were very pleased with our stay, and it was a real bargain at $99 a night.   We had a large 1 BR suite.  There was plenty of room for a family of three.  Our daughter stayed on the pull out coach.  She was cozy, but the AC is right near the coach so we had to bundle her up at night.  The bedroom did not have a separate AC unit, but there is a fan in the wall, to help move the air into the bedroom.  Despite this the BR always was a few degrees warmer.  There is a full kitchen, with all the utensils and appliances you need.   I’ve stayed at other suites and they are always lacking in this area.  The room was supper clean and everything seemed very new.  The rooms were quite and large.  The lights in the bedroom were a bit weird, as the switch on the wall turned all lights off in the room, and the small lamp by the bed could not be turned off without getting out of bed.The common areas were also very clean.  The staff was very helpful when ever we needed anything.  They only have once a week housekeeping so if you want fresh towels, or need TP you ask the folks at the front desk and they happily take care or you.  There is also a small store by the entrance in case you need any small food items.  There is a super target and Kroger’s just down the street however. There is free laundry which was great, the machines and laundry room was nice and clean.  The pool was pretty small, but on most days we were the only ones using this.   The pool area was also clean and tidy, with ample towels.  As the hotel is near the medical center, there are many guests there who are receiving medical treatments.      You have to zig zag through a few other parking lots to get to the hotel, and it can be hard to get in the right direction due to the traffic flow, which is very heavy.  The hotel was set back enough from the traffic so you don’t hear it.  There are plenty of services and places to eat, down S. Main Street.Overall this was a great place for us, it was close to where we wanted to be, clean, new and a good deal for us.  We would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>We just returned from a week at the Candlewood Suites.    We had not stayed at this chain before and did not know what to expect.  We were very pleased with our stay, and it was a real bargain at $99 a night.   We had a large 1 BR suite.  There was plenty of room for a family of three.  Our daughter stayed on the pull out coach.  She was cozy, but the AC is right near the coach so we had to bundle her up at night.  The bedroom did not have a separate AC unit, but there is a fan in the wall, to help move the air into the bedroom.  Despite this the BR always was a few degrees warmer.  
+There is a full kitchen, with all the utensils and appliances you need.   I’ve stayed at other suites and they are always lacking in this area.  The room was supper clean and everything seemed very new.  The rooms were quite and large.  The lights in the bedroom were a bit weird, as the switch on the wall turned all lights off in the room, and the small lamp by the bed could not be turned off without getting out of bed.
+The common areas were also very clean.  The staff was very helpful when ever we needed anything.  They only have once a week housekeeping so if you want fresh towels, or need TP you ask the folks...We just returned from a week at the Candlewood Suites.    We had not stayed at this chain before and did not know what to expect.  We were very pleased with our stay, and it was a real bargain at $99 a night.   We had a large 1 BR suite.  There was plenty of room for a family of three.  Our daughter stayed on the pull out coach.  She was cozy, but the AC is right near the coach so we had to bundle her up at night.  The bedroom did not have a separate AC unit, but there is a fan in the wall, to help move the air into the bedroom.  Despite this the BR always was a few degrees warmer.  There is a full kitchen, with all the utensils and appliances you need.   I’ve stayed at other suites and they are always lacking in this area.  The room was supper clean and everything seemed very new.  The rooms were quite and large.  The lights in the bedroom were a bit weird, as the switch on the wall turned all lights off in the room, and the small lamp by the bed could not be turned off without getting out of bed.The common areas were also very clean.  The staff was very helpful when ever we needed anything.  They only have once a week housekeeping so if you want fresh towels, or need TP you ask the folks at the front desk and they happily take care or you.  There is also a small store by the entrance in case you need any small food items.  There is a super target and Kroger’s just down the street however. There is free laundry which was great, the machines and laundry room was nice and clean.  The pool was pretty small, but on most days we were the only ones using this.   The pool area was also clean and tidy, with ample towels.  As the hotel is near the medical center, there are many guests there who are receiving medical treatments.      You have to zig zag through a few other parking lots to get to the hotel, and it can be hard to get in the right direction due to the traffic flow, which is very heavy.  The hotel was set back enough from the traffic so you don’t hear it.  There are plenty of services and places to eat, down S. Main Street.Overall this was a great place for us, it was close to where we wanted to be, clean, new and a good deal for us.  We would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r50193794-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>50193794</t>
+  </si>
+  <si>
+    <t>11/27/2009</t>
+  </si>
+  <si>
+    <t>I was extremely pleased with this hotel.</t>
+  </si>
+  <si>
+    <t>This is an all-suite hotel, so all of the units have a kitchen, which is nice because you don't have to spend so much eating out.  The hotel looks new and it is very well kept.  First we stayed in a small suite (it may be called studio or efficiency).  It had a queen-size beed, an armchair, small desk/table, and full kitchen.  Since my husband and I are used to sleeping in a king-size bed, we decided to move to a one-bedroom suite.  It was very, very nice, because it had a separate bedroom with TV, chest of drawers, nightstand, table, and closet (and one queen bed).  Then there was a living room with another TV, armchair and a queen-size sofa bed.  There was a full kitchen and a large desk/table.  Also another closet.  The bathroom in both types of units was roomy and nice.  I liked the laminate floors in the kitchen and also the color scheme.  They have a shuttle that runs Monday thru Friday and it takes you to the Medical Center and also to other places within 3 miles.  The staff is very friendly and helpful.  They make you feel welcome and at home.  If I could change something, it would be to have some units with king beds.  Otherwise it is perfect.  It is not a fancy hotel, but it has everything you need.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>This is an all-suite hotel, so all of the units have a kitchen, which is nice because you don't have to spend so much eating out.  The hotel looks new and it is very well kept.  First we stayed in a small suite (it may be called studio or efficiency).  It had a queen-size beed, an armchair, small desk/table, and full kitchen.  Since my husband and I are used to sleeping in a king-size bed, we decided to move to a one-bedroom suite.  It was very, very nice, because it had a separate bedroom with TV, chest of drawers, nightstand, table, and closet (and one queen bed).  Then there was a living room with another TV, armchair and a queen-size sofa bed.  There was a full kitchen and a large desk/table.  Also another closet.  The bathroom in both types of units was roomy and nice.  I liked the laminate floors in the kitchen and also the color scheme.  They have a shuttle that runs Monday thru Friday and it takes you to the Medical Center and also to other places within 3 miles.  The staff is very friendly and helpful.  They make you feel welcome and at home.  If I could change something, it would be to have some units with king beds.  Otherwise it is perfect.  It is not a fancy hotel, but it has everything you need.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1212489-r48090009-Candlewood_Suites_Houston_Medical_Center-Houston_Texas.html</t>
@@ -1885,14 +2667,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" t="s">
-        <v>53</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1908,40 +2686,42 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1950,14 +2730,10 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1973,58 +2749,48 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4" t="s">
-        <v>73</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -2040,7 +2806,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2049,26 +2815,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s">
-        <v>71</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -2078,10 +2840,14 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -2097,7 +2863,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2106,47 +2872,47 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -2162,7 +2928,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2171,49 +2937,49 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -2229,7 +2995,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2238,39 +3004,49 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8" t="s">
+        <v>90</v>
+      </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -2286,7 +3062,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2295,43 +3071,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -2347,7 +3119,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2356,43 +3128,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -2408,7 +3176,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2417,47 +3185,47 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -2473,7 +3241,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2482,43 +3250,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -2534,7 +3308,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2543,49 +3317,39 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>142</v>
-      </c>
-      <c r="X13" t="s">
-        <v>143</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
@@ -2601,7 +3365,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2610,43 +3374,45 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>96</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>151</v>
-      </c>
-      <c r="X14" t="s">
-        <v>152</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
@@ -2662,7 +3428,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2671,22 +3437,26 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
@@ -2696,14 +3466,10 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>159</v>
-      </c>
-      <c r="X15" t="s">
-        <v>160</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
@@ -2719,7 +3485,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2728,47 +3494,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>167</v>
-      </c>
-      <c r="X16" t="s">
-        <v>168</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
@@ -2784,7 +3546,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2793,43 +3555,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>176</v>
-      </c>
-      <c r="X17" t="s">
-        <v>177</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
@@ -2845,7 +3607,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2854,35 +3616,35 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>185</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2890,7 +3652,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
@@ -2906,7 +3668,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2915,45 +3677,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s">
-        <v>96</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>172</v>
+      </c>
+      <c r="X19" t="s">
+        <v>173</v>
+      </c>
       <c r="Y19" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
@@ -2969,7 +3729,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2978,39 +3738,47 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>181</v>
+      </c>
+      <c r="X20" t="s">
+        <v>182</v>
+      </c>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
@@ -3026,7 +3794,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3035,43 +3803,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>190</v>
+      </c>
+      <c r="X21" t="s">
+        <v>191</v>
+      </c>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
@@ -3087,7 +3855,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3096,34 +3864,34 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>96</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>4</v>
@@ -3131,10 +3899,14 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>199</v>
+      </c>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -3150,7 +3922,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3159,45 +3931,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X23" t="s">
+        <v>208</v>
+      </c>
       <c r="Y23" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
@@ -3213,7 +3983,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3222,25 +3992,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3251,10 +4021,14 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>216</v>
+      </c>
+      <c r="X24" t="s">
+        <v>217</v>
+      </c>
       <c r="Y24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25">
@@ -3270,34 +4044,34 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
         <v>223</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>224</v>
       </c>
-      <c r="J25" t="s">
-        <v>225</v>
-      </c>
-      <c r="K25" t="s">
-        <v>226</v>
-      </c>
-      <c r="L25" t="s">
-        <v>227</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>228</v>
-      </c>
       <c r="O25" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3308,8 +4082,12 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>225</v>
+      </c>
+      <c r="X25" t="s">
+        <v>226</v>
+      </c>
       <c r="Y25" t="s">
         <v>227</v>
       </c>
@@ -3327,54 +4105,48 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
         <v>229</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>230</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>231</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>232</v>
       </c>
-      <c r="L26" t="s">
-        <v>233</v>
-      </c>
       <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>234</v>
-      </c>
-      <c r="O26" t="s">
-        <v>96</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>233</v>
+      </c>
+      <c r="X26" t="s">
+        <v>234</v>
+      </c>
       <c r="Y26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
@@ -3390,7 +4162,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3399,43 +4171,47 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>241</v>
+      </c>
+      <c r="X27" t="s">
+        <v>242</v>
+      </c>
       <c r="Y27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
@@ -3451,7 +4227,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3460,47 +4236,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J28" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="O28" t="s">
-        <v>112</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>1</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="X28" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Y28" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
@@ -3516,7 +4288,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3525,38 +4297,34 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
       </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
         <v>5</v>
       </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3567,7 +4335,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
@@ -3583,7 +4351,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3592,45 +4360,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J30" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
         <v>257</v>
       </c>
-      <c r="K30" t="s">
-        <v>258</v>
-      </c>
-      <c r="L30" t="s">
-        <v>259</v>
-      </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="O30" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>264</v>
+      </c>
+      <c r="X30" t="s">
+        <v>265</v>
+      </c>
       <c r="Y30" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31">
@@ -3646,7 +4412,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3655,53 +4421,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="J31" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="K31" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
       </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>265</v>
-      </c>
-      <c r="X31" t="s">
-        <v>266</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
@@ -3717,7 +4473,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3726,38 +4482,34 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
         <v>5</v>
       </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -3765,14 +4517,10 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>265</v>
-      </c>
-      <c r="X32" t="s">
-        <v>266</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33">
@@ -3788,7 +4536,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3797,38 +4545,32 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K33" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s">
-        <v>71</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
-        <v>2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
         <v>3</v>
       </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>3</v>
@@ -3837,13 +4579,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="X33" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34">
@@ -3859,7 +4601,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3868,38 +4610,32 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="J34" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K34" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>3</v>
@@ -3908,13 +4644,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="X34" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Y34" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
@@ -3930,7 +4666,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3939,49 +4675,39 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J35" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" t="s">
+        <v>301</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
         <v>293</v>
       </c>
-      <c r="L35" t="s">
-        <v>294</v>
-      </c>
-      <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>295</v>
-      </c>
       <c r="O35" t="s">
-        <v>96</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36">
@@ -3997,7 +4723,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4006,38 +4732,32 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="J36" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>302</v>
+        <v>215</v>
       </c>
       <c r="O36" t="s">
-        <v>96</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
         <v>5</v>
       </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -4048,7 +4768,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37">
@@ -4064,7 +4784,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4073,35 +4793,31 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="J37" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="O37" t="s">
-        <v>112</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
         <v>4</v>
       </c>
@@ -4115,7 +4831,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38">
@@ -4131,7 +4847,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4140,49 +4856,45 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="J38" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K38" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s">
+        <v>319</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
         <v>313</v>
       </c>
-      <c r="M38" t="n">
-        <v>2</v>
-      </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+      <c r="O38" t="s">
+        <v>58</v>
+      </c>
       <c r="P38" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>314</v>
-      </c>
-      <c r="X38" t="s">
-        <v>315</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39">
@@ -4198,7 +4910,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4207,51 +4919,41 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J39" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K39" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L39" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="O39" t="s">
-        <v>96</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
         <v>4</v>
       </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>323</v>
-      </c>
-      <c r="X39" t="s">
-        <v>324</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
         <v>325</v>
       </c>
@@ -4290,41 +4992,33 @@
         <v>330</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
         <v>331</v>
       </c>
       <c r="O40" t="s">
-        <v>96</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>332</v>
-      </c>
-      <c r="X40" t="s">
-        <v>333</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41">
@@ -4340,58 +5034,48 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>333</v>
+      </c>
+      <c r="J41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" t="s">
         <v>335</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="L41" t="s">
         <v>336</v>
       </c>
-      <c r="J41" t="s">
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>337</v>
       </c>
-      <c r="K41" t="s">
-        <v>338</v>
-      </c>
-      <c r="L41" t="s">
-        <v>339</v>
-      </c>
-      <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s">
-        <v>340</v>
-      </c>
       <c r="O41" t="s">
-        <v>96</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42">
@@ -4407,62 +5091,48 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>338</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>339</v>
+      </c>
+      <c r="J42" t="s">
+        <v>340</v>
+      </c>
+      <c r="K42" t="s">
+        <v>341</v>
+      </c>
+      <c r="L42" t="s">
         <v>342</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
         <v>343</v>
       </c>
-      <c r="J42" t="s">
-        <v>344</v>
-      </c>
-      <c r="K42" t="s">
-        <v>345</v>
-      </c>
-      <c r="L42" t="s">
-        <v>346</v>
-      </c>
-      <c r="M42" t="n">
-        <v>3</v>
-      </c>
-      <c r="N42" t="s">
-        <v>347</v>
-      </c>
       <c r="O42" t="s">
-        <v>96</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>3</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>348</v>
-      </c>
-      <c r="X42" t="s">
-        <v>349</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43">
@@ -4478,7 +5148,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4487,41 +5157,35 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="J43" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="K43" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="O43" t="s">
-        <v>112</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4529,7 +5193,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44">
@@ -4545,7 +5209,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4554,49 +5218,47 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J44" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K44" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L44" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="O44" t="s">
-        <v>71</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>356</v>
+      </c>
+      <c r="X44" t="s">
+        <v>357</v>
+      </c>
       <c r="Y44" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45">
@@ -4612,47 +5274,43 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
+        <v>359</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>360</v>
+      </c>
+      <c r="J45" t="s">
+        <v>361</v>
+      </c>
+      <c r="K45" t="s">
+        <v>362</v>
+      </c>
+      <c r="L45" t="s">
+        <v>363</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
         <v>364</v>
       </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s">
-        <v>365</v>
-      </c>
-      <c r="J45" t="s">
-        <v>366</v>
-      </c>
-      <c r="K45" t="s">
-        <v>367</v>
-      </c>
-      <c r="L45" t="s">
-        <v>368</v>
-      </c>
-      <c r="M45" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s">
-        <v>369</v>
-      </c>
       <c r="O45" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -4663,7 +5321,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46">
@@ -4679,7 +5337,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4688,41 +5346,35 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J46" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K46" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="O46" t="s">
-        <v>61</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4730,7 +5382,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47">
@@ -4746,7 +5398,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4755,45 +5407,47 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J47" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="K47" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>376</v>
+      </c>
+      <c r="X47" t="s">
+        <v>377</v>
+      </c>
       <c r="Y47" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48">
@@ -4809,7 +5463,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4818,43 +5472,35 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="J48" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K48" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
-      </c>
-      <c r="N48" t="s">
-        <v>389</v>
-      </c>
-      <c r="O48" t="s">
-        <v>96</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>1</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49">
@@ -4870,7 +5516,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4879,49 +5525,53 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="J49" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K49" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="O49" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>390</v>
+      </c>
+      <c r="X49" t="s">
+        <v>391</v>
+      </c>
       <c r="Y49" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50">
@@ -4937,34 +5587,34 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>394</v>
+      </c>
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s">
+        <v>397</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
         <v>398</v>
       </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" t="s">
-        <v>399</v>
-      </c>
-      <c r="J50" t="s">
-        <v>400</v>
-      </c>
-      <c r="K50" t="s">
-        <v>401</v>
-      </c>
-      <c r="L50" t="s">
-        <v>402</v>
-      </c>
-      <c r="M50" t="n">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s">
-        <v>403</v>
-      </c>
       <c r="O50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4988,7 +5638,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51">
@@ -5004,7 +5654,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5013,37 +5663,33 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J51" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K51" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L51" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
-      </c>
-      <c r="N51" t="s">
-        <v>409</v>
-      </c>
-      <c r="O51" t="s">
-        <v>96</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
         <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
@@ -5055,7 +5701,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52">
@@ -5071,7 +5717,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5080,49 +5726,53 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="J52" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K52" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L52" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="O52" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
         <v>5</v>
       </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>409</v>
+      </c>
+      <c r="X52" t="s">
+        <v>410</v>
+      </c>
       <c r="Y52" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53">
@@ -5138,58 +5788,2553 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
+        <v>412</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>413</v>
+      </c>
+      <c r="J53" t="s">
+        <v>414</v>
+      </c>
+      <c r="K53" t="s">
+        <v>415</v>
+      </c>
+      <c r="L53" t="s">
+        <v>416</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
         <v>417</v>
       </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="O53" t="s">
+        <v>58</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>409</v>
+      </c>
+      <c r="X53" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y53" t="s">
         <v>418</v>
       </c>
-      <c r="J53" t="s">
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
         <v>419</v>
       </c>
-      <c r="K53" t="s">
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
         <v>420</v>
       </c>
-      <c r="L53" t="s">
+      <c r="J54" t="s">
         <v>421</v>
       </c>
-      <c r="M53" t="n">
-        <v>5</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="K54" t="s">
         <v>422</v>
       </c>
-      <c r="O53" t="s">
+      <c r="L54" t="s">
+        <v>423</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>409</v>
+      </c>
+      <c r="X54" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>425</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>426</v>
+      </c>
+      <c r="J55" t="s">
+        <v>427</v>
+      </c>
+      <c r="K55" t="s">
+        <v>428</v>
+      </c>
+      <c r="L55" t="s">
+        <v>429</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>417</v>
+      </c>
+      <c r="O55" t="s">
+        <v>126</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>409</v>
+      </c>
+      <c r="X55" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>431</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>432</v>
+      </c>
+      <c r="J56" t="s">
+        <v>433</v>
+      </c>
+      <c r="K56" t="s">
+        <v>434</v>
+      </c>
+      <c r="L56" t="s">
+        <v>435</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>417</v>
+      </c>
+      <c r="O56" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>409</v>
+      </c>
+      <c r="X56" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>438</v>
+      </c>
+      <c r="J57" t="s">
+        <v>439</v>
+      </c>
+      <c r="K57" t="s">
+        <v>440</v>
+      </c>
+      <c r="L57" t="s">
+        <v>441</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>442</v>
+      </c>
+      <c r="O57" t="s">
+        <v>58</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>443</v>
+      </c>
+      <c r="X57" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>446</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>447</v>
+      </c>
+      <c r="J58" t="s">
+        <v>448</v>
+      </c>
+      <c r="K58" t="s">
+        <v>449</v>
+      </c>
+      <c r="L58" t="s">
+        <v>450</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>442</v>
+      </c>
+      <c r="O58" t="s">
+        <v>126</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>409</v>
+      </c>
+      <c r="X58" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>452</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>453</v>
+      </c>
+      <c r="J59" t="s">
+        <v>448</v>
+      </c>
+      <c r="K59" t="s">
+        <v>454</v>
+      </c>
+      <c r="L59" t="s">
+        <v>455</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>442</v>
+      </c>
+      <c r="O59" t="s">
+        <v>58</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>409</v>
+      </c>
+      <c r="X59" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>457</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>458</v>
+      </c>
+      <c r="J60" t="s">
+        <v>459</v>
+      </c>
+      <c r="K60" t="s">
+        <v>460</v>
+      </c>
+      <c r="L60" t="s">
+        <v>461</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>462</v>
+      </c>
+      <c r="O60" t="s">
+        <v>126</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>464</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>465</v>
+      </c>
+      <c r="J61" t="s">
+        <v>466</v>
+      </c>
+      <c r="K61" t="s">
+        <v>467</v>
+      </c>
+      <c r="L61" t="s">
+        <v>468</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>469</v>
+      </c>
+      <c r="O61" t="s">
+        <v>126</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>471</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>472</v>
+      </c>
+      <c r="J62" t="s">
+        <v>466</v>
+      </c>
+      <c r="K62" t="s">
+        <v>473</v>
+      </c>
+      <c r="L62" t="s">
+        <v>474</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>469</v>
+      </c>
+      <c r="O62" t="s">
+        <v>98</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>476</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>477</v>
+      </c>
+      <c r="J63" t="s">
+        <v>466</v>
+      </c>
+      <c r="K63" t="s">
+        <v>478</v>
+      </c>
+      <c r="L63" t="s">
+        <v>479</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>480</v>
+      </c>
+      <c r="O63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>482</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>483</v>
+      </c>
+      <c r="J64" t="s">
+        <v>484</v>
+      </c>
+      <c r="K64" t="s">
+        <v>485</v>
+      </c>
+      <c r="L64" t="s">
+        <v>486</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>480</v>
+      </c>
+      <c r="O64" t="s">
+        <v>98</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>488</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>489</v>
+      </c>
+      <c r="J65" t="s">
+        <v>490</v>
+      </c>
+      <c r="K65" t="s">
+        <v>491</v>
+      </c>
+      <c r="L65" t="s">
+        <v>492</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>493</v>
+      </c>
+      <c r="X65" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>496</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>497</v>
+      </c>
+      <c r="J66" t="s">
+        <v>498</v>
+      </c>
+      <c r="K66" t="s">
+        <v>499</v>
+      </c>
+      <c r="L66" t="s">
+        <v>500</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>501</v>
+      </c>
+      <c r="O66" t="s">
+        <v>126</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>502</v>
+      </c>
+      <c r="X66" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>505</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>506</v>
+      </c>
+      <c r="J67" t="s">
+        <v>507</v>
+      </c>
+      <c r="K67" t="s">
+        <v>508</v>
+      </c>
+      <c r="L67" t="s">
+        <v>509</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>510</v>
+      </c>
+      <c r="O67" t="s">
+        <v>126</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>511</v>
+      </c>
+      <c r="X67" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>514</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>515</v>
+      </c>
+      <c r="J68" t="s">
+        <v>516</v>
+      </c>
+      <c r="K68" t="s">
+        <v>517</v>
+      </c>
+      <c r="L68" t="s">
+        <v>518</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>519</v>
+      </c>
+      <c r="O68" t="s">
+        <v>58</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>520</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>521</v>
+      </c>
+      <c r="J69" t="s">
+        <v>522</v>
+      </c>
+      <c r="K69" t="s">
+        <v>523</v>
+      </c>
+      <c r="L69" t="s">
+        <v>524</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>525</v>
+      </c>
+      <c r="O69" t="s">
+        <v>58</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>527</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>528</v>
+      </c>
+      <c r="J70" t="s">
+        <v>529</v>
+      </c>
+      <c r="K70" t="s">
+        <v>530</v>
+      </c>
+      <c r="L70" t="s">
+        <v>531</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>532</v>
+      </c>
+      <c r="O70" t="s">
+        <v>126</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>534</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>535</v>
+      </c>
+      <c r="J71" t="s">
+        <v>536</v>
+      </c>
+      <c r="K71" t="s">
+        <v>537</v>
+      </c>
+      <c r="L71" t="s">
+        <v>538</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>539</v>
+      </c>
+      <c r="O71" t="s">
+        <v>126</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>540</v>
+      </c>
+      <c r="X71" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
         <v>71</v>
       </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
-      <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s">
-        <v>423</v>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>543</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>544</v>
+      </c>
+      <c r="J72" t="s">
+        <v>545</v>
+      </c>
+      <c r="K72" t="s">
+        <v>546</v>
+      </c>
+      <c r="L72" t="s">
+        <v>547</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>548</v>
+      </c>
+      <c r="O72" t="s">
+        <v>98</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>550</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>551</v>
+      </c>
+      <c r="J73" t="s">
+        <v>545</v>
+      </c>
+      <c r="K73" t="s">
+        <v>552</v>
+      </c>
+      <c r="L73" t="s">
+        <v>553</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>539</v>
+      </c>
+      <c r="O73" t="s">
+        <v>98</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>555</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>556</v>
+      </c>
+      <c r="J74" t="s">
+        <v>557</v>
+      </c>
+      <c r="K74" t="s">
+        <v>558</v>
+      </c>
+      <c r="L74" t="s">
+        <v>559</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>560</v>
+      </c>
+      <c r="O74" t="s">
+        <v>65</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>561</v>
+      </c>
+      <c r="X74" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>564</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>565</v>
+      </c>
+      <c r="J75" t="s">
+        <v>566</v>
+      </c>
+      <c r="K75" t="s">
+        <v>567</v>
+      </c>
+      <c r="L75" t="s">
+        <v>568</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>569</v>
+      </c>
+      <c r="O75" t="s">
+        <v>65</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>570</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>571</v>
+      </c>
+      <c r="J76" t="s">
+        <v>572</v>
+      </c>
+      <c r="K76" t="s">
+        <v>573</v>
+      </c>
+      <c r="L76" t="s">
+        <v>574</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>575</v>
+      </c>
+      <c r="O76" t="s">
+        <v>126</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>577</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>578</v>
+      </c>
+      <c r="J77" t="s">
+        <v>579</v>
+      </c>
+      <c r="K77" t="s">
+        <v>580</v>
+      </c>
+      <c r="L77" t="s">
+        <v>581</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>582</v>
+      </c>
+      <c r="O77" t="s">
+        <v>58</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>584</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>585</v>
+      </c>
+      <c r="J78" t="s">
+        <v>586</v>
+      </c>
+      <c r="K78" t="s">
+        <v>587</v>
+      </c>
+      <c r="L78" t="s">
+        <v>588</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>589</v>
+      </c>
+      <c r="O78" t="s">
+        <v>126</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>590</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>591</v>
+      </c>
+      <c r="J79" t="s">
+        <v>592</v>
+      </c>
+      <c r="K79" t="s">
+        <v>593</v>
+      </c>
+      <c r="L79" t="s">
+        <v>594</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>560</v>
+      </c>
+      <c r="O79" t="s">
+        <v>65</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>596</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>597</v>
+      </c>
+      <c r="J80" t="s">
+        <v>598</v>
+      </c>
+      <c r="K80" t="s">
+        <v>599</v>
+      </c>
+      <c r="L80" t="s">
+        <v>600</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>601</v>
+      </c>
+      <c r="O80" t="s">
+        <v>58</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>602</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>603</v>
+      </c>
+      <c r="J81" t="s">
+        <v>604</v>
+      </c>
+      <c r="K81" t="s">
+        <v>605</v>
+      </c>
+      <c r="L81" t="s">
+        <v>606</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>607</v>
+      </c>
+      <c r="O81" t="s">
+        <v>126</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>609</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>610</v>
+      </c>
+      <c r="J82" t="s">
+        <v>611</v>
+      </c>
+      <c r="K82" t="s">
+        <v>612</v>
+      </c>
+      <c r="L82" t="s">
+        <v>613</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>614</v>
+      </c>
+      <c r="O82" t="s">
+        <v>65</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>616</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>617</v>
+      </c>
+      <c r="J83" t="s">
+        <v>618</v>
+      </c>
+      <c r="K83" t="s">
+        <v>619</v>
+      </c>
+      <c r="L83" t="s">
+        <v>620</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>621</v>
+      </c>
+      <c r="O83" t="s">
+        <v>58</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>623</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>624</v>
+      </c>
+      <c r="J84" t="s">
+        <v>625</v>
+      </c>
+      <c r="K84" t="s">
+        <v>626</v>
+      </c>
+      <c r="L84" t="s">
+        <v>627</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>628</v>
+      </c>
+      <c r="O84" t="s">
+        <v>65</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>630</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>631</v>
+      </c>
+      <c r="J85" t="s">
+        <v>632</v>
+      </c>
+      <c r="K85" t="s">
+        <v>633</v>
+      </c>
+      <c r="L85" t="s">
+        <v>634</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>635</v>
+      </c>
+      <c r="O85" t="s">
+        <v>58</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>636</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>637</v>
+      </c>
+      <c r="J86" t="s">
+        <v>638</v>
+      </c>
+      <c r="K86" t="s">
+        <v>639</v>
+      </c>
+      <c r="L86" t="s">
+        <v>640</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>641</v>
+      </c>
+      <c r="O86" t="s">
+        <v>126</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>642</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>643</v>
+      </c>
+      <c r="J87" t="s">
+        <v>644</v>
+      </c>
+      <c r="K87" t="s">
+        <v>645</v>
+      </c>
+      <c r="L87" t="s">
+        <v>646</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>647</v>
+      </c>
+      <c r="O87" t="s">
+        <v>126</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>649</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>650</v>
+      </c>
+      <c r="J88" t="s">
+        <v>651</v>
+      </c>
+      <c r="K88" t="s">
+        <v>652</v>
+      </c>
+      <c r="L88" t="s">
+        <v>653</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>654</v>
+      </c>
+      <c r="O88" t="s">
+        <v>126</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>656</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>657</v>
+      </c>
+      <c r="J89" t="s">
+        <v>658</v>
+      </c>
+      <c r="K89" t="s">
+        <v>659</v>
+      </c>
+      <c r="L89" t="s">
+        <v>660</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>661</v>
+      </c>
+      <c r="O89" t="s">
+        <v>65</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>58264</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>663</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>664</v>
+      </c>
+      <c r="J90" t="s">
+        <v>665</v>
+      </c>
+      <c r="K90" t="s">
+        <v>666</v>
+      </c>
+      <c r="L90" t="s">
+        <v>667</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>668</v>
+      </c>
+      <c r="O90" t="s">
+        <v>65</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>
